--- a/2022-2023-2 嵌入式原理及应用B  Course Arrangement 成绩评定表 物联网32131.xlsx
+++ b/2022-2023-2 嵌入式原理及应用B  Course Arrangement 成绩评定表 物联网32131.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo-InterOffice\Desktop\Qt Embedded嵌入式原理及应用\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop-Lenovo\Qt Embedded嵌入式原理及应用\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{853B1C0B-E32B-48B4-AB5F-50C2137B650F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B691D0E3-B4AF-494F-935A-822A1DB5F775}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{56D46586-203F-4DA5-8833-0738A3BCF6C0}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="163">
   <si>
     <t>Student ID(学号)</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1966,7 +1966,7 @@
   <dimension ref="A1:AI48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3:K40"/>
+      <selection activeCell="L3" sqref="L3:M48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2158,8 +2158,12 @@
       <c r="K3" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
+      <c r="L3" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="23" t="s">
+        <v>12</v>
+      </c>
       <c r="N3" s="22"/>
       <c r="O3" s="22"/>
       <c r="P3" s="22"/>
@@ -2217,8 +2221,12 @@
       <c r="K4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
+      <c r="L4" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="M4" s="23" t="s">
+        <v>12</v>
+      </c>
       <c r="N4" s="22"/>
       <c r="O4" s="22"/>
       <c r="P4" s="22"/>
@@ -2276,8 +2284,12 @@
       <c r="K5" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
+      <c r="L5" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="M5" s="23" t="s">
+        <v>12</v>
+      </c>
       <c r="N5" s="22"/>
       <c r="O5" s="22"/>
       <c r="P5" s="22"/>
@@ -2335,8 +2347,12 @@
       <c r="K6" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
+      <c r="L6" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="M6" s="23" t="s">
+        <v>12</v>
+      </c>
       <c r="N6" s="19"/>
       <c r="O6" s="19"/>
       <c r="P6" s="19"/>
@@ -2394,8 +2410,12 @@
       <c r="K7" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
+      <c r="L7" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="M7" s="23" t="s">
+        <v>12</v>
+      </c>
       <c r="N7" s="22"/>
       <c r="O7" s="22"/>
       <c r="P7" s="22"/>
@@ -2453,8 +2473,12 @@
       <c r="K8" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
+      <c r="L8" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" s="23" t="s">
+        <v>12</v>
+      </c>
       <c r="N8" s="22"/>
       <c r="O8" s="22"/>
       <c r="P8" s="22"/>
@@ -2512,8 +2536,12 @@
       <c r="K9" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
+      <c r="L9" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="M9" s="23" t="s">
+        <v>12</v>
+      </c>
       <c r="N9" s="22"/>
       <c r="O9" s="22"/>
       <c r="P9" s="22"/>
@@ -2571,8 +2599,12 @@
       <c r="K10" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
+      <c r="L10" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="M10" s="23" t="s">
+        <v>12</v>
+      </c>
       <c r="N10" s="22"/>
       <c r="O10" s="22"/>
       <c r="P10" s="22"/>
@@ -2630,8 +2662,12 @@
       <c r="K11" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
+      <c r="L11" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="M11" s="23" t="s">
+        <v>12</v>
+      </c>
       <c r="N11" s="22"/>
       <c r="O11" s="22"/>
       <c r="P11" s="22"/>
@@ -2689,8 +2725,12 @@
       <c r="K12" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
+      <c r="L12" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="M12" s="23" t="s">
+        <v>12</v>
+      </c>
       <c r="N12" s="22"/>
       <c r="O12" s="22"/>
       <c r="P12" s="22"/>
@@ -2748,8 +2788,12 @@
       <c r="K13" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22"/>
+      <c r="L13" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="M13" s="23" t="s">
+        <v>12</v>
+      </c>
       <c r="N13" s="22"/>
       <c r="O13" s="22"/>
       <c r="P13" s="22"/>
@@ -2807,8 +2851,12 @@
       <c r="K14" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
+      <c r="L14" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="M14" s="23" t="s">
+        <v>12</v>
+      </c>
       <c r="N14" s="22"/>
       <c r="O14" s="22"/>
       <c r="P14" s="22"/>
@@ -2866,8 +2914,12 @@
       <c r="K15" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
+      <c r="L15" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="M15" s="23" t="s">
+        <v>12</v>
+      </c>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
@@ -2925,8 +2977,12 @@
       <c r="K16" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
+      <c r="L16" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="M16" s="23" t="s">
+        <v>12</v>
+      </c>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
@@ -2984,8 +3040,12 @@
       <c r="K17" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
+      <c r="L17" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="M17" s="23" t="s">
+        <v>12</v>
+      </c>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
@@ -3043,8 +3103,12 @@
       <c r="K18" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
+      <c r="L18" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="M18" s="23" t="s">
+        <v>12</v>
+      </c>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
@@ -3102,8 +3166,12 @@
       <c r="K19" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
+      <c r="L19" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="M19" s="23" t="s">
+        <v>12</v>
+      </c>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
@@ -3161,8 +3229,12 @@
       <c r="K20" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
+      <c r="L20" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="M20" s="23" t="s">
+        <v>12</v>
+      </c>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
@@ -3220,8 +3292,12 @@
       <c r="K21" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
+      <c r="L21" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="M21" s="23" t="s">
+        <v>12</v>
+      </c>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
@@ -3279,8 +3355,12 @@
       <c r="K22" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
+      <c r="L22" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="M22" s="23" t="s">
+        <v>12</v>
+      </c>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
@@ -3338,8 +3418,12 @@
       <c r="K23" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
+      <c r="L23" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="M23" s="23" t="s">
+        <v>12</v>
+      </c>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
@@ -3397,8 +3481,12 @@
       <c r="K24" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
+      <c r="L24" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="M24" s="23" t="s">
+        <v>12</v>
+      </c>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
@@ -3456,8 +3544,12 @@
       <c r="K25" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
+      <c r="L25" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="M25" s="23" t="s">
+        <v>12</v>
+      </c>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
@@ -3515,8 +3607,12 @@
       <c r="K26" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
+      <c r="L26" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="M26" s="23" t="s">
+        <v>12</v>
+      </c>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
@@ -3574,8 +3670,12 @@
       <c r="K27" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
+      <c r="L27" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="M27" s="23" t="s">
+        <v>12</v>
+      </c>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
@@ -3633,8 +3733,12 @@
       <c r="K28" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
+      <c r="L28" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="M28" s="23" t="s">
+        <v>12</v>
+      </c>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
@@ -3692,8 +3796,12 @@
       <c r="K29" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
+      <c r="L29" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="M29" s="23" t="s">
+        <v>12</v>
+      </c>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
@@ -3751,8 +3859,12 @@
       <c r="K30" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
+      <c r="L30" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="M30" s="23" t="s">
+        <v>12</v>
+      </c>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
@@ -3810,8 +3922,12 @@
       <c r="K31" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
+      <c r="L31" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="M31" s="23" t="s">
+        <v>12</v>
+      </c>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
@@ -3869,8 +3985,12 @@
       <c r="K32" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
+      <c r="L32" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="M32" s="23" t="s">
+        <v>12</v>
+      </c>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
@@ -3928,8 +4048,12 @@
       <c r="K33" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
+      <c r="L33" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="M33" s="23" t="s">
+        <v>12</v>
+      </c>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
@@ -3987,8 +4111,12 @@
       <c r="K34" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
+      <c r="L34" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="M34" s="23" t="s">
+        <v>12</v>
+      </c>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
@@ -4046,8 +4174,12 @@
       <c r="K35" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
+      <c r="L35" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="M35" s="23" t="s">
+        <v>12</v>
+      </c>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
@@ -4105,8 +4237,12 @@
       <c r="K36" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
+      <c r="L36" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="M36" s="23" t="s">
+        <v>12</v>
+      </c>
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
@@ -4164,8 +4300,12 @@
       <c r="K37" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
+      <c r="L37" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="M37" s="23" t="s">
+        <v>12</v>
+      </c>
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
@@ -4223,8 +4363,12 @@
       <c r="K38" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
+      <c r="L38" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="M38" s="23" t="s">
+        <v>12</v>
+      </c>
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
@@ -4282,8 +4426,12 @@
       <c r="K39" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
+      <c r="L39" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="M39" s="23" t="s">
+        <v>12</v>
+      </c>
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
@@ -4341,8 +4489,12 @@
       <c r="K40" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
+      <c r="L40" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="M40" s="23" t="s">
+        <v>12</v>
+      </c>
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
@@ -4400,8 +4552,12 @@
       <c r="K41" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
+      <c r="L41" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="M41" s="23" t="s">
+        <v>12</v>
+      </c>
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
@@ -4459,8 +4615,12 @@
       <c r="K42" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
+      <c r="L42" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="M42" s="23" t="s">
+        <v>12</v>
+      </c>
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
@@ -4518,8 +4678,12 @@
       <c r="K43" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
+      <c r="L43" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="M43" s="23" t="s">
+        <v>12</v>
+      </c>
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
@@ -4577,8 +4741,12 @@
       <c r="K44" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
+      <c r="L44" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="M44" s="23" t="s">
+        <v>12</v>
+      </c>
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
       <c r="P44" s="1"/>
@@ -4636,8 +4804,12 @@
       <c r="K45" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
+      <c r="L45" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="M45" s="23" t="s">
+        <v>12</v>
+      </c>
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
       <c r="P45" s="1"/>
@@ -4695,8 +4867,12 @@
       <c r="K46" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
+      <c r="L46" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="M46" s="23" t="s">
+        <v>12</v>
+      </c>
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
       <c r="P46" s="1"/>
@@ -4754,8 +4930,12 @@
       <c r="K47" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="L47" s="1"/>
-      <c r="M47" s="1"/>
+      <c r="L47" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="M47" s="23" t="s">
+        <v>12</v>
+      </c>
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
       <c r="P47" s="1"/>
@@ -4813,8 +4993,12 @@
       <c r="K48" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="L48" s="1"/>
-      <c r="M48" s="1"/>
+      <c r="L48" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="M48" s="23" t="s">
+        <v>12</v>
+      </c>
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
       <c r="P48" s="1"/>
@@ -5824,66 +6008,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Invited_Students xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
-    <IsNotebookLocked xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
-    <Self_Registration_Enabled xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
-    <FolderType xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
-    <CultureName xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
-    <Student_Groups xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Student_Groups>
-    <DefaultSectionNames xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
-    <Templates xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
-    <NotebookType xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
-    <Teachers xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Teachers>
-    <TeamsChannelId xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
-    <Invited_Teachers xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
-    <Math_Settings xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
-    <Has_Teacher_Only_SectionGroup xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
-    <Owner xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Owner>
-    <Students xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Students>
-    <Distribution_Groups xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
-    <AppVersion xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
-    <LMS_Mappings xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
-    <Is_Collaboration_Space_Locked xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010033F188CDD829674AAD05B93C069E2813" ma:contentTypeVersion="25" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="12f87a5caa000e69b2f4c8c0b3e42f66">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="773ac416-4a36-402f-a3b6-d25dea329997" xmlns:ns4="63d2042b-7b91-46d4-baa3-a67d3669a720" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f06fb7f16fd173aa8b0bb68049ad5879" ns3:_="" ns4:_="">
     <xsd:import namespace="773ac416-4a36-402f-a3b6-d25dea329997"/>
@@ -6242,10 +6366,81 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Invited_Students xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
+    <IsNotebookLocked xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
+    <Self_Registration_Enabled xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
+    <FolderType xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
+    <CultureName xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
+    <Student_Groups xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Student_Groups>
+    <DefaultSectionNames xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
+    <Templates xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
+    <NotebookType xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
+    <Teachers xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Teachers>
+    <TeamsChannelId xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
+    <Invited_Teachers xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
+    <Math_Settings xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
+    <Has_Teacher_Only_SectionGroup xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
+    <Owner xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Owner>
+    <Students xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Students>
+    <Distribution_Groups xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
+    <AppVersion xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
+    <LMS_Mappings xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
+    <Is_Collaboration_Space_Locked xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1AFF0ECA-8F3D-4871-93DE-8F766A9E7256}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6741670B-461B-4661-A53C-BD46BBECF45E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="773ac416-4a36-402f-a3b6-d25dea329997"/>
+    <ds:schemaRef ds:uri="63d2042b-7b91-46d4-baa3-a67d3669a720"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6268,20 +6463,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6741670B-461B-4661-A53C-BD46BBECF45E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1AFF0ECA-8F3D-4871-93DE-8F766A9E7256}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="773ac416-4a36-402f-a3b6-d25dea329997"/>
-    <ds:schemaRef ds:uri="63d2042b-7b91-46d4-baa3-a67d3669a720"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/2022-2023-2 嵌入式原理及应用B  Course Arrangement 成绩评定表 物联网32131.xlsx
+++ b/2022-2023-2 嵌入式原理及应用B  Course Arrangement 成绩评定表 物联网32131.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop-Lenovo\Qt Embedded嵌入式原理及应用\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yi Ping\Documents\GitHub\Qt-Embedded-System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B691D0E3-B4AF-494F-935A-822A1DB5F775}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA447A0E-BF2D-42F8-89BA-91D3BEC6A7AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{56D46586-203F-4DA5-8833-0738A3BCF6C0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{56D46586-203F-4DA5-8833-0738A3BCF6C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Basic Information 物联网92061" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="164">
   <si>
     <t>Student ID(学号)</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -541,6 +541,10 @@
   </si>
   <si>
     <t>请假</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈非凡</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -548,7 +552,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -732,6 +736,27 @@
       <family val="3"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -803,7 +828,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -904,6 +929,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="24" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1965,7 +2002,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91AC44C4-55D5-4851-BBF2-151A82E50550}">
   <dimension ref="A1:AI48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="L3" sqref="L3:M48"/>
     </sheetView>
   </sheetViews>
@@ -5205,10 +5242,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06EBC456-0353-452F-B62B-0A1B41F55AD0}">
-  <dimension ref="A1:H48"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N40" sqref="N40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5274,7 +5311,9 @@
       <c r="D3" s="30"/>
       <c r="E3" s="18"/>
       <c r="F3" s="16"/>
-      <c r="G3" s="18"/>
+      <c r="G3" s="18">
+        <v>87</v>
+      </c>
       <c r="H3" s="17"/>
     </row>
     <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5290,7 +5329,9 @@
       <c r="D4" s="30"/>
       <c r="E4" s="18"/>
       <c r="F4" s="16"/>
-      <c r="G4" s="18"/>
+      <c r="G4" s="34">
+        <v>57</v>
+      </c>
       <c r="H4" s="17"/>
     </row>
     <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5306,7 +5347,9 @@
       <c r="D5" s="30"/>
       <c r="E5" s="18"/>
       <c r="F5" s="16"/>
-      <c r="G5" s="18"/>
+      <c r="G5" s="34">
+        <v>57</v>
+      </c>
       <c r="H5" s="17"/>
     </row>
     <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5322,7 +5365,9 @@
       <c r="D6" s="30"/>
       <c r="E6" s="18"/>
       <c r="F6" s="16"/>
-      <c r="G6" s="18"/>
+      <c r="G6" s="34">
+        <v>53</v>
+      </c>
       <c r="H6" s="17"/>
     </row>
     <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5338,7 +5383,9 @@
       <c r="D7" s="30"/>
       <c r="E7" s="18"/>
       <c r="F7" s="16"/>
-      <c r="G7" s="18"/>
+      <c r="G7" s="18">
+        <v>87</v>
+      </c>
       <c r="H7" s="17"/>
     </row>
     <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5354,7 +5401,9 @@
       <c r="D8" s="30"/>
       <c r="E8" s="18"/>
       <c r="F8" s="16"/>
-      <c r="G8" s="18"/>
+      <c r="G8" s="18">
+        <v>79</v>
+      </c>
       <c r="H8" s="17"/>
     </row>
     <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5370,7 +5419,9 @@
       <c r="D9" s="30"/>
       <c r="E9" s="18"/>
       <c r="F9" s="16"/>
-      <c r="G9" s="18"/>
+      <c r="G9" s="37">
+        <v>35</v>
+      </c>
       <c r="H9" s="17"/>
     </row>
     <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5386,7 +5437,9 @@
       <c r="D10" s="30"/>
       <c r="E10" s="18"/>
       <c r="F10" s="16"/>
-      <c r="G10" s="18"/>
+      <c r="G10" s="34">
+        <v>54</v>
+      </c>
       <c r="H10" s="17"/>
     </row>
     <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5402,7 +5455,9 @@
       <c r="D11" s="30"/>
       <c r="E11" s="18"/>
       <c r="F11" s="16"/>
-      <c r="G11" s="18"/>
+      <c r="G11" s="18">
+        <v>82</v>
+      </c>
       <c r="H11" s="17"/>
     </row>
     <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5418,7 +5473,9 @@
       <c r="D12" s="30"/>
       <c r="E12" s="18"/>
       <c r="F12" s="16"/>
-      <c r="G12" s="18"/>
+      <c r="G12" s="18">
+        <v>60</v>
+      </c>
       <c r="H12" s="17"/>
     </row>
     <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5434,7 +5491,9 @@
       <c r="D13" s="30"/>
       <c r="E13" s="18"/>
       <c r="F13" s="16"/>
-      <c r="G13" s="18"/>
+      <c r="G13" s="18">
+        <v>63</v>
+      </c>
       <c r="H13" s="17"/>
     </row>
     <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5450,7 +5509,9 @@
       <c r="D14" s="30"/>
       <c r="E14" s="18"/>
       <c r="F14" s="16"/>
-      <c r="G14" s="18"/>
+      <c r="G14" s="18">
+        <v>67</v>
+      </c>
       <c r="H14" s="17"/>
     </row>
     <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5466,7 +5527,9 @@
       <c r="D15" s="27"/>
       <c r="E15" s="27"/>
       <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
+      <c r="G15" s="35">
+        <v>54</v>
+      </c>
       <c r="H15" s="29"/>
     </row>
     <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5482,7 +5545,9 @@
       <c r="D16" s="27"/>
       <c r="E16" s="27"/>
       <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
+      <c r="G16" s="28">
+        <v>85</v>
+      </c>
       <c r="H16" s="29"/>
     </row>
     <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5498,7 +5563,9 @@
       <c r="D17" s="27"/>
       <c r="E17" s="27"/>
       <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
+      <c r="G17" s="28">
+        <v>78</v>
+      </c>
       <c r="H17" s="29"/>
     </row>
     <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5514,7 +5581,9 @@
       <c r="D18" s="27"/>
       <c r="E18" s="27"/>
       <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
+      <c r="G18" s="28">
+        <v>68</v>
+      </c>
       <c r="H18" s="29"/>
     </row>
     <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5530,7 +5599,9 @@
       <c r="D19" s="27"/>
       <c r="E19" s="27"/>
       <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
+      <c r="G19" s="28">
+        <v>60</v>
+      </c>
       <c r="H19" s="29"/>
     </row>
     <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5546,7 +5617,9 @@
       <c r="D20" s="27"/>
       <c r="E20" s="27"/>
       <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
+      <c r="G20" s="35">
+        <v>46</v>
+      </c>
       <c r="H20" s="29"/>
     </row>
     <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5562,7 +5635,9 @@
       <c r="D21" s="27"/>
       <c r="E21" s="27"/>
       <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
+      <c r="G21" s="28">
+        <v>82</v>
+      </c>
       <c r="H21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5578,7 +5653,9 @@
       <c r="D22" s="27"/>
       <c r="E22" s="27"/>
       <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
+      <c r="G22" s="35">
+        <v>56</v>
+      </c>
       <c r="H22" s="29"/>
     </row>
     <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5594,7 +5671,9 @@
       <c r="D23" s="27"/>
       <c r="E23" s="27"/>
       <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
+      <c r="G23" s="28">
+        <v>62</v>
+      </c>
       <c r="H23" s="29"/>
     </row>
     <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5610,7 +5689,9 @@
       <c r="D24" s="27"/>
       <c r="E24" s="27"/>
       <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
+      <c r="G24" s="28">
+        <v>78</v>
+      </c>
       <c r="H24" s="29"/>
     </row>
     <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5626,7 +5707,9 @@
       <c r="D25" s="27"/>
       <c r="E25" s="27"/>
       <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
+      <c r="G25" s="28">
+        <v>69</v>
+      </c>
       <c r="H25" s="29"/>
     </row>
     <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5642,7 +5725,9 @@
       <c r="D26" s="27"/>
       <c r="E26" s="27"/>
       <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
+      <c r="G26" s="28">
+        <v>85</v>
+      </c>
       <c r="H26" s="29"/>
     </row>
     <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5658,7 +5743,9 @@
       <c r="D27" s="27"/>
       <c r="E27" s="27"/>
       <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
+      <c r="G27" s="28">
+        <v>72</v>
+      </c>
       <c r="H27" s="29"/>
     </row>
     <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5674,7 +5761,9 @@
       <c r="D28" s="27"/>
       <c r="E28" s="27"/>
       <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
+      <c r="G28" s="35">
+        <v>48</v>
+      </c>
       <c r="H28" s="29"/>
     </row>
     <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5690,7 +5779,9 @@
       <c r="D29" s="27"/>
       <c r="E29" s="27"/>
       <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
+      <c r="G29" s="28">
+        <v>74</v>
+      </c>
       <c r="H29" s="29"/>
     </row>
     <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5706,7 +5797,9 @@
       <c r="D30" s="27"/>
       <c r="E30" s="27"/>
       <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
+      <c r="G30" s="28">
+        <v>92</v>
+      </c>
       <c r="H30" s="29"/>
     </row>
     <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5722,7 +5815,9 @@
       <c r="D31" s="27"/>
       <c r="E31" s="27"/>
       <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
+      <c r="G31" s="28">
+        <v>77</v>
+      </c>
       <c r="H31" s="29"/>
     </row>
     <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5738,7 +5833,9 @@
       <c r="D32" s="27"/>
       <c r="E32" s="27"/>
       <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
+      <c r="G32" s="35">
+        <v>55</v>
+      </c>
       <c r="H32" s="29"/>
     </row>
     <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5754,7 +5851,9 @@
       <c r="D33" s="27"/>
       <c r="E33" s="27"/>
       <c r="F33" s="28"/>
-      <c r="G33" s="28"/>
+      <c r="G33" s="28">
+        <v>76</v>
+      </c>
       <c r="H33" s="29"/>
     </row>
     <row r="34" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5770,7 +5869,9 @@
       <c r="D34" s="27"/>
       <c r="E34" s="27"/>
       <c r="F34" s="28"/>
-      <c r="G34" s="28"/>
+      <c r="G34" s="28">
+        <v>69</v>
+      </c>
       <c r="H34" s="29"/>
     </row>
     <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5786,7 +5887,9 @@
       <c r="D35" s="27"/>
       <c r="E35" s="27"/>
       <c r="F35" s="28"/>
-      <c r="G35" s="28"/>
+      <c r="G35" s="35">
+        <v>57</v>
+      </c>
       <c r="H35" s="29"/>
     </row>
     <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5802,7 +5905,9 @@
       <c r="D36" s="27"/>
       <c r="E36" s="27"/>
       <c r="F36" s="28"/>
-      <c r="G36" s="28"/>
+      <c r="G36" s="28">
+        <v>61</v>
+      </c>
       <c r="H36" s="29"/>
     </row>
     <row r="37" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5818,7 +5923,9 @@
       <c r="D37" s="27"/>
       <c r="E37" s="27"/>
       <c r="F37" s="28"/>
-      <c r="G37" s="28"/>
+      <c r="G37" s="28">
+        <v>64</v>
+      </c>
       <c r="H37" s="29"/>
     </row>
     <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5834,7 +5941,9 @@
       <c r="D38" s="27"/>
       <c r="E38" s="27"/>
       <c r="F38" s="28"/>
-      <c r="G38" s="28"/>
+      <c r="G38" s="35">
+        <v>59</v>
+      </c>
       <c r="H38" s="29"/>
     </row>
     <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5850,7 +5959,9 @@
       <c r="D39" s="27"/>
       <c r="E39" s="27"/>
       <c r="F39" s="28"/>
-      <c r="G39" s="28"/>
+      <c r="G39" s="28">
+        <v>73</v>
+      </c>
       <c r="H39" s="29"/>
     </row>
     <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5866,7 +5977,9 @@
       <c r="D40" s="27"/>
       <c r="E40" s="27"/>
       <c r="F40" s="28"/>
-      <c r="G40" s="28"/>
+      <c r="G40" s="28">
+        <v>73</v>
+      </c>
       <c r="H40" s="29"/>
     </row>
     <row r="41" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5882,7 +5995,9 @@
       <c r="D41" s="27"/>
       <c r="E41" s="27"/>
       <c r="F41" s="28"/>
-      <c r="G41" s="28"/>
+      <c r="G41" s="28">
+        <v>64</v>
+      </c>
       <c r="H41" s="29"/>
     </row>
     <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5898,7 +6013,9 @@
       <c r="D42" s="27"/>
       <c r="E42" s="27"/>
       <c r="F42" s="28"/>
-      <c r="G42" s="28"/>
+      <c r="G42" s="35">
+        <v>51</v>
+      </c>
       <c r="H42" s="29"/>
     </row>
     <row r="43" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5914,7 +6031,9 @@
       <c r="D43" s="27"/>
       <c r="E43" s="27"/>
       <c r="F43" s="28"/>
-      <c r="G43" s="28"/>
+      <c r="G43" s="28">
+        <v>71</v>
+      </c>
       <c r="H43" s="29"/>
     </row>
     <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5930,7 +6049,9 @@
       <c r="D44" s="27"/>
       <c r="E44" s="27"/>
       <c r="F44" s="28"/>
-      <c r="G44" s="28"/>
+      <c r="G44" s="28">
+        <v>63</v>
+      </c>
       <c r="H44" s="29"/>
     </row>
     <row r="45" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5946,7 +6067,9 @@
       <c r="D45" s="27"/>
       <c r="E45" s="27"/>
       <c r="F45" s="28"/>
-      <c r="G45" s="28"/>
+      <c r="G45" s="28">
+        <v>61</v>
+      </c>
       <c r="H45" s="29"/>
     </row>
     <row r="46" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5962,7 +6085,9 @@
       <c r="D46" s="27"/>
       <c r="E46" s="27"/>
       <c r="F46" s="28"/>
-      <c r="G46" s="28"/>
+      <c r="G46" s="28">
+        <v>78</v>
+      </c>
       <c r="H46" s="29"/>
     </row>
     <row r="47" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5978,7 +6103,9 @@
       <c r="D47" s="27"/>
       <c r="E47" s="27"/>
       <c r="F47" s="28"/>
-      <c r="G47" s="28"/>
+      <c r="G47" s="28">
+        <v>70</v>
+      </c>
       <c r="H47" s="29"/>
     </row>
     <row r="48" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5994,8 +6121,28 @@
       <c r="D48" s="27"/>
       <c r="E48" s="27"/>
       <c r="F48" s="28"/>
-      <c r="G48" s="28"/>
+      <c r="G48" s="35">
+        <v>46</v>
+      </c>
       <c r="H48" s="29"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" s="26">
+        <v>3040193302</v>
+      </c>
+      <c r="C49" s="36" t="s">
+        <v>163</v>
+      </c>
+      <c r="D49" s="27"/>
+      <c r="E49" s="27"/>
+      <c r="F49" s="28"/>
+      <c r="G49" s="28">
+        <v>64</v>
+      </c>
+      <c r="H49" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6008,6 +6155,66 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Invited_Students xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
+    <IsNotebookLocked xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
+    <Self_Registration_Enabled xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
+    <FolderType xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
+    <CultureName xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
+    <Student_Groups xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Student_Groups>
+    <DefaultSectionNames xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
+    <Templates xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
+    <NotebookType xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
+    <Teachers xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Teachers>
+    <TeamsChannelId xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
+    <Invited_Teachers xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
+    <Math_Settings xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
+    <Has_Teacher_Only_SectionGroup xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
+    <Owner xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Owner>
+    <Students xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Students>
+    <Distribution_Groups xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
+    <AppVersion xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
+    <LMS_Mappings xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
+    <Is_Collaboration_Space_Locked xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010033F188CDD829674AAD05B93C069E2813" ma:contentTypeVersion="25" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="12f87a5caa000e69b2f4c8c0b3e42f66">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="773ac416-4a36-402f-a3b6-d25dea329997" xmlns:ns4="63d2042b-7b91-46d4-baa3-a67d3669a720" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f06fb7f16fd173aa8b0bb68049ad5879" ns3:_="" ns4:_="">
     <xsd:import namespace="773ac416-4a36-402f-a3b6-d25dea329997"/>
@@ -6366,81 +6573,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Invited_Students xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
-    <IsNotebookLocked xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
-    <Self_Registration_Enabled xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
-    <FolderType xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
-    <CultureName xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
-    <Student_Groups xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Student_Groups>
-    <DefaultSectionNames xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
-    <Templates xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
-    <NotebookType xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
-    <Teachers xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Teachers>
-    <TeamsChannelId xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
-    <Invited_Teachers xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
-    <Math_Settings xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
-    <Has_Teacher_Only_SectionGroup xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
-    <Owner xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Owner>
-    <Students xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Students>
-    <Distribution_Groups xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
-    <AppVersion xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
-    <LMS_Mappings xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
-    <Is_Collaboration_Space_Locked xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6741670B-461B-4661-A53C-BD46BBECF45E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1AFF0ECA-8F3D-4871-93DE-8F766A9E7256}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="773ac416-4a36-402f-a3b6-d25dea329997"/>
-    <ds:schemaRef ds:uri="63d2042b-7b91-46d4-baa3-a67d3669a720"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6463,9 +6599,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1AFF0ECA-8F3D-4871-93DE-8F766A9E7256}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6741670B-461B-4661-A53C-BD46BBECF45E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="773ac416-4a36-402f-a3b6-d25dea329997"/>
+    <ds:schemaRef ds:uri="63d2042b-7b91-46d4-baa3-a67d3669a720"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/2022-2023-2 嵌入式原理及应用B  Course Arrangement 成绩评定表 物联网32131.xlsx
+++ b/2022-2023-2 嵌入式原理及应用B  Course Arrangement 成绩评定表 物联网32131.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo-InterOffice\Documents\GitHub\Qt-Embedded-System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E24F96-B42E-40F8-825E-20928AF9649F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C81DFB9E-7176-48CD-9CC6-2073759E7461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{56D46586-203F-4DA5-8833-0738A3BCF6C0}"/>
   </bookViews>
@@ -829,7 +829,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1019,6 +1019,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
@@ -1117,7 +1125,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1226,17 +1234,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7524,7 +7535,7 @@
   <dimension ref="A2:L49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7590,7 +7601,9 @@
       <c r="F3" s="1">
         <v>90</v>
       </c>
-      <c r="G3" s="1"/>
+      <c r="G3" s="1">
+        <v>90</v>
+      </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -7616,7 +7629,9 @@
       <c r="F4" s="1">
         <v>90</v>
       </c>
-      <c r="G4" s="1"/>
+      <c r="G4" s="1">
+        <v>80</v>
+      </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -7642,7 +7657,9 @@
       <c r="F5" s="1">
         <v>85</v>
       </c>
-      <c r="G5" s="1"/>
+      <c r="G5" s="40">
+        <v>60</v>
+      </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -7664,7 +7681,9 @@
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="G6" s="1">
+        <v>85</v>
+      </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -7690,7 +7709,9 @@
       <c r="F7" s="1">
         <v>90</v>
       </c>
-      <c r="G7" s="1"/>
+      <c r="G7" s="1">
+        <v>90</v>
+      </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -7716,7 +7737,9 @@
       <c r="F8" s="1">
         <v>60</v>
       </c>
-      <c r="G8" s="1"/>
+      <c r="G8" s="1">
+        <v>80</v>
+      </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -7742,7 +7765,9 @@
       <c r="F9" s="1">
         <v>70</v>
       </c>
-      <c r="G9" s="1"/>
+      <c r="G9" s="1">
+        <v>80</v>
+      </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -7768,7 +7793,9 @@
       <c r="F10" s="1">
         <v>90</v>
       </c>
-      <c r="G10" s="1"/>
+      <c r="G10" s="1">
+        <v>80</v>
+      </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -7794,7 +7821,9 @@
       <c r="F11" s="1">
         <v>90</v>
       </c>
-      <c r="G11" s="1"/>
+      <c r="G11" s="1">
+        <v>90</v>
+      </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -7820,7 +7849,9 @@
       <c r="F12" s="1">
         <v>80</v>
       </c>
-      <c r="G12" s="1"/>
+      <c r="G12" s="1">
+        <v>90</v>
+      </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -7846,7 +7877,9 @@
       <c r="F13" s="1">
         <v>70</v>
       </c>
-      <c r="G13" s="1"/>
+      <c r="G13" s="1">
+        <v>85</v>
+      </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -7870,7 +7903,9 @@
         <v>85</v>
       </c>
       <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+      <c r="G14" s="1">
+        <v>60</v>
+      </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -7896,7 +7931,9 @@
       <c r="F15" s="1">
         <v>60</v>
       </c>
-      <c r="G15" s="1"/>
+      <c r="G15" s="1">
+        <v>80</v>
+      </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -7922,7 +7959,9 @@
       <c r="F16" s="1">
         <v>90</v>
       </c>
-      <c r="G16" s="1"/>
+      <c r="G16" s="1">
+        <v>90</v>
+      </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -7948,7 +7987,9 @@
       <c r="F17" s="1">
         <v>90</v>
       </c>
-      <c r="G17" s="1"/>
+      <c r="G17" s="1">
+        <v>90</v>
+      </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -7974,7 +8015,9 @@
       <c r="F18" s="1">
         <v>85</v>
       </c>
-      <c r="G18" s="1"/>
+      <c r="G18" s="1">
+        <v>90</v>
+      </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -8000,7 +8043,9 @@
       <c r="F19" s="1">
         <v>90</v>
       </c>
-      <c r="G19" s="1"/>
+      <c r="G19" s="1">
+        <v>90</v>
+      </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -8026,7 +8071,9 @@
       <c r="F20" s="1">
         <v>65</v>
       </c>
-      <c r="G20" s="1"/>
+      <c r="G20" s="1">
+        <v>80</v>
+      </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -8052,7 +8099,9 @@
       <c r="F21" s="1">
         <v>75</v>
       </c>
-      <c r="G21" s="1"/>
+      <c r="G21" s="1">
+        <v>90</v>
+      </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -8078,7 +8127,9 @@
       <c r="F22" s="1">
         <v>85</v>
       </c>
-      <c r="G22" s="1"/>
+      <c r="G22" s="1">
+        <v>80</v>
+      </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -8104,7 +8155,9 @@
       <c r="F23" s="1">
         <v>70</v>
       </c>
-      <c r="G23" s="1"/>
+      <c r="G23" s="1">
+        <v>75</v>
+      </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -8130,7 +8183,9 @@
       <c r="F24" s="1">
         <v>90</v>
       </c>
-      <c r="G24" s="1"/>
+      <c r="G24" s="1">
+        <v>90</v>
+      </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -8156,7 +8211,9 @@
       <c r="F25" s="1">
         <v>85</v>
       </c>
-      <c r="G25" s="1"/>
+      <c r="G25" s="1">
+        <v>70</v>
+      </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -8182,7 +8239,9 @@
       <c r="F26" s="1">
         <v>80</v>
       </c>
-      <c r="G26" s="1"/>
+      <c r="G26" s="1">
+        <v>75</v>
+      </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
@@ -8208,7 +8267,9 @@
       <c r="F27" s="1">
         <v>90</v>
       </c>
-      <c r="G27" s="1"/>
+      <c r="G27" s="1">
+        <v>80</v>
+      </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
@@ -8234,7 +8295,9 @@
       <c r="F28" s="1">
         <v>90</v>
       </c>
-      <c r="G28" s="1"/>
+      <c r="G28" s="1">
+        <v>90</v>
+      </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -8260,7 +8323,9 @@
       <c r="F29" s="1">
         <v>75</v>
       </c>
-      <c r="G29" s="1"/>
+      <c r="G29" s="1">
+        <v>60</v>
+      </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -8286,7 +8351,9 @@
       <c r="F30" s="1">
         <v>90</v>
       </c>
-      <c r="G30" s="1"/>
+      <c r="G30" s="1">
+        <v>90</v>
+      </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
@@ -8312,7 +8379,9 @@
       <c r="F31" s="1">
         <v>90</v>
       </c>
-      <c r="G31" s="1"/>
+      <c r="G31" s="1">
+        <v>80</v>
+      </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
@@ -8338,7 +8407,9 @@
       <c r="F32" s="1">
         <v>85</v>
       </c>
-      <c r="G32" s="1"/>
+      <c r="G32" s="1">
+        <v>75</v>
+      </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
@@ -8364,7 +8435,9 @@
       <c r="F33" s="1">
         <v>10</v>
       </c>
-      <c r="G33" s="1"/>
+      <c r="G33" s="1">
+        <v>60</v>
+      </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
@@ -8390,7 +8463,9 @@
       <c r="F34" s="1">
         <v>80</v>
       </c>
-      <c r="G34" s="1"/>
+      <c r="G34" s="1">
+        <v>90</v>
+      </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
@@ -8416,7 +8491,9 @@
       <c r="F35" s="1">
         <v>80</v>
       </c>
-      <c r="G35" s="1"/>
+      <c r="G35" s="1">
+        <v>80</v>
+      </c>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
@@ -8442,7 +8519,9 @@
       <c r="F36" s="1">
         <v>80</v>
       </c>
-      <c r="G36" s="1"/>
+      <c r="G36" s="1">
+        <v>70</v>
+      </c>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
@@ -8468,7 +8547,9 @@
       <c r="F37" s="1">
         <v>75</v>
       </c>
-      <c r="G37" s="1"/>
+      <c r="G37" s="1">
+        <v>80</v>
+      </c>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
@@ -8494,7 +8575,9 @@
       <c r="F38" s="1">
         <v>85</v>
       </c>
-      <c r="G38" s="1"/>
+      <c r="G38" s="1">
+        <v>85</v>
+      </c>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
@@ -8520,7 +8603,9 @@
       <c r="F39" s="1">
         <v>70</v>
       </c>
-      <c r="G39" s="1"/>
+      <c r="G39" s="1">
+        <v>70</v>
+      </c>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
@@ -8546,7 +8631,9 @@
       <c r="F40" s="1">
         <v>85</v>
       </c>
-      <c r="G40" s="1"/>
+      <c r="G40" s="1">
+        <v>80</v>
+      </c>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
@@ -8572,7 +8659,9 @@
       <c r="F41" s="1">
         <v>85</v>
       </c>
-      <c r="G41" s="1"/>
+      <c r="G41" s="1">
+        <v>80</v>
+      </c>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
@@ -8595,8 +8684,12 @@
       <c r="E42" s="1">
         <v>80</v>
       </c>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
+      <c r="F42" s="1">
+        <v>90</v>
+      </c>
+      <c r="G42" s="1">
+        <v>80</v>
+      </c>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
@@ -8619,8 +8712,12 @@
       <c r="E43" s="1">
         <v>90</v>
       </c>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
+      <c r="F43" s="1">
+        <v>85</v>
+      </c>
+      <c r="G43" s="1">
+        <v>85</v>
+      </c>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
@@ -8643,8 +8740,12 @@
       <c r="E44" s="1">
         <v>85</v>
       </c>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
+      <c r="F44" s="1">
+        <v>85</v>
+      </c>
+      <c r="G44" s="1">
+        <v>85</v>
+      </c>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
@@ -8667,8 +8768,12 @@
       <c r="E45" s="1">
         <v>80</v>
       </c>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
+      <c r="F45" s="1">
+        <v>90</v>
+      </c>
+      <c r="G45" s="1">
+        <v>90</v>
+      </c>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
@@ -8691,8 +8796,12 @@
       <c r="E46" s="1">
         <v>80</v>
       </c>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
+      <c r="F46" s="1">
+        <v>80</v>
+      </c>
+      <c r="G46" s="1">
+        <v>80</v>
+      </c>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
@@ -8715,8 +8824,12 @@
       <c r="E47" s="1">
         <v>85</v>
       </c>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
+      <c r="F47" s="1">
+        <v>90</v>
+      </c>
+      <c r="G47" s="1">
+        <v>80</v>
+      </c>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
@@ -8739,8 +8852,12 @@
       <c r="E48" s="1">
         <v>75</v>
       </c>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
+      <c r="F48" s="1">
+        <v>60</v>
+      </c>
+      <c r="G48" s="1">
+        <v>80</v>
+      </c>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
@@ -8766,7 +8883,9 @@
       <c r="F49" s="1">
         <v>90</v>
       </c>
-      <c r="G49" s="1"/>
+      <c r="G49" s="1">
+        <v>85</v>
+      </c>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>

--- a/2022-2023-2 嵌入式原理及应用B  Course Arrangement 成绩评定表 物联网32131.xlsx
+++ b/2022-2023-2 嵌入式原理及应用B  Course Arrangement 成绩评定表 物联网32131.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo-InterOffice\Documents\GitHub\Qt-Embedded-System\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yi Ping\Documents\GitHub\Qt-Embedded-System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AE9A43C-2207-4ECB-8840-C0F2F11D2EFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9F60165-F039-4CD9-9C6E-6786538342F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{56D46586-203F-4DA5-8833-0738A3BCF6C0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{56D46586-203F-4DA5-8833-0738A3BCF6C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Basic Information 物联网92061" sheetId="1" r:id="rId1"/>
@@ -31,8 +31,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -40,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1930" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1930" uniqueCount="180">
   <si>
     <t>Student ID(学号)</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -98,14 +96,6 @@
   </si>
   <si>
     <t>unsubmitted namelist</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Attendance (20%)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assignment Codes(40%)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -852,23 +842,23 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>阿布都买尔、殷其辉、赵志伟 （无法打开）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>阿布都买尔、平原</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>余佳达、阿布都买尔</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>阿布都买尔、殷其辉</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>阿布都买尔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attendance (10%)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assignment Codes(50%)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1158,7 +1148,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1249,18 +1239,6 @@
     <xf numFmtId="49" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1279,8 +1257,17 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1612,13 +1599,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="40.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
-        <v>158</v>
-      </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
+      <c r="A1" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
     </row>
     <row r="2" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
@@ -1642,13 +1629,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E3" s="2"/>
     </row>
@@ -1657,13 +1644,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -1672,13 +1659,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E5" s="2"/>
     </row>
@@ -1687,13 +1674,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E6" s="1"/>
     </row>
@@ -1702,13 +1689,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E7" s="2"/>
     </row>
@@ -1717,13 +1704,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E8" s="2"/>
     </row>
@@ -1732,13 +1719,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E9" s="2"/>
     </row>
@@ -1747,13 +1734,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E10" s="2"/>
     </row>
@@ -1762,13 +1749,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E11" s="2"/>
     </row>
@@ -1777,13 +1764,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E12" s="2"/>
     </row>
@@ -1792,13 +1779,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E13" s="2"/>
     </row>
@@ -1807,13 +1794,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E14" s="2"/>
     </row>
@@ -1822,13 +1809,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E15" s="2"/>
     </row>
@@ -1837,13 +1824,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E16" s="2"/>
     </row>
@@ -1852,13 +1839,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E17" s="2"/>
     </row>
@@ -1867,13 +1854,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E18" s="2"/>
     </row>
@@ -1882,13 +1869,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E19" s="2"/>
     </row>
@@ -1897,13 +1884,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E20" s="2"/>
     </row>
@@ -1912,13 +1899,13 @@
         <v>19</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E21" s="2"/>
     </row>
@@ -1927,13 +1914,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E22" s="2"/>
     </row>
@@ -1942,13 +1929,13 @@
         <v>21</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E23" s="2"/>
     </row>
@@ -1957,13 +1944,13 @@
         <v>22</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E24" s="2"/>
     </row>
@@ -1972,13 +1959,13 @@
         <v>23</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E25" s="2"/>
     </row>
@@ -1987,13 +1974,13 @@
         <v>24</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E26" s="2"/>
     </row>
@@ -2002,13 +1989,13 @@
         <v>25</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E27" s="2"/>
     </row>
@@ -2017,13 +2004,13 @@
         <v>26</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E28" s="2"/>
     </row>
@@ -2032,13 +2019,13 @@
         <v>27</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E29" s="2"/>
     </row>
@@ -2047,13 +2034,13 @@
         <v>28</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E30" s="2"/>
     </row>
@@ -2062,13 +2049,13 @@
         <v>29</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E31" s="2"/>
     </row>
@@ -2077,13 +2064,13 @@
         <v>30</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E32" s="2"/>
     </row>
@@ -2092,13 +2079,13 @@
         <v>31</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E33" s="2"/>
     </row>
@@ -2107,13 +2094,13 @@
         <v>32</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E34" s="2"/>
     </row>
@@ -2122,13 +2109,13 @@
         <v>33</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E35" s="2"/>
     </row>
@@ -2137,13 +2124,13 @@
         <v>34</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E36" s="2"/>
     </row>
@@ -2152,13 +2139,13 @@
         <v>35</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E37" s="2"/>
     </row>
@@ -2167,13 +2154,13 @@
         <v>36</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E38" s="2"/>
     </row>
@@ -2182,13 +2169,13 @@
         <v>37</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E39" s="2"/>
     </row>
@@ -2197,13 +2184,13 @@
         <v>38</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C40" s="17" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E40" s="2"/>
     </row>
@@ -2212,13 +2199,13 @@
         <v>39</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E41" s="2"/>
     </row>
@@ -2227,13 +2214,13 @@
         <v>40</v>
       </c>
       <c r="B42" s="17" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C42" s="17" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E42" s="2"/>
     </row>
@@ -2242,13 +2229,13 @@
         <v>41</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E43" s="2"/>
     </row>
@@ -2257,13 +2244,13 @@
         <v>42</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C44" s="17" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E44" s="2"/>
     </row>
@@ -2272,13 +2259,13 @@
         <v>43</v>
       </c>
       <c r="B45" s="17" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E45" s="2"/>
     </row>
@@ -2287,13 +2274,13 @@
         <v>44</v>
       </c>
       <c r="B46" s="17" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C46" s="17" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E46" s="2"/>
     </row>
@@ -2302,13 +2289,13 @@
         <v>45</v>
       </c>
       <c r="B47" s="17" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C47" s="17" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E47" s="2"/>
     </row>
@@ -2317,13 +2304,13 @@
         <v>46</v>
       </c>
       <c r="B48" s="17" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E48" s="2"/>
     </row>
@@ -2355,43 +2342,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="28.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="31" t="s">
-        <v>159</v>
-      </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31"/>
-      <c r="U1" s="31"/>
-      <c r="V1" s="31"/>
-      <c r="W1" s="31"/>
-      <c r="X1" s="31"/>
-      <c r="Y1" s="31"/>
-      <c r="Z1" s="31"/>
-      <c r="AA1" s="31"/>
-      <c r="AB1" s="31"/>
-      <c r="AC1" s="31"/>
-      <c r="AD1" s="31"/>
-      <c r="AE1" s="31"/>
-      <c r="AF1" s="31"/>
-      <c r="AG1" s="31"/>
-      <c r="AH1" s="31"/>
-      <c r="AI1" s="31"/>
+      <c r="A1" s="38" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="38"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="38"/>
+      <c r="X1" s="38"/>
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="38"/>
+      <c r="AA1" s="38"/>
+      <c r="AB1" s="38"/>
+      <c r="AC1" s="38"/>
+      <c r="AD1" s="38"/>
+      <c r="AE1" s="38"/>
+      <c r="AF1" s="38"/>
+      <c r="AG1" s="38"/>
+      <c r="AH1" s="38"/>
+      <c r="AI1" s="38"/>
     </row>
     <row r="2" spans="1:35" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
@@ -2505,10 +2492,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D3" s="20" t="s">
         <v>12</v>
@@ -2612,10 +2599,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D4" s="20" t="s">
         <v>12</v>
@@ -2633,7 +2620,7 @@
         <v>12</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="J4" s="18" t="s">
         <v>12</v>
@@ -2719,10 +2706,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D5" s="20" t="s">
         <v>12</v>
@@ -2826,10 +2813,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D6" s="20" t="s">
         <v>12</v>
@@ -2933,10 +2920,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D7" s="20" t="s">
         <v>12</v>
@@ -3040,10 +3027,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D8" s="20" t="s">
         <v>12</v>
@@ -3147,10 +3134,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D9" s="20" t="s">
         <v>12</v>
@@ -3254,10 +3241,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D10" s="20" t="s">
         <v>12</v>
@@ -3361,10 +3348,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D11" s="20" t="s">
         <v>12</v>
@@ -3468,10 +3455,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D12" s="20" t="s">
         <v>12</v>
@@ -3575,10 +3562,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D13" s="20" t="s">
         <v>12</v>
@@ -3682,16 +3669,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D14" s="20" t="s">
         <v>12</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F14" s="20" t="s">
         <v>12</v>
@@ -3789,10 +3776,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D15" s="20" t="s">
         <v>12</v>
@@ -3896,10 +3883,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D16" s="20" t="s">
         <v>12</v>
@@ -4003,10 +3990,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D17" s="20" t="s">
         <v>12</v>
@@ -4110,10 +4097,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D18" s="20" t="s">
         <v>12</v>
@@ -4217,10 +4204,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D19" s="20" t="s">
         <v>12</v>
@@ -4324,10 +4311,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D20" s="20" t="s">
         <v>12</v>
@@ -4431,10 +4418,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D21" s="20" t="s">
         <v>12</v>
@@ -4538,10 +4525,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D22" s="20" t="s">
         <v>12</v>
@@ -4645,10 +4632,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D23" s="20" t="s">
         <v>12</v>
@@ -4752,10 +4739,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D24" s="20" t="s">
         <v>12</v>
@@ -4859,10 +4846,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D25" s="20" t="s">
         <v>12</v>
@@ -4966,10 +4953,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D26" s="20" t="s">
         <v>12</v>
@@ -5073,10 +5060,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D27" s="20" t="s">
         <v>12</v>
@@ -5180,10 +5167,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D28" s="20" t="s">
         <v>12</v>
@@ -5287,10 +5274,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D29" s="20" t="s">
         <v>12</v>
@@ -5394,10 +5381,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D30" s="20" t="s">
         <v>12</v>
@@ -5501,10 +5488,10 @@
         <v>29</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D31" s="20" t="s">
         <v>12</v>
@@ -5608,10 +5595,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D32" s="20" t="s">
         <v>12</v>
@@ -5715,10 +5702,10 @@
         <v>31</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D33" s="20" t="s">
         <v>12</v>
@@ -5822,10 +5809,10 @@
         <v>32</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D34" s="20" t="s">
         <v>12</v>
@@ -5929,10 +5916,10 @@
         <v>33</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D35" s="20" t="s">
         <v>12</v>
@@ -6036,10 +6023,10 @@
         <v>34</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D36" s="20" t="s">
         <v>12</v>
@@ -6143,10 +6130,10 @@
         <v>35</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D37" s="20" t="s">
         <v>12</v>
@@ -6250,10 +6237,10 @@
         <v>36</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D38" s="20" t="s">
         <v>12</v>
@@ -6357,10 +6344,10 @@
         <v>37</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D39" s="20" t="s">
         <v>12</v>
@@ -6378,7 +6365,7 @@
         <v>12</v>
       </c>
       <c r="I39" s="18" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J39" s="18" t="s">
         <v>12</v>
@@ -6464,10 +6451,10 @@
         <v>38</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C40" s="17" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D40" s="20" t="s">
         <v>12</v>
@@ -6571,16 +6558,16 @@
         <v>39</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D41" s="20" t="s">
         <v>12</v>
       </c>
       <c r="E41" s="18" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F41" s="20" t="s">
         <v>12</v>
@@ -6598,7 +6585,7 @@
         <v>12</v>
       </c>
       <c r="K41" s="18" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="L41" s="18" t="s">
         <v>12</v>
@@ -6678,10 +6665,10 @@
         <v>40</v>
       </c>
       <c r="B42" s="17" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C42" s="17" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D42" s="20" t="s">
         <v>12</v>
@@ -6785,10 +6772,10 @@
         <v>41</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D43" s="20" t="s">
         <v>12</v>
@@ -6892,10 +6879,10 @@
         <v>42</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C44" s="17" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D44" s="20" t="s">
         <v>12</v>
@@ -6999,10 +6986,10 @@
         <v>43</v>
       </c>
       <c r="B45" s="17" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D45" s="20" t="s">
         <v>12</v>
@@ -7106,10 +7093,10 @@
         <v>44</v>
       </c>
       <c r="B46" s="17" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C46" s="17" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D46" s="20" t="s">
         <v>12</v>
@@ -7213,10 +7200,10 @@
         <v>45</v>
       </c>
       <c r="B47" s="17" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C47" s="17" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D47" s="20" t="s">
         <v>12</v>
@@ -7320,10 +7307,10 @@
         <v>46</v>
       </c>
       <c r="B48" s="17" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D48" s="20" t="s">
         <v>12</v>
@@ -7440,7 +7427,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7452,12 +7439,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="32" t="s">
-        <v>160</v>
-      </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
+      <c r="A1" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
     </row>
     <row r="2" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -7478,7 +7465,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C3" s="7">
         <v>47</v>
@@ -7490,13 +7477,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C4" s="7">
         <v>45</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -7504,13 +7491,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C5" s="7">
         <v>46</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -7518,7 +7505,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C6" s="7">
         <v>47</v>
@@ -7530,13 +7517,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C7" s="7">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -7544,13 +7531,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C8" s="7">
         <v>45</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -7558,13 +7545,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C9" s="7">
         <v>45</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -7572,13 +7559,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C10" s="7">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -7595,8 +7582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F68771E-8813-4D8B-9B9F-E00ABE24DDBD}">
   <dimension ref="A2:L49"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H41" sqref="D41:H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7639,8 +7626,8 @@
       <c r="K2" s="5">
         <v>8</v>
       </c>
-      <c r="L2" s="35" t="s">
-        <v>171</v>
+      <c r="L2" s="31" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
@@ -7648,10 +7635,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D3" s="1">
         <v>90</v>
@@ -7677,7 +7664,7 @@
       <c r="K3" s="1">
         <v>80</v>
       </c>
-      <c r="L3" s="36">
+      <c r="L3" s="32">
         <f>AVERAGE(D3:K3)</f>
         <v>86.25</v>
       </c>
@@ -7687,10 +7674,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D4" s="1">
         <v>90</v>
@@ -7716,7 +7703,7 @@
       <c r="K4" s="1">
         <v>70</v>
       </c>
-      <c r="L4" s="36">
+      <c r="L4" s="32">
         <f t="shared" ref="L4:L49" si="0">AVERAGE(D4:K4)</f>
         <v>83.125</v>
       </c>
@@ -7726,10 +7713,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D5" s="1">
         <v>80</v>
@@ -7740,11 +7727,11 @@
       <c r="F5" s="1">
         <v>85</v>
       </c>
-      <c r="G5" s="33">
+      <c r="G5" s="1">
         <v>60</v>
       </c>
       <c r="H5" s="1">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="I5" s="1">
         <v>70</v>
@@ -7755,9 +7742,9 @@
       <c r="K5" s="1">
         <v>70</v>
       </c>
-      <c r="L5" s="36">
+      <c r="L5" s="32">
         <f t="shared" si="0"/>
-        <v>65.625</v>
+        <v>74.375</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
@@ -7765,10 +7752,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D6" s="1">
         <v>80</v>
@@ -7794,7 +7781,7 @@
       <c r="K6" s="1">
         <v>0</v>
       </c>
-      <c r="L6" s="36">
+      <c r="L6" s="32">
         <f t="shared" si="0"/>
         <v>20.625</v>
       </c>
@@ -7804,10 +7791,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D7" s="1">
         <v>90</v>
@@ -7833,7 +7820,7 @@
       <c r="K7" s="1">
         <v>80</v>
       </c>
-      <c r="L7" s="36">
+      <c r="L7" s="32">
         <f t="shared" si="0"/>
         <v>88.75</v>
       </c>
@@ -7843,10 +7830,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D8" s="1">
         <v>85</v>
@@ -7872,7 +7859,7 @@
       <c r="K8" s="1">
         <v>60</v>
       </c>
-      <c r="L8" s="36">
+      <c r="L8" s="32">
         <f t="shared" si="0"/>
         <v>70.625</v>
       </c>
@@ -7882,10 +7869,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D9" s="1">
         <v>60</v>
@@ -7911,7 +7898,7 @@
       <c r="K9" s="1">
         <v>70</v>
       </c>
-      <c r="L9" s="36">
+      <c r="L9" s="32">
         <f t="shared" si="0"/>
         <v>68.125</v>
       </c>
@@ -7921,10 +7908,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D10" s="1">
         <v>80</v>
@@ -7950,7 +7937,7 @@
       <c r="K10" s="1">
         <v>85</v>
       </c>
-      <c r="L10" s="36">
+      <c r="L10" s="32">
         <f t="shared" si="0"/>
         <v>81.875</v>
       </c>
@@ -7960,10 +7947,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D11" s="1">
         <v>90</v>
@@ -7989,7 +7976,7 @@
       <c r="K11" s="1">
         <v>80</v>
       </c>
-      <c r="L11" s="36">
+      <c r="L11" s="32">
         <f t="shared" si="0"/>
         <v>86.25</v>
       </c>
@@ -7999,10 +7986,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D12" s="1">
         <v>90</v>
@@ -8028,7 +8015,7 @@
       <c r="K12" s="1">
         <v>80</v>
       </c>
-      <c r="L12" s="36">
+      <c r="L12" s="32">
         <f t="shared" si="0"/>
         <v>82.5</v>
       </c>
@@ -8038,10 +8025,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D13" s="1">
         <v>85</v>
@@ -8067,7 +8054,7 @@
       <c r="K13" s="1">
         <v>80</v>
       </c>
-      <c r="L13" s="36">
+      <c r="L13" s="32">
         <f t="shared" si="0"/>
         <v>78.125</v>
       </c>
@@ -8077,10 +8064,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D14" s="1">
         <v>85</v>
@@ -8106,7 +8093,7 @@
       <c r="K14" s="1">
         <v>80</v>
       </c>
-      <c r="L14" s="36">
+      <c r="L14" s="32">
         <f t="shared" si="0"/>
         <v>74.375</v>
       </c>
@@ -8116,10 +8103,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D15" s="1">
         <v>60</v>
@@ -8145,7 +8132,7 @@
       <c r="K15" s="1">
         <v>60</v>
       </c>
-      <c r="L15" s="36">
+      <c r="L15" s="32">
         <f t="shared" si="0"/>
         <v>66.25</v>
       </c>
@@ -8155,10 +8142,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D16" s="1">
         <v>85</v>
@@ -8184,7 +8171,7 @@
       <c r="K16" s="1">
         <v>80</v>
       </c>
-      <c r="L16" s="36">
+      <c r="L16" s="32">
         <f t="shared" si="0"/>
         <v>87.5</v>
       </c>
@@ -8194,10 +8181,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D17" s="1">
         <v>90</v>
@@ -8223,7 +8210,7 @@
       <c r="K17" s="1">
         <v>75</v>
       </c>
-      <c r="L17" s="36">
+      <c r="L17" s="32">
         <f t="shared" si="0"/>
         <v>84.375</v>
       </c>
@@ -8233,10 +8220,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D18" s="1">
         <v>90</v>
@@ -8262,7 +8249,7 @@
       <c r="K18" s="1">
         <v>70</v>
       </c>
-      <c r="L18" s="36">
+      <c r="L18" s="32">
         <f t="shared" si="0"/>
         <v>84.375</v>
       </c>
@@ -8272,10 +8259,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D19" s="1">
         <v>85</v>
@@ -8301,7 +8288,7 @@
       <c r="K19" s="1">
         <v>80</v>
       </c>
-      <c r="L19" s="36">
+      <c r="L19" s="32">
         <f t="shared" si="0"/>
         <v>85.625</v>
       </c>
@@ -8311,10 +8298,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D20" s="1">
         <v>90</v>
@@ -8340,7 +8327,7 @@
       <c r="K20" s="1">
         <v>80</v>
       </c>
-      <c r="L20" s="36">
+      <c r="L20" s="32">
         <f t="shared" si="0"/>
         <v>76.875</v>
       </c>
@@ -8350,10 +8337,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D21" s="1">
         <v>60</v>
@@ -8379,7 +8366,7 @@
       <c r="K21" s="1">
         <v>70</v>
       </c>
-      <c r="L21" s="36">
+      <c r="L21" s="32">
         <f t="shared" si="0"/>
         <v>73.75</v>
       </c>
@@ -8389,10 +8376,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D22" s="1">
         <v>90</v>
@@ -8418,7 +8405,7 @@
       <c r="K22" s="1">
         <v>80</v>
       </c>
-      <c r="L22" s="36">
+      <c r="L22" s="32">
         <f t="shared" si="0"/>
         <v>83.75</v>
       </c>
@@ -8428,10 +8415,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D23" s="1">
         <v>90</v>
@@ -8457,7 +8444,7 @@
       <c r="K23" s="1">
         <v>80</v>
       </c>
-      <c r="L23" s="36">
+      <c r="L23" s="32">
         <f t="shared" si="0"/>
         <v>60.625</v>
       </c>
@@ -8467,10 +8454,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D24" s="1">
         <v>90</v>
@@ -8496,7 +8483,7 @@
       <c r="K24" s="1">
         <v>90</v>
       </c>
-      <c r="L24" s="36">
+      <c r="L24" s="32">
         <f t="shared" si="0"/>
         <v>88.125</v>
       </c>
@@ -8506,10 +8493,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D25" s="1">
         <v>85</v>
@@ -8535,7 +8522,7 @@
       <c r="K25" s="1">
         <v>65</v>
       </c>
-      <c r="L25" s="36">
+      <c r="L25" s="32">
         <f t="shared" si="0"/>
         <v>73.125</v>
       </c>
@@ -8545,10 +8532,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D26" s="1">
         <v>80</v>
@@ -8574,7 +8561,7 @@
       <c r="K26" s="1">
         <v>80</v>
       </c>
-      <c r="L26" s="36">
+      <c r="L26" s="32">
         <f t="shared" si="0"/>
         <v>78.75</v>
       </c>
@@ -8584,10 +8571,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D27" s="1">
         <v>90</v>
@@ -8613,7 +8600,7 @@
       <c r="K27" s="1">
         <v>80</v>
       </c>
-      <c r="L27" s="36">
+      <c r="L27" s="32">
         <f t="shared" si="0"/>
         <v>85.625</v>
       </c>
@@ -8623,10 +8610,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D28" s="1">
         <v>90</v>
@@ -8652,7 +8639,7 @@
       <c r="K28" s="1">
         <v>75</v>
       </c>
-      <c r="L28" s="36">
+      <c r="L28" s="32">
         <f t="shared" si="0"/>
         <v>85.625</v>
       </c>
@@ -8662,10 +8649,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D29" s="1">
         <v>60</v>
@@ -8691,7 +8678,7 @@
       <c r="K29" s="1">
         <v>70</v>
       </c>
-      <c r="L29" s="36">
+      <c r="L29" s="32">
         <f t="shared" si="0"/>
         <v>69.375</v>
       </c>
@@ -8701,10 +8688,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D30" s="1">
         <v>90</v>
@@ -8730,7 +8717,7 @@
       <c r="K30" s="1">
         <v>85</v>
       </c>
-      <c r="L30" s="36">
+      <c r="L30" s="32">
         <f t="shared" si="0"/>
         <v>90.625</v>
       </c>
@@ -8740,10 +8727,10 @@
         <v>29</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D31" s="1">
         <v>90</v>
@@ -8769,7 +8756,7 @@
       <c r="K31" s="1">
         <v>85</v>
       </c>
-      <c r="L31" s="36">
+      <c r="L31" s="32">
         <f t="shared" si="0"/>
         <v>86.875</v>
       </c>
@@ -8779,10 +8766,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D32" s="1">
         <v>80</v>
@@ -8808,7 +8795,7 @@
       <c r="K32" s="1">
         <v>85</v>
       </c>
-      <c r="L32" s="36">
+      <c r="L32" s="32">
         <f t="shared" si="0"/>
         <v>81.875</v>
       </c>
@@ -8818,10 +8805,10 @@
         <v>31</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D33" s="1">
         <v>10</v>
@@ -8847,7 +8834,7 @@
       <c r="K33" s="1">
         <v>75</v>
       </c>
-      <c r="L33" s="36">
+      <c r="L33" s="32">
         <f t="shared" si="0"/>
         <v>43.75</v>
       </c>
@@ -8857,10 +8844,10 @@
         <v>32</v>
       </c>
       <c r="B34" s="21" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D34" s="1">
         <v>85</v>
@@ -8886,7 +8873,7 @@
       <c r="K34" s="1">
         <v>85</v>
       </c>
-      <c r="L34" s="36">
+      <c r="L34" s="32">
         <f t="shared" si="0"/>
         <v>84.375</v>
       </c>
@@ -8896,10 +8883,10 @@
         <v>33</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D35" s="1">
         <v>90</v>
@@ -8925,7 +8912,7 @@
       <c r="K35" s="1">
         <v>70</v>
       </c>
-      <c r="L35" s="36">
+      <c r="L35" s="32">
         <f t="shared" si="0"/>
         <v>73.75</v>
       </c>
@@ -8935,10 +8922,10 @@
         <v>34</v>
       </c>
       <c r="B36" s="21" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D36" s="1">
         <v>90</v>
@@ -8964,7 +8951,7 @@
       <c r="K36" s="1">
         <v>75</v>
       </c>
-      <c r="L36" s="36">
+      <c r="L36" s="32">
         <f t="shared" si="0"/>
         <v>78.125</v>
       </c>
@@ -8974,10 +8961,10 @@
         <v>35</v>
       </c>
       <c r="B37" s="21" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D37" s="1">
         <v>80</v>
@@ -9003,7 +8990,7 @@
       <c r="K37" s="1">
         <v>75</v>
       </c>
-      <c r="L37" s="36">
+      <c r="L37" s="32">
         <f t="shared" si="0"/>
         <v>78.125</v>
       </c>
@@ -9013,10 +9000,10 @@
         <v>36</v>
       </c>
       <c r="B38" s="21" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C38" s="21" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D38" s="1">
         <v>80</v>
@@ -9042,7 +9029,7 @@
       <c r="K38" s="1">
         <v>80</v>
       </c>
-      <c r="L38" s="36">
+      <c r="L38" s="32">
         <f t="shared" si="0"/>
         <v>84.375</v>
       </c>
@@ -9052,10 +9039,10 @@
         <v>37</v>
       </c>
       <c r="B39" s="21" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C39" s="21" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D39" s="1">
         <v>80</v>
@@ -9081,7 +9068,7 @@
       <c r="K39" s="1">
         <v>70</v>
       </c>
-      <c r="L39" s="36">
+      <c r="L39" s="32">
         <f t="shared" si="0"/>
         <v>71.875</v>
       </c>
@@ -9091,10 +9078,10 @@
         <v>38</v>
       </c>
       <c r="B40" s="21" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C40" s="21" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D40" s="1">
         <v>90</v>
@@ -9120,7 +9107,7 @@
       <c r="K40" s="1">
         <v>75</v>
       </c>
-      <c r="L40" s="36">
+      <c r="L40" s="32">
         <f t="shared" si="0"/>
         <v>82.5</v>
       </c>
@@ -9130,10 +9117,10 @@
         <v>39</v>
       </c>
       <c r="B41" s="21" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C41" s="24" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D41" s="1">
         <v>80</v>
@@ -9159,7 +9146,7 @@
       <c r="K41" s="1">
         <v>0</v>
       </c>
-      <c r="L41" s="36">
+      <c r="L41" s="32">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
@@ -9169,10 +9156,10 @@
         <v>40</v>
       </c>
       <c r="B42" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C42" s="21" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D42" s="1">
         <v>85</v>
@@ -9198,7 +9185,7 @@
       <c r="K42" s="1">
         <v>85</v>
       </c>
-      <c r="L42" s="36">
+      <c r="L42" s="32">
         <f t="shared" si="0"/>
         <v>83.125</v>
       </c>
@@ -9208,10 +9195,10 @@
         <v>41</v>
       </c>
       <c r="B43" s="21" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C43" s="21" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D43" s="1">
         <v>80</v>
@@ -9237,7 +9224,7 @@
       <c r="K43" s="1">
         <v>85</v>
       </c>
-      <c r="L43" s="36">
+      <c r="L43" s="32">
         <f t="shared" si="0"/>
         <v>86.875</v>
       </c>
@@ -9247,10 +9234,10 @@
         <v>42</v>
       </c>
       <c r="B44" s="21" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C44" s="21" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D44" s="1">
         <v>90</v>
@@ -9276,7 +9263,7 @@
       <c r="K44" s="1">
         <v>80</v>
       </c>
-      <c r="L44" s="36">
+      <c r="L44" s="32">
         <f t="shared" si="0"/>
         <v>84.375</v>
       </c>
@@ -9286,10 +9273,10 @@
         <v>43</v>
       </c>
       <c r="B45" s="21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C45" s="21" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D45" s="1">
         <v>80</v>
@@ -9315,7 +9302,7 @@
       <c r="K45" s="1">
         <v>80</v>
       </c>
-      <c r="L45" s="36">
+      <c r="L45" s="32">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
@@ -9325,10 +9312,10 @@
         <v>44</v>
       </c>
       <c r="B46" s="21" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C46" s="21" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D46" s="1">
         <v>85</v>
@@ -9354,7 +9341,7 @@
       <c r="K46" s="1">
         <v>85</v>
       </c>
-      <c r="L46" s="36">
+      <c r="L46" s="32">
         <f t="shared" si="0"/>
         <v>83.75</v>
       </c>
@@ -9364,10 +9351,10 @@
         <v>45</v>
       </c>
       <c r="B47" s="21" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C47" s="21" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D47" s="1">
         <v>80</v>
@@ -9393,7 +9380,7 @@
       <c r="K47" s="1">
         <v>85</v>
       </c>
-      <c r="L47" s="36">
+      <c r="L47" s="32">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
@@ -9403,10 +9390,10 @@
         <v>46</v>
       </c>
       <c r="B48" s="21" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C48" s="24" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D48" s="1">
         <v>85</v>
@@ -9430,11 +9417,11 @@
         <v>70</v>
       </c>
       <c r="K48" s="1">
-        <v>0</v>
-      </c>
-      <c r="L48" s="36">
+        <v>80</v>
+      </c>
+      <c r="L48" s="32">
         <f t="shared" si="0"/>
-        <v>68.75</v>
+        <v>78.75</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.15">
@@ -9445,7 +9432,7 @@
         <v>3040193302</v>
       </c>
       <c r="C49" s="24" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D49" s="1">
         <v>75</v>
@@ -9471,7 +9458,7 @@
       <c r="K49" s="1">
         <v>85</v>
       </c>
-      <c r="L49" s="36">
+      <c r="L49" s="32">
         <f t="shared" si="0"/>
         <v>88.75</v>
       </c>
@@ -9486,8 +9473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06EBC456-0353-452F-B62B-0A1B41F55AD0}">
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9502,16 +9489,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="40.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
     </row>
     <row r="2" spans="1:8" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -9524,13 +9511,13 @@
         <v>7</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>15</v>
+        <v>178</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>16</v>
+        <v>179</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>13</v>
@@ -9544,12 +9531,12 @@
         <v>1</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="40">
+        <v>16</v>
+      </c>
+      <c r="D3" s="36">
         <v>100</v>
       </c>
       <c r="E3" s="15">
@@ -9558,9 +9545,9 @@
       <c r="F3" s="15">
         <v>87</v>
       </c>
-      <c r="G3" s="37">
-        <f>D3*0.2+F3*0.4+F3*0.4</f>
-        <v>89.600000000000009</v>
+      <c r="G3" s="33">
+        <f>D3*0.1+E3*0.5+F3*0.4</f>
+        <v>87.800000000000011</v>
       </c>
       <c r="H3" s="14"/>
     </row>
@@ -9569,12 +9556,12 @@
         <v>2</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="40">
+        <v>18</v>
+      </c>
+      <c r="D4" s="36">
         <v>80</v>
       </c>
       <c r="E4" s="15">
@@ -9583,9 +9570,9 @@
       <c r="F4" s="23">
         <v>57</v>
       </c>
-      <c r="G4" s="37">
-        <f t="shared" ref="G4:G49" si="0">D4*0.2+F4*0.4+F4*0.4</f>
-        <v>61.599999999999994</v>
+      <c r="G4" s="33">
+        <f t="shared" ref="G4:G49" si="0">D4*0.1+E4*0.5+F4*0.4</f>
+        <v>72.3</v>
       </c>
       <c r="H4" s="14"/>
     </row>
@@ -9594,23 +9581,23 @@
         <v>3</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="40">
+        <v>20</v>
+      </c>
+      <c r="D5" s="36">
         <v>100</v>
       </c>
       <c r="E5" s="15">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="F5" s="23">
         <v>57</v>
       </c>
-      <c r="G5" s="37">
+      <c r="G5" s="33">
         <f t="shared" si="0"/>
-        <v>65.599999999999994</v>
+        <v>69.8</v>
       </c>
       <c r="H5" s="14"/>
     </row>
@@ -9619,12 +9606,12 @@
         <v>4</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="40">
+        <v>22</v>
+      </c>
+      <c r="D6" s="36">
         <v>100</v>
       </c>
       <c r="E6" s="15">
@@ -9633,9 +9620,9 @@
       <c r="F6" s="23">
         <v>53</v>
       </c>
-      <c r="G6" s="37">
+      <c r="G6" s="33">
         <f t="shared" si="0"/>
-        <v>62.400000000000006</v>
+        <v>41.7</v>
       </c>
       <c r="H6" s="14"/>
     </row>
@@ -9644,12 +9631,12 @@
         <v>5</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="40">
+        <v>24</v>
+      </c>
+      <c r="D7" s="36">
         <v>100</v>
       </c>
       <c r="E7" s="15">
@@ -9658,9 +9645,9 @@
       <c r="F7" s="15">
         <v>87</v>
       </c>
-      <c r="G7" s="37">
+      <c r="G7" s="33">
         <f t="shared" si="0"/>
-        <v>89.600000000000009</v>
+        <v>89.300000000000011</v>
       </c>
       <c r="H7" s="14"/>
     </row>
@@ -9669,12 +9656,12 @@
         <v>6</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="40">
+        <v>26</v>
+      </c>
+      <c r="D8" s="36">
         <v>100</v>
       </c>
       <c r="E8" s="15">
@@ -9683,9 +9670,9 @@
       <c r="F8" s="15">
         <v>79</v>
       </c>
-      <c r="G8" s="37">
+      <c r="G8" s="33">
         <f t="shared" si="0"/>
-        <v>83.2</v>
+        <v>77.099999999999994</v>
       </c>
       <c r="H8" s="14"/>
     </row>
@@ -9694,23 +9681,23 @@
         <v>7</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="40">
+        <v>28</v>
+      </c>
+      <c r="D9" s="36">
         <v>100</v>
       </c>
       <c r="E9" s="15">
         <v>68</v>
       </c>
-      <c r="F9" s="39">
+      <c r="F9" s="35">
         <v>35</v>
       </c>
-      <c r="G9" s="38">
+      <c r="G9" s="34">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="H9" s="14"/>
     </row>
@@ -9719,12 +9706,12 @@
         <v>8</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="40">
+        <v>30</v>
+      </c>
+      <c r="D10" s="36">
         <v>100</v>
       </c>
       <c r="E10" s="15">
@@ -9733,9 +9720,9 @@
       <c r="F10" s="23">
         <v>54</v>
       </c>
-      <c r="G10" s="37">
+      <c r="G10" s="33">
         <f t="shared" si="0"/>
-        <v>63.2</v>
+        <v>72.599999999999994</v>
       </c>
       <c r="H10" s="14"/>
     </row>
@@ -9744,12 +9731,12 @@
         <v>9</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="40">
+        <v>32</v>
+      </c>
+      <c r="D11" s="36">
         <v>100</v>
       </c>
       <c r="E11" s="15">
@@ -9758,9 +9745,9 @@
       <c r="F11" s="15">
         <v>82</v>
       </c>
-      <c r="G11" s="37">
+      <c r="G11" s="33">
         <f t="shared" si="0"/>
-        <v>85.600000000000009</v>
+        <v>85.800000000000011</v>
       </c>
       <c r="H11" s="14"/>
     </row>
@@ -9769,12 +9756,12 @@
         <v>10</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="40">
+        <v>34</v>
+      </c>
+      <c r="D12" s="36">
         <v>100</v>
       </c>
       <c r="E12" s="15">
@@ -9783,9 +9770,9 @@
       <c r="F12" s="15">
         <v>60</v>
       </c>
-      <c r="G12" s="37">
+      <c r="G12" s="33">
         <f t="shared" si="0"/>
-        <v>68</v>
+        <v>75.5</v>
       </c>
       <c r="H12" s="14"/>
     </row>
@@ -9794,12 +9781,12 @@
         <v>11</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="40">
+        <v>36</v>
+      </c>
+      <c r="D13" s="36">
         <v>100</v>
       </c>
       <c r="E13" s="15">
@@ -9808,9 +9795,9 @@
       <c r="F13" s="15">
         <v>63</v>
       </c>
-      <c r="G13" s="37">
+      <c r="G13" s="33">
         <f t="shared" si="0"/>
-        <v>70.400000000000006</v>
+        <v>74.2</v>
       </c>
       <c r="H13" s="14"/>
     </row>
@@ -9819,12 +9806,12 @@
         <v>12</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="40">
+        <v>38</v>
+      </c>
+      <c r="D14" s="36">
         <v>80</v>
       </c>
       <c r="E14" s="15">
@@ -9833,9 +9820,9 @@
       <c r="F14" s="15">
         <v>67</v>
       </c>
-      <c r="G14" s="37">
+      <c r="G14" s="33">
         <f t="shared" si="0"/>
-        <v>69.599999999999994</v>
+        <v>71.8</v>
       </c>
       <c r="H14" s="14"/>
     </row>
@@ -9844,23 +9831,23 @@
         <v>13</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="40">
+        <v>40</v>
+      </c>
+      <c r="D15" s="36">
         <v>100</v>
       </c>
-      <c r="E15" s="34">
+      <c r="E15" s="30">
         <v>66</v>
       </c>
-      <c r="F15" s="39">
+      <c r="F15" s="35">
         <v>54</v>
       </c>
-      <c r="G15" s="37">
+      <c r="G15" s="33">
         <f t="shared" si="0"/>
-        <v>63.2</v>
+        <v>64.599999999999994</v>
       </c>
       <c r="H15" s="22"/>
     </row>
@@ -9869,21 +9856,21 @@
         <v>14</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" s="40">
+        <v>42</v>
+      </c>
+      <c r="D16" s="36">
         <v>100</v>
       </c>
-      <c r="E16" s="34">
+      <c r="E16" s="30">
         <v>88</v>
       </c>
-      <c r="F16" s="34">
+      <c r="F16" s="30">
         <v>85</v>
       </c>
-      <c r="G16" s="37">
+      <c r="G16" s="33">
         <f t="shared" si="0"/>
         <v>88</v>
       </c>
@@ -9894,23 +9881,23 @@
         <v>15</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" s="40">
+        <v>44</v>
+      </c>
+      <c r="D17" s="36">
         <v>100</v>
       </c>
-      <c r="E17" s="34">
+      <c r="E17" s="30">
         <v>84</v>
       </c>
-      <c r="F17" s="34">
+      <c r="F17" s="30">
         <v>78</v>
       </c>
-      <c r="G17" s="37">
+      <c r="G17" s="33">
         <f t="shared" si="0"/>
-        <v>82.4</v>
+        <v>83.2</v>
       </c>
       <c r="H17" s="22"/>
     </row>
@@ -9919,23 +9906,23 @@
         <v>16</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" s="40">
+        <v>46</v>
+      </c>
+      <c r="D18" s="36">
         <v>100</v>
       </c>
-      <c r="E18" s="34">
+      <c r="E18" s="30">
         <v>84</v>
       </c>
-      <c r="F18" s="34">
+      <c r="F18" s="30">
         <v>68</v>
       </c>
-      <c r="G18" s="37">
+      <c r="G18" s="33">
         <f t="shared" si="0"/>
-        <v>74.400000000000006</v>
+        <v>79.2</v>
       </c>
       <c r="H18" s="22"/>
     </row>
@@ -9944,23 +9931,23 @@
         <v>17</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" s="40">
+        <v>48</v>
+      </c>
+      <c r="D19" s="36">
         <v>100</v>
       </c>
-      <c r="E19" s="34">
+      <c r="E19" s="30">
         <v>86</v>
       </c>
-      <c r="F19" s="34">
+      <c r="F19" s="30">
         <v>60</v>
       </c>
-      <c r="G19" s="37">
+      <c r="G19" s="33">
         <f t="shared" si="0"/>
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="H19" s="22"/>
     </row>
@@ -9969,23 +9956,23 @@
         <v>18</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="D20" s="40">
+        <v>50</v>
+      </c>
+      <c r="D20" s="36">
         <v>100</v>
       </c>
-      <c r="E20" s="34">
+      <c r="E20" s="30">
         <v>77</v>
       </c>
-      <c r="F20" s="39">
+      <c r="F20" s="35">
         <v>46</v>
       </c>
-      <c r="G20" s="38">
+      <c r="G20" s="33">
         <f t="shared" si="0"/>
-        <v>56.800000000000011</v>
+        <v>66.900000000000006</v>
       </c>
       <c r="H20" s="22"/>
     </row>
@@ -9994,23 +9981,23 @@
         <v>19</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="D21" s="40">
+        <v>52</v>
+      </c>
+      <c r="D21" s="36">
         <v>100</v>
       </c>
-      <c r="E21" s="34">
+      <c r="E21" s="30">
         <v>74</v>
       </c>
-      <c r="F21" s="34">
+      <c r="F21" s="30">
         <v>82</v>
       </c>
-      <c r="G21" s="37">
+      <c r="G21" s="33">
         <f t="shared" si="0"/>
-        <v>85.600000000000009</v>
+        <v>79.800000000000011</v>
       </c>
       <c r="H21" s="22"/>
     </row>
@@ -10019,23 +10006,23 @@
         <v>20</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C22" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="36">
+        <v>100</v>
+      </c>
+      <c r="E22" s="30">
+        <v>84</v>
+      </c>
+      <c r="F22" s="35">
         <v>56</v>
       </c>
-      <c r="D22" s="40">
-        <v>100</v>
-      </c>
-      <c r="E22" s="34">
-        <v>84</v>
-      </c>
-      <c r="F22" s="39">
-        <v>56</v>
-      </c>
-      <c r="G22" s="37">
+      <c r="G22" s="33">
         <f t="shared" si="0"/>
-        <v>64.800000000000011</v>
+        <v>74.400000000000006</v>
       </c>
       <c r="H22" s="22"/>
     </row>
@@ -10044,23 +10031,23 @@
         <v>21</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="D23" s="40">
+        <v>56</v>
+      </c>
+      <c r="D23" s="36">
         <v>100</v>
       </c>
-      <c r="E23" s="34">
+      <c r="E23" s="30">
         <v>61</v>
       </c>
-      <c r="F23" s="34">
+      <c r="F23" s="30">
         <v>62</v>
       </c>
-      <c r="G23" s="37">
+      <c r="G23" s="33">
         <f t="shared" si="0"/>
-        <v>69.599999999999994</v>
+        <v>65.3</v>
       </c>
       <c r="H23" s="22"/>
     </row>
@@ -10069,23 +10056,23 @@
         <v>22</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="D24" s="40">
+        <v>58</v>
+      </c>
+      <c r="D24" s="36">
         <v>100</v>
       </c>
-      <c r="E24" s="34">
+      <c r="E24" s="30">
         <v>88</v>
       </c>
-      <c r="F24" s="34">
+      <c r="F24" s="30">
         <v>78</v>
       </c>
-      <c r="G24" s="37">
+      <c r="G24" s="33">
         <f t="shared" si="0"/>
-        <v>82.4</v>
+        <v>85.2</v>
       </c>
       <c r="H24" s="22"/>
     </row>
@@ -10094,23 +10081,23 @@
         <v>23</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="D25" s="40">
+        <v>60</v>
+      </c>
+      <c r="D25" s="36">
         <v>100</v>
       </c>
-      <c r="E25" s="34">
+      <c r="E25" s="30">
         <v>73</v>
       </c>
-      <c r="F25" s="34">
+      <c r="F25" s="30">
         <v>69</v>
       </c>
-      <c r="G25" s="37">
+      <c r="G25" s="33">
         <f t="shared" si="0"/>
-        <v>75.2</v>
+        <v>74.099999999999994</v>
       </c>
       <c r="H25" s="22"/>
     </row>
@@ -10119,23 +10106,23 @@
         <v>24</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="D26" s="40">
+        <v>62</v>
+      </c>
+      <c r="D26" s="36">
         <v>100</v>
       </c>
-      <c r="E26" s="34">
+      <c r="E26" s="30">
         <v>79</v>
       </c>
-      <c r="F26" s="34">
+      <c r="F26" s="30">
         <v>85</v>
       </c>
-      <c r="G26" s="37">
+      <c r="G26" s="33">
         <f t="shared" si="0"/>
-        <v>88</v>
+        <v>83.5</v>
       </c>
       <c r="H26" s="22"/>
     </row>
@@ -10144,23 +10131,23 @@
         <v>25</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="D27" s="40">
+        <v>64</v>
+      </c>
+      <c r="D27" s="36">
         <v>100</v>
       </c>
-      <c r="E27" s="34">
+      <c r="E27" s="30">
         <v>86</v>
       </c>
-      <c r="F27" s="34">
+      <c r="F27" s="30">
         <v>72</v>
       </c>
-      <c r="G27" s="37">
+      <c r="G27" s="33">
         <f t="shared" si="0"/>
-        <v>77.599999999999994</v>
+        <v>81.8</v>
       </c>
       <c r="H27" s="22"/>
     </row>
@@ -10169,23 +10156,23 @@
         <v>26</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="D28" s="40">
+        <v>66</v>
+      </c>
+      <c r="D28" s="36">
         <v>100</v>
       </c>
-      <c r="E28" s="34">
+      <c r="E28" s="30">
         <v>86</v>
       </c>
-      <c r="F28" s="39">
+      <c r="F28" s="35">
         <v>48</v>
       </c>
-      <c r="G28" s="37">
+      <c r="G28" s="33">
         <f t="shared" si="0"/>
-        <v>58.400000000000006</v>
+        <v>72.2</v>
       </c>
       <c r="H28" s="22"/>
     </row>
@@ -10194,23 +10181,23 @@
         <v>27</v>
       </c>
       <c r="B29" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" s="36">
+        <v>100</v>
+      </c>
+      <c r="E29" s="30">
         <v>69</v>
       </c>
-      <c r="C29" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="D29" s="40">
-        <v>100</v>
-      </c>
-      <c r="E29" s="34">
-        <v>69</v>
-      </c>
-      <c r="F29" s="34">
+      <c r="F29" s="30">
         <v>74</v>
       </c>
-      <c r="G29" s="37">
+      <c r="G29" s="33">
         <f t="shared" si="0"/>
-        <v>79.2</v>
+        <v>74.099999999999994</v>
       </c>
       <c r="H29" s="22"/>
     </row>
@@ -10219,23 +10206,23 @@
         <v>28</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="D30" s="40">
+        <v>70</v>
+      </c>
+      <c r="D30" s="36">
         <v>100</v>
       </c>
-      <c r="E30" s="34">
+      <c r="E30" s="30">
         <v>91</v>
       </c>
-      <c r="F30" s="34">
+      <c r="F30" s="30">
         <v>92</v>
       </c>
-      <c r="G30" s="37">
+      <c r="G30" s="33">
         <f t="shared" si="0"/>
-        <v>93.600000000000009</v>
+        <v>92.300000000000011</v>
       </c>
       <c r="H30" s="22"/>
     </row>
@@ -10244,23 +10231,23 @@
         <v>29</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="D31" s="40">
+        <v>72</v>
+      </c>
+      <c r="D31" s="36">
         <v>100</v>
       </c>
-      <c r="E31" s="34">
+      <c r="E31" s="30">
         <v>87</v>
       </c>
-      <c r="F31" s="34">
+      <c r="F31" s="30">
         <v>77</v>
       </c>
-      <c r="G31" s="37">
+      <c r="G31" s="33">
         <f t="shared" si="0"/>
-        <v>81.599999999999994</v>
+        <v>84.3</v>
       </c>
       <c r="H31" s="22"/>
     </row>
@@ -10269,23 +10256,23 @@
         <v>30</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="D32" s="40">
+        <v>74</v>
+      </c>
+      <c r="D32" s="36">
         <v>100</v>
       </c>
-      <c r="E32" s="34">
+      <c r="E32" s="30">
         <v>82</v>
       </c>
-      <c r="F32" s="39">
+      <c r="F32" s="35">
         <v>55</v>
       </c>
-      <c r="G32" s="37">
+      <c r="G32" s="33">
         <f t="shared" si="0"/>
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="H32" s="22"/>
     </row>
@@ -10294,23 +10281,23 @@
         <v>31</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="D33" s="40">
+        <v>76</v>
+      </c>
+      <c r="D33" s="36">
         <v>100</v>
       </c>
-      <c r="E33" s="34">
+      <c r="E33" s="30">
         <v>44</v>
       </c>
-      <c r="F33" s="34">
+      <c r="F33" s="30">
         <v>76</v>
       </c>
-      <c r="G33" s="37">
+      <c r="G33" s="33">
         <f t="shared" si="0"/>
-        <v>80.800000000000011</v>
+        <v>62.400000000000006</v>
       </c>
       <c r="H33" s="22"/>
     </row>
@@ -10319,23 +10306,23 @@
         <v>32</v>
       </c>
       <c r="B34" s="21" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="D34" s="40">
+        <v>78</v>
+      </c>
+      <c r="D34" s="36">
         <v>100</v>
       </c>
-      <c r="E34" s="34">
+      <c r="E34" s="30">
         <v>84</v>
       </c>
-      <c r="F34" s="34">
+      <c r="F34" s="30">
         <v>69</v>
       </c>
-      <c r="G34" s="37">
+      <c r="G34" s="33">
         <f t="shared" si="0"/>
-        <v>75.2</v>
+        <v>79.599999999999994</v>
       </c>
       <c r="H34" s="22"/>
     </row>
@@ -10344,23 +10331,23 @@
         <v>33</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="D35" s="40">
+        <v>80</v>
+      </c>
+      <c r="D35" s="36">
         <v>100</v>
       </c>
-      <c r="E35" s="34">
+      <c r="E35" s="30">
         <v>74</v>
       </c>
-      <c r="F35" s="39">
+      <c r="F35" s="35">
         <v>57</v>
       </c>
-      <c r="G35" s="37">
+      <c r="G35" s="33">
         <f t="shared" si="0"/>
-        <v>65.599999999999994</v>
+        <v>69.8</v>
       </c>
       <c r="H35" s="22"/>
     </row>
@@ -10369,23 +10356,23 @@
         <v>34</v>
       </c>
       <c r="B36" s="21" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="D36" s="40">
+        <v>82</v>
+      </c>
+      <c r="D36" s="36">
         <v>100</v>
       </c>
-      <c r="E36" s="34">
+      <c r="E36" s="30">
         <v>78</v>
       </c>
-      <c r="F36" s="34">
+      <c r="F36" s="30">
         <v>61</v>
       </c>
-      <c r="G36" s="37">
+      <c r="G36" s="33">
         <f t="shared" si="0"/>
-        <v>68.800000000000011</v>
+        <v>73.400000000000006</v>
       </c>
       <c r="H36" s="22"/>
     </row>
@@ -10394,23 +10381,23 @@
         <v>35</v>
       </c>
       <c r="B37" s="21" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="D37" s="40">
+        <v>84</v>
+      </c>
+      <c r="D37" s="36">
         <v>100</v>
       </c>
-      <c r="E37" s="34">
+      <c r="E37" s="30">
         <v>78</v>
       </c>
-      <c r="F37" s="34">
+      <c r="F37" s="30">
         <v>64</v>
       </c>
-      <c r="G37" s="37">
+      <c r="G37" s="33">
         <f t="shared" si="0"/>
-        <v>71.2</v>
+        <v>74.599999999999994</v>
       </c>
       <c r="H37" s="22"/>
     </row>
@@ -10419,23 +10406,23 @@
         <v>36</v>
       </c>
       <c r="B38" s="21" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C38" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="D38" s="40">
+        <v>86</v>
+      </c>
+      <c r="D38" s="36">
         <v>100</v>
       </c>
-      <c r="E38" s="34">
+      <c r="E38" s="30">
         <v>84</v>
       </c>
-      <c r="F38" s="39">
+      <c r="F38" s="35">
         <v>59</v>
       </c>
-      <c r="G38" s="37">
+      <c r="G38" s="33">
         <f t="shared" si="0"/>
-        <v>67.2</v>
+        <v>75.599999999999994</v>
       </c>
       <c r="H38" s="22"/>
     </row>
@@ -10444,23 +10431,23 @@
         <v>37</v>
       </c>
       <c r="B39" s="21" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C39" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="D39" s="40">
+        <v>88</v>
+      </c>
+      <c r="D39" s="36">
         <v>80</v>
       </c>
-      <c r="E39" s="34">
+      <c r="E39" s="30">
         <v>72</v>
       </c>
-      <c r="F39" s="34">
+      <c r="F39" s="30">
         <v>73</v>
       </c>
-      <c r="G39" s="37">
+      <c r="G39" s="33">
         <f t="shared" si="0"/>
-        <v>74.400000000000006</v>
+        <v>73.2</v>
       </c>
       <c r="H39" s="22"/>
     </row>
@@ -10469,23 +10456,23 @@
         <v>38</v>
       </c>
       <c r="B40" s="21" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C40" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="D40" s="40">
+        <v>90</v>
+      </c>
+      <c r="D40" s="36">
         <v>100</v>
       </c>
-      <c r="E40" s="34">
+      <c r="E40" s="30">
         <v>83</v>
       </c>
-      <c r="F40" s="34">
+      <c r="F40" s="30">
         <v>73</v>
       </c>
-      <c r="G40" s="37">
+      <c r="G40" s="33">
         <f t="shared" si="0"/>
-        <v>78.400000000000006</v>
+        <v>80.7</v>
       </c>
       <c r="H40" s="22"/>
     </row>
@@ -10494,23 +10481,23 @@
         <v>39</v>
       </c>
       <c r="B41" s="21" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C41" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="D41" s="40">
+        <v>92</v>
+      </c>
+      <c r="D41" s="36">
         <v>80</v>
       </c>
-      <c r="E41" s="34">
+      <c r="E41" s="30">
         <v>50</v>
       </c>
-      <c r="F41" s="34">
+      <c r="F41" s="30">
         <v>64</v>
       </c>
-      <c r="G41" s="37">
+      <c r="G41" s="34">
         <f t="shared" si="0"/>
-        <v>67.2</v>
+        <v>58.6</v>
       </c>
       <c r="H41" s="22"/>
     </row>
@@ -10519,23 +10506,23 @@
         <v>40</v>
       </c>
       <c r="B42" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C42" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="D42" s="40">
+        <v>94</v>
+      </c>
+      <c r="D42" s="36">
         <v>100</v>
       </c>
-      <c r="E42" s="34">
+      <c r="E42" s="30">
         <v>83</v>
       </c>
-      <c r="F42" s="39">
+      <c r="F42" s="35">
         <v>51</v>
       </c>
-      <c r="G42" s="37">
+      <c r="G42" s="33">
         <f t="shared" si="0"/>
-        <v>60.800000000000011</v>
+        <v>71.900000000000006</v>
       </c>
       <c r="H42" s="22"/>
     </row>
@@ -10544,23 +10531,23 @@
         <v>41</v>
       </c>
       <c r="B43" s="21" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C43" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="D43" s="40">
+        <v>96</v>
+      </c>
+      <c r="D43" s="36">
         <v>100</v>
       </c>
-      <c r="E43" s="34">
+      <c r="E43" s="30">
         <v>87</v>
       </c>
-      <c r="F43" s="34">
+      <c r="F43" s="30">
         <v>71</v>
       </c>
-      <c r="G43" s="37">
+      <c r="G43" s="33">
         <f t="shared" si="0"/>
-        <v>76.800000000000011</v>
+        <v>81.900000000000006</v>
       </c>
       <c r="H43" s="22"/>
     </row>
@@ -10569,23 +10556,23 @@
         <v>42</v>
       </c>
       <c r="B44" s="21" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C44" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="D44" s="36">
         <v>100</v>
       </c>
-      <c r="D44" s="40">
-        <v>100</v>
-      </c>
-      <c r="E44" s="34">
+      <c r="E44" s="30">
         <v>84</v>
       </c>
-      <c r="F44" s="34">
+      <c r="F44" s="30">
         <v>63</v>
       </c>
-      <c r="G44" s="37">
+      <c r="G44" s="33">
         <f t="shared" si="0"/>
-        <v>70.400000000000006</v>
+        <v>77.2</v>
       </c>
       <c r="H44" s="22"/>
     </row>
@@ -10594,23 +10581,23 @@
         <v>43</v>
       </c>
       <c r="B45" s="21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C45" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="D45" s="40">
         <v>100</v>
       </c>
-      <c r="E45" s="34">
+      <c r="D45" s="36">
+        <v>100</v>
+      </c>
+      <c r="E45" s="30">
         <v>80</v>
       </c>
-      <c r="F45" s="34">
+      <c r="F45" s="30">
         <v>61</v>
       </c>
-      <c r="G45" s="37">
+      <c r="G45" s="33">
         <f t="shared" si="0"/>
-        <v>68.800000000000011</v>
+        <v>74.400000000000006</v>
       </c>
       <c r="H45" s="22"/>
     </row>
@@ -10619,23 +10606,23 @@
         <v>44</v>
       </c>
       <c r="B46" s="21" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C46" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="D46" s="40">
+        <v>102</v>
+      </c>
+      <c r="D46" s="36">
         <v>100</v>
       </c>
-      <c r="E46" s="34">
+      <c r="E46" s="30">
         <v>84</v>
       </c>
-      <c r="F46" s="34">
+      <c r="F46" s="30">
         <v>78</v>
       </c>
-      <c r="G46" s="37">
+      <c r="G46" s="33">
         <f t="shared" si="0"/>
-        <v>82.4</v>
+        <v>83.2</v>
       </c>
       <c r="H46" s="22"/>
     </row>
@@ -10644,23 +10631,23 @@
         <v>45</v>
       </c>
       <c r="B47" s="21" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C47" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="D47" s="40">
+        <v>104</v>
+      </c>
+      <c r="D47" s="36">
         <v>100</v>
       </c>
-      <c r="E47" s="34">
+      <c r="E47" s="30">
         <v>80</v>
       </c>
-      <c r="F47" s="34">
+      <c r="F47" s="30">
         <v>70</v>
       </c>
-      <c r="G47" s="37">
+      <c r="G47" s="33">
         <f t="shared" si="0"/>
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H47" s="22"/>
     </row>
@@ -10669,23 +10656,23 @@
         <v>46</v>
       </c>
       <c r="B48" s="21" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C48" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="D48" s="40">
+        <v>106</v>
+      </c>
+      <c r="D48" s="36">
         <v>100</v>
       </c>
-      <c r="E48" s="34">
-        <v>69</v>
-      </c>
-      <c r="F48" s="39">
+      <c r="E48" s="30">
+        <v>79</v>
+      </c>
+      <c r="F48" s="35">
         <v>46</v>
       </c>
-      <c r="G48" s="38">
+      <c r="G48" s="33">
         <f t="shared" si="0"/>
-        <v>56.800000000000011</v>
+        <v>67.900000000000006</v>
       </c>
       <c r="H48" s="22"/>
     </row>
@@ -10697,20 +10684,20 @@
         <v>3040193302</v>
       </c>
       <c r="C49" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="D49" s="40">
+        <v>160</v>
+      </c>
+      <c r="D49" s="36">
         <v>100</v>
       </c>
-      <c r="E49" s="34">
+      <c r="E49" s="30">
         <v>89</v>
       </c>
-      <c r="F49" s="34">
+      <c r="F49" s="30">
         <v>64</v>
       </c>
-      <c r="G49" s="37">
+      <c r="G49" s="33">
         <f t="shared" si="0"/>
-        <v>71.2</v>
+        <v>80.099999999999994</v>
       </c>
       <c r="H49" s="22"/>
     </row>
@@ -10725,6 +10712,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010033F188CDD829674AAD05B93C069E2813" ma:contentTypeVersion="25" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="12f87a5caa000e69b2f4c8c0b3e42f66">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="773ac416-4a36-402f-a3b6-d25dea329997" xmlns:ns4="63d2042b-7b91-46d4-baa3-a67d3669a720" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f06fb7f16fd173aa8b0bb68049ad5879" ns3:_="" ns4:_="">
     <xsd:import namespace="773ac416-4a36-402f-a3b6-d25dea329997"/>
@@ -11083,15 +11079,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -11144,6 +11131,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1AFF0ECA-8F3D-4871-93DE-8F766A9E7256}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6741670B-461B-4661-A53C-BD46BBECF45E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11158,14 +11153,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1AFF0ECA-8F3D-4871-93DE-8F766A9E7256}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/2022-2023-2 嵌入式原理及应用B  Course Arrangement 成绩评定表 物联网32131.xlsx
+++ b/2022-2023-2 嵌入式原理及应用B  Course Arrangement 成绩评定表 物联网32131.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yi Ping\Documents\GitHub\Qt-Embedded-System\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo-InterOffice\Documents\GitHub\Qt-Embedded-System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9F60165-F039-4CD9-9C6E-6786538342F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B351F57-23DF-4B27-A3B7-2DF4DB4C3DFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{56D46586-203F-4DA5-8833-0738A3BCF6C0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{56D46586-203F-4DA5-8833-0738A3BCF6C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Basic Information 物联网92061" sheetId="1" r:id="rId1"/>
     <sheet name="Attendance" sheetId="6" r:id="rId2"/>
     <sheet name="Assignment list " sheetId="4" r:id="rId3"/>
-    <sheet name="Assigment Assessment" sheetId="7" r:id="rId4"/>
+    <sheet name="Experiment Assessment" sheetId="7" r:id="rId4"/>
     <sheet name="Assignment Record" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1930" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1971" uniqueCount="188">
   <si>
     <t>Student ID(学号)</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -527,14 +527,6 @@
   </si>
   <si>
     <t>Embedded System（嵌入式原理及应用）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Embedded System（Embedded System（嵌入式原理及应用）出勤表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Embedded SystemEmbedded System（嵌入式原理及应用）作业信息表</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -818,10 +810,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Average</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>刘奕涛</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -842,23 +830,67 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>阿布都买尔、平原</t>
+    <t>Performance (20%)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>阿布都买尔、殷其辉</t>
+    <t>Experiment （10%）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>阿布都买尔</t>
+    <t>MidTerm（40%）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Attendance (10%)</t>
+    <t>No.（序号）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Assignment Codes(50%)</t>
+    <t>Embedded System（Embedded System（嵌入式原理及应用）Attendance Sheet（出勤表）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Embedded SystemEmbedded System（嵌入式原理及应用）Assignment Sheet作业信息表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>No.序号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Student ID 学号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name 姓名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Average平均成绩</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>平时积极完成作业并主动完成拓展编程内容</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>能够主动高质量完成没想作业</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上课积极思考并付诸实践</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无缺勤并完成作业，整体表现较好</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Embedded SystemEmbedded System（嵌入式原理及应用）项目报告表 Experiment Sheet</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -869,7 +901,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1064,6 +1096,15 @@
       <family val="1"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1148,7 +1189,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1251,9 +1292,6 @@
     <xf numFmtId="1" fontId="16" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="20" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1267,6 +1305,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1599,13 +1646,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="40.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="36" t="s">
         <v>156</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
     </row>
     <row r="2" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
@@ -2326,63 +2373,64 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91AC44C4-55D5-4851-BBF2-151A82E50550}">
-  <dimension ref="A1:AI48"/>
+  <dimension ref="A1:AI49"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AR18" sqref="AR18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="23.75" customWidth="1"/>
+    <col min="1" max="1" width="10.375" customWidth="1"/>
+    <col min="2" max="2" width="15.625" customWidth="1"/>
+    <col min="3" max="3" width="21.25" customWidth="1"/>
     <col min="4" max="8" width="3.5" customWidth="1"/>
     <col min="9" max="9" width="3.5" style="19" customWidth="1"/>
     <col min="10" max="35" width="3.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="28.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="38" t="s">
-        <v>157</v>
-      </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38"/>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="38"/>
-      <c r="AB1" s="38"/>
-      <c r="AC1" s="38"/>
-      <c r="AD1" s="38"/>
-      <c r="AE1" s="38"/>
-      <c r="AF1" s="38"/>
-      <c r="AG1" s="38"/>
-      <c r="AH1" s="38"/>
-      <c r="AI1" s="38"/>
-    </row>
-    <row r="2" spans="1:35" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37"/>
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="37"/>
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="37"/>
+      <c r="AD1" s="37"/>
+      <c r="AE1" s="37"/>
+      <c r="AF1" s="37"/>
+      <c r="AG1" s="37"/>
+      <c r="AH1" s="37"/>
+      <c r="AI1" s="37"/>
+    </row>
+    <row r="2" spans="1:35" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>2</v>
+        <v>175</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>0</v>
@@ -2726,85 +2774,85 @@
       <c r="H5" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="J5" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="M5" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="N5" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="O5" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="P5" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q5" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="R5" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="S5" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="T5" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="U5" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="V5" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="W5" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="X5" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y5" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z5" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA5" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB5" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC5" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD5" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE5" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF5" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG5" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="AH5" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="AI5" s="18" t="s">
+      <c r="I5" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="M5" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="N5" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="O5" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="P5" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q5" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="R5" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="S5" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="T5" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="U5" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="V5" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="W5" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="X5" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y5" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z5" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA5" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB5" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC5" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD5" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE5" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF5" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG5" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH5" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI5" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2812,11 +2860,11 @@
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>22</v>
+      <c r="B6" s="21">
+        <v>3040193302</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>158</v>
       </c>
       <c r="D6" s="20" t="s">
         <v>12</v>
@@ -2833,85 +2881,85 @@
       <c r="H6" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="K6" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="L6" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="M6" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="N6" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="O6" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="P6" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q6" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="R6" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="S6" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="T6" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="U6" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="V6" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="W6" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="X6" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y6" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z6" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA6" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB6" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC6" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD6" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE6" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF6" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG6" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="AH6" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="AI6" s="18" t="s">
+      <c r="I6" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="M6" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="N6" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="O6" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="P6" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q6" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="R6" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="S6" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="T6" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="U6" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="V6" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="W6" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="X6" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y6" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z6" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA6" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB6" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC6" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD6" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE6" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF6" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG6" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH6" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI6" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2920,10 +2968,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D7" s="20" t="s">
         <v>12</v>
@@ -3027,10 +3075,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D8" s="20" t="s">
         <v>12</v>
@@ -3134,10 +3182,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D9" s="20" t="s">
         <v>12</v>
@@ -3241,10 +3289,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D10" s="20" t="s">
         <v>12</v>
@@ -3348,10 +3396,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D11" s="20" t="s">
         <v>12</v>
@@ -3455,10 +3503,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D12" s="20" t="s">
         <v>12</v>
@@ -3562,10 +3610,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D13" s="20" t="s">
         <v>12</v>
@@ -3669,16 +3717,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D14" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="18" t="s">
-        <v>155</v>
+      <c r="E14" s="20" t="s">
+        <v>12</v>
       </c>
       <c r="F14" s="20" t="s">
         <v>12</v>
@@ -3776,16 +3824,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D15" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="20" t="s">
-        <v>12</v>
+      <c r="E15" s="18" t="s">
+        <v>155</v>
       </c>
       <c r="F15" s="20" t="s">
         <v>12</v>
@@ -3883,10 +3931,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D16" s="20" t="s">
         <v>12</v>
@@ -3990,10 +4038,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D17" s="20" t="s">
         <v>12</v>
@@ -4097,10 +4145,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D18" s="20" t="s">
         <v>12</v>
@@ -4204,10 +4252,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D19" s="20" t="s">
         <v>12</v>
@@ -4311,10 +4359,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D20" s="20" t="s">
         <v>12</v>
@@ -4418,10 +4466,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D21" s="20" t="s">
         <v>12</v>
@@ -4525,10 +4573,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D22" s="20" t="s">
         <v>12</v>
@@ -4632,10 +4680,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D23" s="20" t="s">
         <v>12</v>
@@ -4739,10 +4787,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D24" s="20" t="s">
         <v>12</v>
@@ -4846,10 +4894,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D25" s="20" t="s">
         <v>12</v>
@@ -4953,10 +5001,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D26" s="20" t="s">
         <v>12</v>
@@ -5060,10 +5108,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D27" s="20" t="s">
         <v>12</v>
@@ -5167,10 +5215,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D28" s="20" t="s">
         <v>12</v>
@@ -5274,10 +5322,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D29" s="20" t="s">
         <v>12</v>
@@ -5381,10 +5429,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D30" s="20" t="s">
         <v>12</v>
@@ -5488,10 +5536,10 @@
         <v>29</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D31" s="20" t="s">
         <v>12</v>
@@ -5595,10 +5643,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D32" s="20" t="s">
         <v>12</v>
@@ -5702,10 +5750,10 @@
         <v>31</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D33" s="20" t="s">
         <v>12</v>
@@ -5809,10 +5857,10 @@
         <v>32</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D34" s="20" t="s">
         <v>12</v>
@@ -5916,10 +5964,10 @@
         <v>33</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D35" s="20" t="s">
         <v>12</v>
@@ -6023,10 +6071,10 @@
         <v>34</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D36" s="20" t="s">
         <v>12</v>
@@ -6130,10 +6178,10 @@
         <v>35</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D37" s="20" t="s">
         <v>12</v>
@@ -6237,10 +6285,10 @@
         <v>36</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D38" s="20" t="s">
         <v>12</v>
@@ -6344,10 +6392,10 @@
         <v>37</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D39" s="20" t="s">
         <v>12</v>
@@ -6365,7 +6413,7 @@
         <v>12</v>
       </c>
       <c r="I39" s="18" t="s">
-        <v>154</v>
+        <v>12</v>
       </c>
       <c r="J39" s="18" t="s">
         <v>12</v>
@@ -6451,10 +6499,10 @@
         <v>38</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C40" s="17" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D40" s="20" t="s">
         <v>12</v>
@@ -6472,7 +6520,7 @@
         <v>12</v>
       </c>
       <c r="I40" s="18" t="s">
-        <v>12</v>
+        <v>154</v>
       </c>
       <c r="J40" s="18" t="s">
         <v>12</v>
@@ -6558,16 +6606,16 @@
         <v>39</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D41" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="E41" s="18" t="s">
-        <v>155</v>
+      <c r="E41" s="20" t="s">
+        <v>12</v>
       </c>
       <c r="F41" s="20" t="s">
         <v>12</v>
@@ -6585,7 +6633,7 @@
         <v>12</v>
       </c>
       <c r="K41" s="18" t="s">
-        <v>159</v>
+        <v>12</v>
       </c>
       <c r="L41" s="18" t="s">
         <v>12</v>
@@ -6665,16 +6713,16 @@
         <v>40</v>
       </c>
       <c r="B42" s="17" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C42" s="17" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D42" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="E42" s="20" t="s">
-        <v>12</v>
+      <c r="E42" s="18" t="s">
+        <v>155</v>
       </c>
       <c r="F42" s="20" t="s">
         <v>12</v>
@@ -6692,7 +6740,7 @@
         <v>12</v>
       </c>
       <c r="K42" s="18" t="s">
-        <v>12</v>
+        <v>157</v>
       </c>
       <c r="L42" s="18" t="s">
         <v>12</v>
@@ -6772,10 +6820,10 @@
         <v>41</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D43" s="20" t="s">
         <v>12</v>
@@ -6879,10 +6927,10 @@
         <v>42</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C44" s="17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D44" s="20" t="s">
         <v>12</v>
@@ -6986,10 +7034,10 @@
         <v>43</v>
       </c>
       <c r="B45" s="17" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D45" s="20" t="s">
         <v>12</v>
@@ -7093,10 +7141,10 @@
         <v>44</v>
       </c>
       <c r="B46" s="17" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C46" s="17" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D46" s="20" t="s">
         <v>12</v>
@@ -7200,10 +7248,10 @@
         <v>45</v>
       </c>
       <c r="B47" s="17" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C47" s="17" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D47" s="20" t="s">
         <v>12</v>
@@ -7307,105 +7355,212 @@
         <v>46</v>
       </c>
       <c r="B48" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="C48" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="D48" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E48" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G48" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H48" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="I48" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="J48" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="K48" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="L48" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="M48" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="N48" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="O48" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="P48" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q48" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="R48" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="S48" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="T48" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="U48" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="V48" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="W48" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="X48" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y48" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z48" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA48" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB48" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC48" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD48" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE48" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF48" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG48" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH48" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI48" s="18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="C48" s="17" t="s">
+      <c r="C49" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="D48" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="E48" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="F48" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G48" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="H48" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="I48" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="J48" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="K48" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="L48" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="M48" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="N48" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="O48" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="P48" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q48" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="R48" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="S48" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="T48" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="U48" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="V48" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="W48" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="X48" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y48" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z48" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA48" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB48" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC48" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD48" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE48" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF48" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG48" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="AH48" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="AI48" s="18" t="s">
+      <c r="D49" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F49" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G49" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H49" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="I49" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="J49" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="K49" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="L49" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="M49" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="N49" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="O49" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="P49" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q49" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="R49" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="S49" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="T49" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="U49" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="V49" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="W49" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="X49" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y49" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z49" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA49" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB49" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC49" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD49" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE49" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF49" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG49" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH49" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI49" s="18" t="s">
         <v>12</v>
       </c>
     </row>
@@ -7427,7 +7582,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7439,12 +7594,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="39" t="s">
-        <v>158</v>
-      </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
+      <c r="A1" s="38" t="s">
+        <v>178</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
     </row>
     <row r="2" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -7465,25 +7620,27 @@
         <v>1</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C3" s="7">
         <v>47</v>
       </c>
-      <c r="D3" s="16"/>
+      <c r="D3" s="16" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="4" spans="1:4" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>2</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C4" s="7">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -7491,10 +7648,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C5" s="7">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D5" s="16" t="s">
         <v>177</v>
@@ -7505,22 +7662,24 @@
         <v>4</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C6" s="7">
         <v>47</v>
       </c>
-      <c r="D6" s="16"/>
+      <c r="D6" s="16" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="7" spans="1:4" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>5</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C7" s="7">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D7" s="16" t="s">
         <v>177</v>
@@ -7531,13 +7690,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C8" s="7">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -7545,13 +7704,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C9" s="7">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -7559,13 +7718,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C10" s="7">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -7580,27 +7739,45 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F68771E-8813-4D8B-9B9F-E00ABE24DDBD}">
-  <dimension ref="A2:L49"/>
+  <dimension ref="A1:N49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H41" sqref="D41:H41"/>
+    <sheetView topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="13.875" customWidth="1"/>
+    <col min="2" max="2" width="14.375" customWidth="1"/>
+    <col min="3" max="3" width="17.5" customWidth="1"/>
     <col min="4" max="11" width="9" style="25"/>
+    <col min="12" max="12" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="41" t="s">
+        <v>187</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+    </row>
+    <row r="2" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>2</v>
+        <v>179</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>6</v>
+        <v>180</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>7</v>
+        <v>181</v>
       </c>
       <c r="D2" s="5">
         <v>1</v>
@@ -7627,10 +7804,10 @@
         <v>8</v>
       </c>
       <c r="L2" s="31" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -7668,8 +7845,9 @@
         <f>AVERAGE(D3:K3)</f>
         <v>86.25</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="N3" s="40"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -7707,8 +7885,9 @@
         <f t="shared" ref="L4:L49" si="0">AVERAGE(D4:K4)</f>
         <v>83.125</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="N4" s="40"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -7746,142 +7925,146 @@
         <f t="shared" si="0"/>
         <v>74.375</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="N5" s="40"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="21" t="s">
-        <v>21</v>
+      <c r="B6" s="21">
+        <v>3040193302</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="D6" s="1">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="F6" s="1">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G6" s="1">
         <v>85</v>
       </c>
       <c r="H6" s="1">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="I6" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J6" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="L6" s="32">
-        <f t="shared" si="0"/>
-        <v>20.625</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+        <f>AVERAGE(D6:K6)</f>
+        <v>88.75</v>
+      </c>
+      <c r="N6" s="40"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>24</v>
+        <v>21</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>171</v>
       </c>
       <c r="D7" s="1">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="E7" s="1">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="F7" s="1">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="G7" s="1">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="H7" s="1">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="I7" s="1">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="J7" s="1">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="K7" s="1">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="L7" s="32">
         <f t="shared" si="0"/>
-        <v>88.75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+        <v>62.5</v>
+      </c>
+      <c r="N7" s="40"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D8" s="1">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E8" s="1">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F8" s="1">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="G8" s="1">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H8" s="1">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="I8" s="1">
         <v>90</v>
       </c>
       <c r="J8" s="1">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="K8" s="1">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="L8" s="32">
         <f t="shared" si="0"/>
-        <v>70.625</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+        <v>88.75</v>
+      </c>
+      <c r="N8" s="40"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D9" s="1">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="E9" s="1">
         <v>60</v>
       </c>
       <c r="F9" s="1">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="G9" s="1">
         <v>80</v>
@@ -7890,70 +8073,72 @@
         <v>60</v>
       </c>
       <c r="I9" s="1">
+        <v>90</v>
+      </c>
+      <c r="J9" s="1">
+        <v>70</v>
+      </c>
+      <c r="K9" s="1">
         <v>60</v>
-      </c>
-      <c r="J9" s="1">
-        <v>85</v>
-      </c>
-      <c r="K9" s="1">
-        <v>70</v>
       </c>
       <c r="L9" s="32">
         <f t="shared" si="0"/>
-        <v>68.125</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+        <v>70.625</v>
+      </c>
+      <c r="N9" s="40"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D10" s="1">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="E10" s="1">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="F10" s="1">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="G10" s="1">
         <v>80</v>
       </c>
       <c r="H10" s="1">
+        <v>60</v>
+      </c>
+      <c r="I10" s="1">
+        <v>60</v>
+      </c>
+      <c r="J10" s="1">
         <v>85</v>
       </c>
-      <c r="I10" s="1">
-        <v>65</v>
-      </c>
-      <c r="J10" s="1">
-        <v>80</v>
-      </c>
       <c r="K10" s="1">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="L10" s="32">
         <f t="shared" si="0"/>
-        <v>81.875</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+        <v>68.125</v>
+      </c>
+      <c r="N10" s="40"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D11" s="1">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="E11" s="1">
         <v>90</v>
@@ -7962,34 +8147,35 @@
         <v>90</v>
       </c>
       <c r="G11" s="1">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H11" s="1">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="I11" s="1">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="J11" s="1">
         <v>80</v>
       </c>
       <c r="K11" s="1">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="L11" s="32">
         <f t="shared" si="0"/>
-        <v>86.25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+        <v>81.875</v>
+      </c>
+      <c r="N11" s="40"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D12" s="1">
         <v>90</v>
@@ -7998,94 +8184,96 @@
         <v>90</v>
       </c>
       <c r="F12" s="1">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G12" s="1">
         <v>90</v>
       </c>
       <c r="H12" s="1">
+        <v>80</v>
+      </c>
+      <c r="I12" s="1">
         <v>90</v>
       </c>
-      <c r="I12" s="1">
-        <v>65</v>
-      </c>
       <c r="J12" s="1">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K12" s="1">
         <v>80</v>
       </c>
       <c r="L12" s="32">
         <f t="shared" si="0"/>
-        <v>82.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+        <v>86.25</v>
+      </c>
+      <c r="N12" s="40"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D13" s="1">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E13" s="1">
         <v>90</v>
       </c>
       <c r="F13" s="1">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G13" s="1">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="H13" s="1">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="I13" s="1">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="J13" s="1">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="K13" s="1">
         <v>80</v>
       </c>
       <c r="L13" s="32">
         <f t="shared" si="0"/>
-        <v>78.125</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+        <v>82.5</v>
+      </c>
+      <c r="N13" s="40"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D14" s="1">
         <v>85</v>
       </c>
       <c r="E14" s="1">
+        <v>90</v>
+      </c>
+      <c r="F14" s="1">
+        <v>70</v>
+      </c>
+      <c r="G14" s="1">
         <v>85</v>
       </c>
-      <c r="F14" s="1">
+      <c r="H14" s="1">
+        <v>85</v>
+      </c>
+      <c r="I14" s="1">
         <v>60</v>
-      </c>
-      <c r="G14" s="1">
-        <v>60</v>
-      </c>
-      <c r="H14" s="1">
-        <v>70</v>
-      </c>
-      <c r="I14" s="1">
-        <v>85</v>
       </c>
       <c r="J14" s="1">
         <v>70</v>
@@ -8095,99 +8283,102 @@
       </c>
       <c r="L14" s="32">
         <f t="shared" si="0"/>
-        <v>74.375</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+        <v>78.125</v>
+      </c>
+      <c r="N14" s="40"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D15" s="1">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="E15" s="1">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="F15" s="1">
         <v>60</v>
       </c>
       <c r="G15" s="1">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="H15" s="1">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="I15" s="1">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="J15" s="1">
         <v>70</v>
       </c>
       <c r="K15" s="1">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="L15" s="32">
         <f t="shared" si="0"/>
-        <v>66.25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+        <v>74.375</v>
+      </c>
+      <c r="N15" s="40"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D16" s="1">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="E16" s="1">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="F16" s="1">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="G16" s="1">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H16" s="1">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="I16" s="1">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="J16" s="1">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="K16" s="1">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="L16" s="32">
         <f t="shared" si="0"/>
-        <v>87.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+        <v>66.25</v>
+      </c>
+      <c r="N16" s="40"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D17" s="1">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E17" s="1">
         <v>90</v>
@@ -8199,79 +8390,81 @@
         <v>90</v>
       </c>
       <c r="H17" s="1">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="I17" s="1">
+        <v>90</v>
+      </c>
+      <c r="J17" s="1">
         <v>85</v>
       </c>
-      <c r="J17" s="1">
+      <c r="K17" s="1">
         <v>80</v>
-      </c>
-      <c r="K17" s="1">
-        <v>75</v>
       </c>
       <c r="L17" s="32">
         <f t="shared" si="0"/>
-        <v>84.375</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+        <v>87.5</v>
+      </c>
+      <c r="N17" s="40"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" s="24" t="s">
-        <v>170</v>
+        <v>43</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>44</v>
       </c>
       <c r="D18" s="1">
         <v>90</v>
       </c>
       <c r="E18" s="1">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="F18" s="1">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="G18" s="1">
         <v>90</v>
       </c>
       <c r="H18" s="1">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="I18" s="1">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="J18" s="1">
+        <v>80</v>
+      </c>
+      <c r="K18" s="1">
         <v>75</v>
-      </c>
-      <c r="K18" s="1">
-        <v>70</v>
       </c>
       <c r="L18" s="32">
         <f t="shared" si="0"/>
         <v>84.375</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="N18" s="40"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>48</v>
+        <v>45</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>167</v>
       </c>
       <c r="D19" s="1">
+        <v>90</v>
+      </c>
+      <c r="E19" s="1">
         <v>85</v>
       </c>
-      <c r="E19" s="1">
-        <v>80</v>
-      </c>
       <c r="F19" s="1">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="G19" s="1">
         <v>90</v>
@@ -8280,160 +8473,164 @@
         <v>90</v>
       </c>
       <c r="I19" s="1">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="J19" s="1">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K19" s="1">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="L19" s="32">
         <f t="shared" si="0"/>
-        <v>85.625</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+        <v>84.375</v>
+      </c>
+      <c r="N19" s="40"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D20" s="1">
+        <v>85</v>
+      </c>
+      <c r="E20" s="1">
+        <v>80</v>
+      </c>
+      <c r="F20" s="1">
         <v>90</v>
       </c>
-      <c r="E20" s="1">
-        <v>65</v>
-      </c>
-      <c r="F20" s="1">
-        <v>65</v>
-      </c>
       <c r="G20" s="1">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H20" s="1">
+        <v>90</v>
+      </c>
+      <c r="I20" s="1">
         <v>85</v>
       </c>
-      <c r="I20" s="1">
-        <v>80</v>
-      </c>
       <c r="J20" s="1">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="K20" s="1">
         <v>80</v>
       </c>
       <c r="L20" s="32">
         <f t="shared" si="0"/>
-        <v>76.875</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+        <v>85.625</v>
+      </c>
+      <c r="N20" s="40"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D21" s="1">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="E21" s="1">
+        <v>65</v>
+      </c>
+      <c r="F21" s="1">
+        <v>65</v>
+      </c>
+      <c r="G21" s="1">
+        <v>80</v>
+      </c>
+      <c r="H21" s="1">
+        <v>85</v>
+      </c>
+      <c r="I21" s="1">
+        <v>80</v>
+      </c>
+      <c r="J21" s="1">
         <v>70</v>
       </c>
-      <c r="F21" s="1">
-        <v>75</v>
-      </c>
-      <c r="G21" s="1">
-        <v>90</v>
-      </c>
-      <c r="H21" s="1">
-        <v>70</v>
-      </c>
-      <c r="I21" s="1">
-        <v>75</v>
-      </c>
-      <c r="J21" s="1">
+      <c r="K21" s="1">
         <v>80</v>
-      </c>
-      <c r="K21" s="1">
-        <v>70</v>
       </c>
       <c r="L21" s="32">
         <f t="shared" si="0"/>
-        <v>73.75</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+        <v>76.875</v>
+      </c>
+      <c r="N21" s="40"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D22" s="1">
+        <v>60</v>
+      </c>
+      <c r="E22" s="1">
+        <v>70</v>
+      </c>
+      <c r="F22" s="1">
+        <v>75</v>
+      </c>
+      <c r="G22" s="1">
         <v>90</v>
       </c>
-      <c r="E22" s="1">
-        <v>85</v>
-      </c>
-      <c r="F22" s="1">
-        <v>85</v>
-      </c>
-      <c r="G22" s="1">
-        <v>80</v>
-      </c>
       <c r="H22" s="1">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="I22" s="1">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="J22" s="1">
         <v>80</v>
       </c>
       <c r="K22" s="1">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="L22" s="32">
         <f t="shared" si="0"/>
-        <v>83.75</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+        <v>73.75</v>
+      </c>
+      <c r="N22" s="40"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D23" s="1">
         <v>90</v>
       </c>
       <c r="E23" s="1">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="F23" s="1">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="G23" s="1">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="H23" s="1">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="I23" s="1">
         <v>80</v>
@@ -8446,153 +8643,157 @@
       </c>
       <c r="L23" s="32">
         <f t="shared" si="0"/>
-        <v>60.625</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+        <v>83.75</v>
+      </c>
+      <c r="N23" s="40"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D24" s="1">
         <v>90</v>
       </c>
       <c r="E24" s="1">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="G24" s="1">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="H24" s="1">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="I24" s="1">
         <v>80</v>
       </c>
       <c r="J24" s="1">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="K24" s="1">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="L24" s="32">
         <f t="shared" si="0"/>
-        <v>88.125</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+        <v>60.625</v>
+      </c>
+      <c r="N24" s="40"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D25" s="1">
+        <v>90</v>
+      </c>
+      <c r="E25" s="1">
+        <v>90</v>
+      </c>
+      <c r="F25" s="1">
+        <v>90</v>
+      </c>
+      <c r="G25" s="1">
+        <v>90</v>
+      </c>
+      <c r="H25" s="1">
+        <v>90</v>
+      </c>
+      <c r="I25" s="1">
+        <v>80</v>
+      </c>
+      <c r="J25" s="1">
         <v>85</v>
       </c>
-      <c r="E25" s="1">
-        <v>85</v>
-      </c>
-      <c r="F25" s="1">
-        <v>85</v>
-      </c>
-      <c r="G25" s="1">
-        <v>70</v>
-      </c>
-      <c r="H25" s="1">
-        <v>75</v>
-      </c>
-      <c r="I25" s="1">
-        <v>60</v>
-      </c>
-      <c r="J25" s="1">
-        <v>60</v>
-      </c>
       <c r="K25" s="1">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="L25" s="32">
         <f t="shared" si="0"/>
-        <v>73.125</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+        <v>88.125</v>
+      </c>
+      <c r="N25" s="40"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D26" s="1">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E26" s="1">
+        <v>85</v>
+      </c>
+      <c r="F26" s="1">
+        <v>85</v>
+      </c>
+      <c r="G26" s="1">
+        <v>70</v>
+      </c>
+      <c r="H26" s="1">
+        <v>75</v>
+      </c>
+      <c r="I26" s="1">
         <v>60</v>
       </c>
-      <c r="F26" s="1">
-        <v>80</v>
-      </c>
-      <c r="G26" s="1">
-        <v>75</v>
-      </c>
-      <c r="H26" s="1">
-        <v>85</v>
-      </c>
-      <c r="I26" s="1">
-        <v>95</v>
-      </c>
       <c r="J26" s="1">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="K26" s="1">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="L26" s="32">
         <f t="shared" si="0"/>
-        <v>78.75</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+        <v>73.125</v>
+      </c>
+      <c r="N26" s="40"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D27" s="1">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="E27" s="1">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="F27" s="1">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G27" s="1">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H27" s="1">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="I27" s="1">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="J27" s="1">
         <v>75</v>
@@ -8602,18 +8803,19 @@
       </c>
       <c r="L27" s="32">
         <f t="shared" si="0"/>
-        <v>85.625</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+        <v>78.75</v>
+      </c>
+      <c r="N27" s="40"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D28" s="1">
         <v>90</v>
@@ -8625,112 +8827,115 @@
         <v>90</v>
       </c>
       <c r="G28" s="1">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H28" s="1">
         <v>90</v>
       </c>
       <c r="I28" s="1">
+        <v>90</v>
+      </c>
+      <c r="J28" s="1">
+        <v>75</v>
+      </c>
+      <c r="K28" s="1">
         <v>80</v>
-      </c>
-      <c r="J28" s="1">
-        <v>80</v>
-      </c>
-      <c r="K28" s="1">
-        <v>75</v>
       </c>
       <c r="L28" s="32">
         <f t="shared" si="0"/>
         <v>85.625</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="N28" s="40"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D29" s="1">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="E29" s="1">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F29" s="1">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="G29" s="1">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="H29" s="1">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="I29" s="1">
         <v>80</v>
       </c>
       <c r="J29" s="1">
+        <v>80</v>
+      </c>
+      <c r="K29" s="1">
         <v>75</v>
-      </c>
-      <c r="K29" s="1">
-        <v>70</v>
       </c>
       <c r="L29" s="32">
         <f t="shared" si="0"/>
-        <v>69.375</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+        <v>85.625</v>
+      </c>
+      <c r="N29" s="40"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C30" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" s="1">
+        <v>60</v>
+      </c>
+      <c r="E30" s="1">
+        <v>60</v>
+      </c>
+      <c r="F30" s="1">
+        <v>75</v>
+      </c>
+      <c r="G30" s="1">
+        <v>60</v>
+      </c>
+      <c r="H30" s="1">
+        <v>75</v>
+      </c>
+      <c r="I30" s="1">
+        <v>80</v>
+      </c>
+      <c r="J30" s="1">
+        <v>75</v>
+      </c>
+      <c r="K30" s="1">
         <v>70</v>
-      </c>
-      <c r="D30" s="1">
-        <v>90</v>
-      </c>
-      <c r="E30" s="1">
-        <v>90</v>
-      </c>
-      <c r="F30" s="1">
-        <v>90</v>
-      </c>
-      <c r="G30" s="1">
-        <v>90</v>
-      </c>
-      <c r="H30" s="1">
-        <v>90</v>
-      </c>
-      <c r="I30" s="1">
-        <v>95</v>
-      </c>
-      <c r="J30" s="1">
-        <v>95</v>
-      </c>
-      <c r="K30" s="1">
-        <v>85</v>
       </c>
       <c r="L30" s="32">
         <f t="shared" si="0"/>
-        <v>90.625</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
+        <v>69.375</v>
+      </c>
+      <c r="N30" s="40"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D31" s="1">
         <v>90</v>
@@ -8742,247 +8947,253 @@
         <v>90</v>
       </c>
       <c r="G31" s="1">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H31" s="1">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="I31" s="1">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="J31" s="1">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="K31" s="1">
         <v>85</v>
       </c>
       <c r="L31" s="32">
         <f t="shared" si="0"/>
-        <v>86.875</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
+        <v>90.625</v>
+      </c>
+      <c r="N31" s="40"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D32" s="1">
+        <v>90</v>
+      </c>
+      <c r="E32" s="1">
+        <v>90</v>
+      </c>
+      <c r="F32" s="1">
+        <v>90</v>
+      </c>
+      <c r="G32" s="1">
         <v>80</v>
       </c>
-      <c r="E32" s="1">
+      <c r="H32" s="1">
         <v>80</v>
       </c>
-      <c r="F32" s="1">
-        <v>85</v>
-      </c>
-      <c r="G32" s="1">
-        <v>75</v>
-      </c>
-      <c r="H32" s="1">
-        <v>85</v>
-      </c>
       <c r="I32" s="1">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="J32" s="1">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="K32" s="1">
         <v>85</v>
       </c>
       <c r="L32" s="32">
         <f t="shared" si="0"/>
-        <v>81.875</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.15">
+        <v>86.875</v>
+      </c>
+      <c r="N32" s="40"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C33" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="D33" s="1">
+        <v>80</v>
+      </c>
+      <c r="E33" s="1">
+        <v>80</v>
+      </c>
+      <c r="F33" s="1">
+        <v>85</v>
+      </c>
+      <c r="G33" s="1">
         <v>75</v>
       </c>
-      <c r="C33" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="D33" s="1">
-        <v>10</v>
-      </c>
-      <c r="E33" s="1">
-        <v>10</v>
-      </c>
-      <c r="F33" s="1">
-        <v>10</v>
-      </c>
-      <c r="G33" s="1">
-        <v>60</v>
-      </c>
       <c r="H33" s="1">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="I33" s="1">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="J33" s="1">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="K33" s="1">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="L33" s="32">
         <f t="shared" si="0"/>
-        <v>43.75</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.15">
+        <v>81.875</v>
+      </c>
+      <c r="N33" s="40"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" s="21" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D34" s="1">
-        <v>85</v>
+        <v>10</v>
       </c>
       <c r="E34" s="1">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="F34" s="1">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="G34" s="1">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="H34" s="1">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="I34" s="1">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="J34" s="1">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="K34" s="1">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="L34" s="32">
         <f t="shared" si="0"/>
-        <v>84.375</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.15">
+        <v>43.75</v>
+      </c>
+      <c r="N34" s="40"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D35" s="1">
+        <v>85</v>
+      </c>
+      <c r="E35" s="1">
         <v>90</v>
-      </c>
-      <c r="E35" s="1">
-        <v>60</v>
       </c>
       <c r="F35" s="1">
         <v>80</v>
       </c>
       <c r="G35" s="1">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H35" s="1">
+        <v>90</v>
+      </c>
+      <c r="I35" s="1">
+        <v>85</v>
+      </c>
+      <c r="J35" s="1">
         <v>70</v>
       </c>
-      <c r="I35" s="1">
-        <v>75</v>
-      </c>
-      <c r="J35" s="1">
-        <v>65</v>
-      </c>
       <c r="K35" s="1">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="L35" s="32">
         <f t="shared" si="0"/>
-        <v>73.75</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.15">
+        <v>84.375</v>
+      </c>
+      <c r="N35" s="40"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" s="21" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D36" s="1">
         <v>90</v>
       </c>
       <c r="E36" s="1">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F36" s="1">
         <v>80</v>
       </c>
       <c r="G36" s="1">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="H36" s="1">
         <v>70</v>
       </c>
       <c r="I36" s="1">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="J36" s="1">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="K36" s="1">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="L36" s="32">
         <f t="shared" si="0"/>
-        <v>78.125</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.15">
+        <v>73.75</v>
+      </c>
+      <c r="N36" s="40"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" s="21" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D37" s="1">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E37" s="1">
         <v>70</v>
       </c>
       <c r="F37" s="1">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G37" s="1">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="H37" s="1">
+        <v>70</v>
+      </c>
+      <c r="I37" s="1">
         <v>90</v>
-      </c>
-      <c r="I37" s="1">
-        <v>75</v>
       </c>
       <c r="J37" s="1">
         <v>80</v>
@@ -8994,139 +9205,143 @@
         <f t="shared" si="0"/>
         <v>78.125</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="N37" s="40"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" s="21" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C38" s="21" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D38" s="1">
         <v>80</v>
       </c>
       <c r="E38" s="1">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="F38" s="1">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G38" s="1">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="H38" s="1">
         <v>90</v>
       </c>
       <c r="I38" s="1">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="J38" s="1">
         <v>80</v>
       </c>
       <c r="K38" s="1">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="L38" s="32">
         <f t="shared" si="0"/>
-        <v>84.375</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.15">
+        <v>78.125</v>
+      </c>
+      <c r="N38" s="40"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" s="21" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C39" s="21" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D39" s="1">
         <v>80</v>
       </c>
       <c r="E39" s="1">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="F39" s="1">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="G39" s="1">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="H39" s="1">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="I39" s="1">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="J39" s="1">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="K39" s="1">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="L39" s="32">
         <f t="shared" si="0"/>
-        <v>71.875</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.15">
+        <v>84.375</v>
+      </c>
+      <c r="N39" s="40"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" s="21" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C40" s="21" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D40" s="1">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="E40" s="1">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="F40" s="1">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="G40" s="1">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="H40" s="1">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="I40" s="1">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J40" s="1">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="K40" s="1">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="L40" s="32">
         <f t="shared" si="0"/>
-        <v>82.5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.15">
+        <v>71.875</v>
+      </c>
+      <c r="N40" s="40"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="C41" s="24" t="s">
-        <v>171</v>
+        <v>89</v>
+      </c>
+      <c r="C41" s="21" t="s">
+        <v>90</v>
       </c>
       <c r="D41" s="1">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E41" s="1">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="F41" s="1">
         <v>85</v>
@@ -9135,115 +9350,118 @@
         <v>80</v>
       </c>
       <c r="H41" s="1">
+        <v>80</v>
+      </c>
+      <c r="I41" s="1">
+        <v>85</v>
+      </c>
+      <c r="J41" s="1">
         <v>75</v>
       </c>
-      <c r="I41" s="1">
-        <v>0</v>
-      </c>
-      <c r="J41" s="1">
-        <v>0</v>
-      </c>
       <c r="K41" s="1">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="L41" s="32">
         <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.15">
+        <v>82.5</v>
+      </c>
+      <c r="N41" s="40"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="C42" s="21" t="s">
-        <v>94</v>
+        <v>91</v>
+      </c>
+      <c r="C42" s="24" t="s">
+        <v>168</v>
       </c>
       <c r="D42" s="1">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E42" s="1">
         <v>80</v>
       </c>
       <c r="F42" s="1">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="G42" s="1">
         <v>80</v>
       </c>
       <c r="H42" s="1">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="I42" s="1">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="J42" s="1">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="K42" s="1">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="L42" s="32">
         <f t="shared" si="0"/>
-        <v>83.125</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.15">
+        <v>72.5</v>
+      </c>
+      <c r="N42" s="40"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C43" s="21" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D43" s="1">
+        <v>85</v>
+      </c>
+      <c r="E43" s="1">
         <v>80</v>
       </c>
-      <c r="E43" s="1">
+      <c r="F43" s="1">
         <v>90</v>
       </c>
-      <c r="F43" s="1">
-        <v>85</v>
-      </c>
       <c r="G43" s="1">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="H43" s="1">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="I43" s="1">
         <v>90</v>
       </c>
       <c r="J43" s="1">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="K43" s="1">
         <v>85</v>
       </c>
       <c r="L43" s="32">
         <f t="shared" si="0"/>
-        <v>86.875</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.15">
+        <v>83.125</v>
+      </c>
+      <c r="N43" s="40"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" s="21" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C44" s="21" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D44" s="1">
+        <v>80</v>
+      </c>
+      <c r="E44" s="1">
         <v>90</v>
-      </c>
-      <c r="E44" s="1">
-        <v>85</v>
       </c>
       <c r="F44" s="1">
         <v>85</v>
@@ -9255,160 +9473,164 @@
         <v>90</v>
       </c>
       <c r="I44" s="1">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="J44" s="1">
         <v>90</v>
       </c>
       <c r="K44" s="1">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="L44" s="32">
         <f t="shared" si="0"/>
-        <v>84.375</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.15">
+        <v>86.875</v>
+      </c>
+      <c r="N44" s="40"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" s="21" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C45" s="21" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D45" s="1">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E45" s="1">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F45" s="1">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="G45" s="1">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H45" s="1">
         <v>90</v>
       </c>
       <c r="I45" s="1">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="J45" s="1">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="K45" s="1">
         <v>80</v>
       </c>
       <c r="L45" s="32">
         <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.15">
+        <v>84.375</v>
+      </c>
+      <c r="N45" s="40"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" s="21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C46" s="21" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D46" s="1">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E46" s="1">
         <v>80</v>
       </c>
       <c r="F46" s="1">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G46" s="1">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H46" s="1">
         <v>90</v>
       </c>
       <c r="I46" s="1">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="J46" s="1">
+        <v>70</v>
+      </c>
+      <c r="K46" s="1">
         <v>80</v>
-      </c>
-      <c r="K46" s="1">
-        <v>85</v>
       </c>
       <c r="L46" s="32">
         <f t="shared" si="0"/>
-        <v>83.75</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.15">
+        <v>80</v>
+      </c>
+      <c r="N46" s="40"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" s="21" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C47" s="21" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D47" s="1">
+        <v>85</v>
+      </c>
+      <c r="E47" s="1">
         <v>80</v>
       </c>
-      <c r="E47" s="1">
-        <v>85</v>
-      </c>
       <c r="F47" s="1">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G47" s="1">
         <v>80</v>
       </c>
       <c r="H47" s="1">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="I47" s="1">
         <v>90</v>
       </c>
       <c r="J47" s="1">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="K47" s="1">
         <v>85</v>
       </c>
       <c r="L47" s="32">
         <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.15">
+        <v>83.75</v>
+      </c>
+      <c r="N47" s="40"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="C48" s="24" t="s">
-        <v>172</v>
+        <v>103</v>
+      </c>
+      <c r="C48" s="21" t="s">
+        <v>104</v>
       </c>
       <c r="D48" s="1">
+        <v>80</v>
+      </c>
+      <c r="E48" s="1">
         <v>85</v>
       </c>
-      <c r="E48" s="1">
-        <v>75</v>
-      </c>
       <c r="F48" s="1">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="G48" s="1">
         <v>80</v>
       </c>
       <c r="H48" s="1">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="I48" s="1">
         <v>90</v>
@@ -9417,53 +9639,58 @@
         <v>70</v>
       </c>
       <c r="K48" s="1">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="L48" s="32">
         <f t="shared" si="0"/>
-        <v>78.75</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.15">
+        <v>80</v>
+      </c>
+      <c r="N48" s="40"/>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="B49" s="21">
-        <v>3040193302</v>
+      <c r="B49" s="21" t="s">
+        <v>105</v>
       </c>
       <c r="C49" s="24" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="D49" s="1">
+        <v>85</v>
+      </c>
+      <c r="E49" s="1">
         <v>75</v>
       </c>
-      <c r="E49" s="1">
-        <v>85</v>
-      </c>
       <c r="F49" s="1">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="G49" s="1">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="H49" s="1">
         <v>90</v>
       </c>
       <c r="I49" s="1">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="J49" s="1">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="K49" s="1">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="L49" s="32">
         <f t="shared" si="0"/>
-        <v>88.75</v>
-      </c>
+        <v>78.75</v>
+      </c>
+      <c r="N49" s="40"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:L1"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9471,10 +9698,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06EBC456-0353-452F-B62B-0A1B41F55AD0}">
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9482,25 +9709,25 @@
     <col min="1" max="1" width="4.375" customWidth="1"/>
     <col min="2" max="2" width="13.125" customWidth="1"/>
     <col min="3" max="3" width="22.125" customWidth="1"/>
-    <col min="4" max="4" width="10.125" style="10" customWidth="1"/>
-    <col min="5" max="5" width="11.375" style="10" customWidth="1"/>
-    <col min="6" max="7" width="10.625" style="9" customWidth="1"/>
-    <col min="8" max="8" width="25.875" style="11" customWidth="1"/>
+    <col min="4" max="6" width="10.125" style="10" customWidth="1"/>
+    <col min="7" max="8" width="10.625" style="9" customWidth="1"/>
+    <col min="9" max="9" width="25.875" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="40.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:9" ht="40.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-    </row>
-    <row r="2" spans="1:8" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+    </row>
+    <row r="2" spans="1:9" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -9511,22 +9738,25 @@
         <v>7</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G2" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="H2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="I2" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -9536,22 +9766,25 @@
       <c r="C3" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="36">
-        <v>100</v>
-      </c>
-      <c r="E3" s="15">
-        <v>86</v>
-      </c>
-      <c r="F3" s="15">
+      <c r="D3" s="35">
+        <v>9</v>
+      </c>
+      <c r="E3" s="39">
+        <v>86.25</v>
+      </c>
+      <c r="F3" s="39">
+        <v>90</v>
+      </c>
+      <c r="G3" s="15">
         <v>87</v>
       </c>
-      <c r="G3" s="33">
-        <f>D3*0.1+E3*0.5+F3*0.4</f>
-        <v>87.800000000000011</v>
-      </c>
-      <c r="H3" s="14"/>
-    </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H3" s="33">
+        <f>D3+E3*0.1+F3*0.4+G3*0.4</f>
+        <v>88.425000000000011</v>
+      </c>
+      <c r="I3" s="14"/>
+    </row>
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -9561,22 +9794,25 @@
       <c r="C4" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="36">
-        <v>80</v>
-      </c>
-      <c r="E4" s="15">
-        <v>83</v>
-      </c>
-      <c r="F4" s="23">
+      <c r="D4" s="35">
+        <v>8</v>
+      </c>
+      <c r="E4" s="39">
+        <v>83.125</v>
+      </c>
+      <c r="F4" s="39">
+        <v>70</v>
+      </c>
+      <c r="G4" s="23">
         <v>57</v>
       </c>
-      <c r="G4" s="33">
-        <f t="shared" ref="G4:G49" si="0">D4*0.1+E4*0.5+F4*0.4</f>
-        <v>72.3</v>
-      </c>
-      <c r="H4" s="14"/>
-    </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H4" s="33">
+        <f t="shared" ref="H4:H50" si="0">D4+E4*0.1+F4*0.4+G4*0.4</f>
+        <v>67.112499999999997</v>
+      </c>
+      <c r="I4" s="14"/>
+    </row>
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -9586,1124 +9822,1267 @@
       <c r="C5" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="36">
-        <v>100</v>
-      </c>
-      <c r="E5" s="15">
-        <v>74</v>
-      </c>
-      <c r="F5" s="23">
+      <c r="D5" s="35">
+        <v>7</v>
+      </c>
+      <c r="E5" s="39">
+        <v>74.375</v>
+      </c>
+      <c r="F5" s="39">
+        <v>80</v>
+      </c>
+      <c r="G5" s="23">
         <v>57</v>
       </c>
-      <c r="G5" s="33">
+      <c r="H5" s="33">
         <f t="shared" si="0"/>
-        <v>69.8</v>
-      </c>
-      <c r="H5" s="14"/>
-    </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>69.237499999999997</v>
+      </c>
+      <c r="I5" s="14"/>
+    </row>
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="36">
-        <v>100</v>
-      </c>
-      <c r="E6" s="15">
-        <v>21</v>
-      </c>
-      <c r="F6" s="23">
-        <v>53</v>
-      </c>
-      <c r="G6" s="33">
-        <f t="shared" si="0"/>
-        <v>41.7</v>
-      </c>
-      <c r="H6" s="14"/>
-    </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="21">
+        <v>3040193302</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="D6" s="35">
+        <v>12</v>
+      </c>
+      <c r="E6" s="39">
+        <v>88.75</v>
+      </c>
+      <c r="F6" s="39">
+        <v>90</v>
+      </c>
+      <c r="G6" s="30">
+        <v>64</v>
+      </c>
+      <c r="H6" s="33">
+        <f>D6+E6*0.1+F6*0.4+G6*0.4</f>
+        <v>82.474999999999994</v>
+      </c>
+      <c r="I6" s="22" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="36">
-        <v>100</v>
-      </c>
-      <c r="E7" s="15">
-        <v>89</v>
-      </c>
-      <c r="F7" s="15">
-        <v>87</v>
-      </c>
-      <c r="G7" s="33">
+        <v>22</v>
+      </c>
+      <c r="D7" s="35">
+        <v>8</v>
+      </c>
+      <c r="E7" s="39">
+        <v>62.5</v>
+      </c>
+      <c r="F7" s="39">
+        <v>65</v>
+      </c>
+      <c r="G7" s="23">
+        <v>53</v>
+      </c>
+      <c r="H7" s="33">
         <f t="shared" si="0"/>
-        <v>89.300000000000011</v>
-      </c>
-      <c r="H7" s="14"/>
-    </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>61.45</v>
+      </c>
+      <c r="I7" s="14"/>
+    </row>
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="36">
-        <v>100</v>
-      </c>
-      <c r="E8" s="15">
-        <v>71</v>
-      </c>
-      <c r="F8" s="15">
-        <v>79</v>
-      </c>
-      <c r="G8" s="33">
+        <v>24</v>
+      </c>
+      <c r="D8" s="35">
+        <v>11</v>
+      </c>
+      <c r="E8" s="39">
+        <v>88.75</v>
+      </c>
+      <c r="F8" s="39">
+        <v>85</v>
+      </c>
+      <c r="G8" s="15">
+        <v>87</v>
+      </c>
+      <c r="H8" s="33">
         <f t="shared" si="0"/>
-        <v>77.099999999999994</v>
-      </c>
-      <c r="H8" s="14"/>
-    </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>88.675000000000011</v>
+      </c>
+      <c r="I8" s="22" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="36">
-        <v>100</v>
-      </c>
-      <c r="E9" s="15">
-        <v>68</v>
-      </c>
-      <c r="F9" s="35">
-        <v>35</v>
-      </c>
-      <c r="G9" s="34">
+        <v>26</v>
+      </c>
+      <c r="D9" s="35">
+        <v>10</v>
+      </c>
+      <c r="E9" s="39">
+        <v>70.625</v>
+      </c>
+      <c r="F9" s="39">
+        <v>85</v>
+      </c>
+      <c r="G9" s="15">
+        <v>79</v>
+      </c>
+      <c r="H9" s="33">
         <f t="shared" si="0"/>
-        <v>58</v>
-      </c>
-      <c r="H9" s="14"/>
-    </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>82.662499999999994</v>
+      </c>
+      <c r="I9" s="14"/>
+    </row>
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="36">
-        <v>100</v>
-      </c>
-      <c r="E10" s="15">
-        <v>82</v>
-      </c>
-      <c r="F10" s="23">
-        <v>54</v>
-      </c>
-      <c r="G10" s="33">
+        <v>28</v>
+      </c>
+      <c r="D10" s="35">
+        <v>8</v>
+      </c>
+      <c r="E10" s="39">
+        <v>68.125</v>
+      </c>
+      <c r="F10" s="39">
+        <v>80</v>
+      </c>
+      <c r="G10" s="34">
+        <v>35</v>
+      </c>
+      <c r="H10" s="33">
         <f t="shared" si="0"/>
-        <v>72.599999999999994</v>
-      </c>
-      <c r="H10" s="14"/>
-    </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>60.8125</v>
+      </c>
+      <c r="I10" s="22" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="36">
-        <v>100</v>
-      </c>
-      <c r="E11" s="15">
-        <v>86</v>
-      </c>
-      <c r="F11" s="15">
-        <v>82</v>
-      </c>
-      <c r="G11" s="33">
+        <v>30</v>
+      </c>
+      <c r="D11" s="35">
+        <v>10</v>
+      </c>
+      <c r="E11" s="39">
+        <v>81.875</v>
+      </c>
+      <c r="F11" s="39">
+        <v>85</v>
+      </c>
+      <c r="G11" s="23">
+        <v>54</v>
+      </c>
+      <c r="H11" s="33">
         <f t="shared" si="0"/>
-        <v>85.800000000000011</v>
-      </c>
-      <c r="H11" s="14"/>
-    </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>73.787499999999994</v>
+      </c>
+      <c r="I11" s="14"/>
+    </row>
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="36">
-        <v>100</v>
-      </c>
-      <c r="E12" s="15">
-        <v>83</v>
-      </c>
-      <c r="F12" s="15">
-        <v>60</v>
-      </c>
-      <c r="G12" s="33">
+        <v>32</v>
+      </c>
+      <c r="D12" s="35">
+        <v>11</v>
+      </c>
+      <c r="E12" s="39">
+        <v>86.25</v>
+      </c>
+      <c r="F12" s="39">
+        <v>85</v>
+      </c>
+      <c r="G12" s="15">
+        <v>82</v>
+      </c>
+      <c r="H12" s="33">
         <f t="shared" si="0"/>
-        <v>75.5</v>
-      </c>
-      <c r="H12" s="14"/>
-    </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>86.425000000000011</v>
+      </c>
+      <c r="I12" s="22" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="35">
+        <v>7</v>
+      </c>
+      <c r="E13" s="39">
+        <v>82.5</v>
+      </c>
+      <c r="F13" s="39">
+        <v>75</v>
+      </c>
+      <c r="G13" s="15">
+        <v>60</v>
+      </c>
+      <c r="H13" s="33">
+        <f t="shared" si="0"/>
+        <v>69.25</v>
+      </c>
+      <c r="I13" s="14"/>
+    </row>
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C14" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="36">
-        <v>100</v>
-      </c>
-      <c r="E13" s="15">
-        <v>78</v>
-      </c>
-      <c r="F13" s="15">
+      <c r="D14" s="35">
+        <v>8</v>
+      </c>
+      <c r="E14" s="39">
+        <v>78.125</v>
+      </c>
+      <c r="F14" s="39">
+        <v>70</v>
+      </c>
+      <c r="G14" s="15">
         <v>63</v>
       </c>
-      <c r="G13" s="33">
+      <c r="H14" s="33">
         <f t="shared" si="0"/>
-        <v>74.2</v>
-      </c>
-      <c r="H13" s="14"/>
-    </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="36">
-        <v>80</v>
-      </c>
-      <c r="E14" s="15">
-        <v>74</v>
-      </c>
-      <c r="F14" s="15">
-        <v>67</v>
-      </c>
-      <c r="G14" s="33">
-        <f t="shared" si="0"/>
-        <v>71.8</v>
-      </c>
-      <c r="H14" s="14"/>
-    </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>69.012500000000003</v>
+      </c>
+      <c r="I14" s="14"/>
+    </row>
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="36">
-        <v>100</v>
-      </c>
-      <c r="E15" s="30">
-        <v>66</v>
-      </c>
-      <c r="F15" s="35">
-        <v>54</v>
-      </c>
-      <c r="G15" s="33">
+        <v>38</v>
+      </c>
+      <c r="D15" s="35">
+        <v>10</v>
+      </c>
+      <c r="E15" s="39">
+        <v>74.375</v>
+      </c>
+      <c r="F15" s="39">
+        <v>65</v>
+      </c>
+      <c r="G15" s="15">
+        <v>67</v>
+      </c>
+      <c r="H15" s="33">
         <f t="shared" si="0"/>
-        <v>64.599999999999994</v>
-      </c>
-      <c r="H15" s="22"/>
-    </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>70.237499999999997</v>
+      </c>
+      <c r="I15" s="14"/>
+    </row>
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="36">
-        <v>100</v>
-      </c>
-      <c r="E16" s="30">
-        <v>88</v>
-      </c>
-      <c r="F16" s="30">
-        <v>85</v>
-      </c>
-      <c r="G16" s="33">
+        <v>40</v>
+      </c>
+      <c r="D16" s="35">
+        <v>7</v>
+      </c>
+      <c r="E16" s="39">
+        <v>66.25</v>
+      </c>
+      <c r="F16" s="39">
+        <v>70</v>
+      </c>
+      <c r="G16" s="34">
+        <v>54</v>
+      </c>
+      <c r="H16" s="33">
         <f t="shared" si="0"/>
-        <v>88</v>
-      </c>
-      <c r="H16" s="22"/>
-    </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>63.225000000000001</v>
+      </c>
+      <c r="I16" s="22"/>
+    </row>
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="36">
-        <v>100</v>
-      </c>
-      <c r="E17" s="30">
-        <v>84</v>
-      </c>
-      <c r="F17" s="30">
-        <v>78</v>
-      </c>
-      <c r="G17" s="33">
+        <v>42</v>
+      </c>
+      <c r="D17" s="35">
+        <v>11</v>
+      </c>
+      <c r="E17" s="39">
+        <v>87.5</v>
+      </c>
+      <c r="F17" s="39">
+        <v>85</v>
+      </c>
+      <c r="G17" s="30">
+        <v>85</v>
+      </c>
+      <c r="H17" s="33">
         <f t="shared" si="0"/>
-        <v>83.2</v>
-      </c>
-      <c r="H17" s="22"/>
-    </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>87.75</v>
+      </c>
+      <c r="I17" s="22"/>
+    </row>
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" s="36">
-        <v>100</v>
-      </c>
-      <c r="E18" s="30">
-        <v>84</v>
-      </c>
-      <c r="F18" s="30">
-        <v>68</v>
-      </c>
-      <c r="G18" s="33">
+        <v>44</v>
+      </c>
+      <c r="D18" s="35">
+        <v>10</v>
+      </c>
+      <c r="E18" s="39">
+        <v>84.375</v>
+      </c>
+      <c r="F18" s="39">
+        <v>85</v>
+      </c>
+      <c r="G18" s="30">
+        <v>78</v>
+      </c>
+      <c r="H18" s="33">
         <f t="shared" si="0"/>
-        <v>79.2</v>
-      </c>
-      <c r="H18" s="22"/>
-    </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>83.637500000000003</v>
+      </c>
+      <c r="I18" s="22"/>
+    </row>
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="36">
-        <v>100</v>
-      </c>
-      <c r="E19" s="30">
-        <v>86</v>
-      </c>
-      <c r="F19" s="30">
-        <v>60</v>
-      </c>
-      <c r="G19" s="33">
+        <v>46</v>
+      </c>
+      <c r="D19" s="35">
+        <v>10</v>
+      </c>
+      <c r="E19" s="39">
+        <v>84.375</v>
+      </c>
+      <c r="F19" s="39">
+        <v>85</v>
+      </c>
+      <c r="G19" s="30">
+        <v>68</v>
+      </c>
+      <c r="H19" s="33">
         <f t="shared" si="0"/>
-        <v>77</v>
-      </c>
-      <c r="H19" s="22"/>
-    </row>
-    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>79.637500000000003</v>
+      </c>
+      <c r="I19" s="22"/>
+    </row>
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="D20" s="36">
-        <v>100</v>
-      </c>
-      <c r="E20" s="30">
-        <v>77</v>
-      </c>
-      <c r="F20" s="35">
-        <v>46</v>
-      </c>
-      <c r="G20" s="33">
+        <v>48</v>
+      </c>
+      <c r="D20" s="35">
+        <v>10</v>
+      </c>
+      <c r="E20" s="39">
+        <v>85.625</v>
+      </c>
+      <c r="F20" s="39">
+        <v>85</v>
+      </c>
+      <c r="G20" s="30">
+        <v>60</v>
+      </c>
+      <c r="H20" s="33">
         <f t="shared" si="0"/>
-        <v>66.900000000000006</v>
-      </c>
-      <c r="H20" s="22"/>
-    </row>
-    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>76.5625</v>
+      </c>
+      <c r="I20" s="22"/>
+    </row>
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="D21" s="36">
-        <v>100</v>
-      </c>
-      <c r="E21" s="30">
-        <v>74</v>
-      </c>
-      <c r="F21" s="30">
-        <v>82</v>
-      </c>
-      <c r="G21" s="33">
+        <v>50</v>
+      </c>
+      <c r="D21" s="35">
+        <v>10</v>
+      </c>
+      <c r="E21" s="39">
+        <v>76.875</v>
+      </c>
+      <c r="F21" s="39">
+        <v>85</v>
+      </c>
+      <c r="G21" s="34">
+        <v>46</v>
+      </c>
+      <c r="H21" s="33">
         <f t="shared" si="0"/>
-        <v>79.800000000000011</v>
-      </c>
-      <c r="H21" s="22"/>
-    </row>
-    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>70.087500000000006</v>
+      </c>
+      <c r="I21" s="22"/>
+    </row>
+    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="D22" s="36">
-        <v>100</v>
-      </c>
-      <c r="E22" s="30">
-        <v>84</v>
-      </c>
-      <c r="F22" s="35">
-        <v>56</v>
-      </c>
-      <c r="G22" s="33">
+        <v>52</v>
+      </c>
+      <c r="D22" s="35">
+        <v>10</v>
+      </c>
+      <c r="E22" s="39">
+        <v>73.75</v>
+      </c>
+      <c r="F22" s="39">
+        <v>85</v>
+      </c>
+      <c r="G22" s="30">
+        <v>82</v>
+      </c>
+      <c r="H22" s="33">
         <f t="shared" si="0"/>
-        <v>74.400000000000006</v>
-      </c>
-      <c r="H22" s="22"/>
-    </row>
-    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>84.175000000000011</v>
+      </c>
+      <c r="I22" s="22"/>
+    </row>
+    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C23" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" s="35">
+        <v>10</v>
+      </c>
+      <c r="E23" s="39">
+        <v>83.75</v>
+      </c>
+      <c r="F23" s="39">
+        <v>85</v>
+      </c>
+      <c r="G23" s="34">
         <v>56</v>
       </c>
-      <c r="D23" s="36">
-        <v>100</v>
-      </c>
-      <c r="E23" s="30">
-        <v>61</v>
-      </c>
-      <c r="F23" s="30">
-        <v>62</v>
-      </c>
-      <c r="G23" s="33">
+      <c r="H23" s="33">
         <f t="shared" si="0"/>
-        <v>65.3</v>
-      </c>
-      <c r="H23" s="22"/>
-    </row>
-    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>74.775000000000006</v>
+      </c>
+      <c r="I23" s="22"/>
+    </row>
+    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="D24" s="36">
-        <v>100</v>
-      </c>
-      <c r="E24" s="30">
-        <v>88</v>
-      </c>
-      <c r="F24" s="30">
-        <v>78</v>
-      </c>
-      <c r="G24" s="33">
+        <v>56</v>
+      </c>
+      <c r="D24" s="35">
+        <v>10</v>
+      </c>
+      <c r="E24" s="39">
+        <v>60.625</v>
+      </c>
+      <c r="F24" s="39">
+        <v>70</v>
+      </c>
+      <c r="G24" s="30">
+        <v>62</v>
+      </c>
+      <c r="H24" s="33">
         <f t="shared" si="0"/>
-        <v>85.2</v>
-      </c>
-      <c r="H24" s="22"/>
-    </row>
-    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>68.862499999999997</v>
+      </c>
+      <c r="I24" s="22"/>
+    </row>
+    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="D25" s="36">
-        <v>100</v>
-      </c>
-      <c r="E25" s="30">
-        <v>73</v>
-      </c>
-      <c r="F25" s="30">
-        <v>69</v>
-      </c>
-      <c r="G25" s="33">
+        <v>58</v>
+      </c>
+      <c r="D25" s="35">
+        <v>11</v>
+      </c>
+      <c r="E25" s="39">
+        <v>88.125</v>
+      </c>
+      <c r="F25" s="39">
+        <v>85</v>
+      </c>
+      <c r="G25" s="30">
+        <v>78</v>
+      </c>
+      <c r="H25" s="33">
         <f t="shared" si="0"/>
-        <v>74.099999999999994</v>
-      </c>
-      <c r="H25" s="22"/>
-    </row>
-    <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>85.012500000000003</v>
+      </c>
+      <c r="I25" s="22"/>
+    </row>
+    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="D26" s="36">
-        <v>100</v>
-      </c>
-      <c r="E26" s="30">
-        <v>79</v>
-      </c>
-      <c r="F26" s="30">
-        <v>85</v>
-      </c>
-      <c r="G26" s="33">
+        <v>60</v>
+      </c>
+      <c r="D26" s="35">
+        <v>10</v>
+      </c>
+      <c r="E26" s="39">
+        <v>73.125</v>
+      </c>
+      <c r="F26" s="39">
+        <v>72.5</v>
+      </c>
+      <c r="G26" s="30">
+        <v>69</v>
+      </c>
+      <c r="H26" s="33">
         <f t="shared" si="0"/>
-        <v>83.5</v>
-      </c>
-      <c r="H26" s="22"/>
-    </row>
-    <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>73.912499999999994</v>
+      </c>
+      <c r="I26" s="22"/>
+    </row>
+    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="D27" s="36">
-        <v>100</v>
-      </c>
-      <c r="E27" s="30">
-        <v>86</v>
-      </c>
-      <c r="F27" s="30">
-        <v>72</v>
-      </c>
-      <c r="G27" s="33">
+        <v>62</v>
+      </c>
+      <c r="D27" s="35">
+        <v>10</v>
+      </c>
+      <c r="E27" s="39">
+        <v>78.75</v>
+      </c>
+      <c r="F27" s="39">
+        <v>85</v>
+      </c>
+      <c r="G27" s="30">
+        <v>85</v>
+      </c>
+      <c r="H27" s="33">
         <f t="shared" si="0"/>
-        <v>81.8</v>
-      </c>
-      <c r="H27" s="22"/>
-    </row>
-    <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>85.875</v>
+      </c>
+      <c r="I27" s="22"/>
+    </row>
+    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="D28" s="36">
-        <v>100</v>
-      </c>
-      <c r="E28" s="30">
-        <v>86</v>
-      </c>
-      <c r="F28" s="35">
-        <v>48</v>
-      </c>
-      <c r="G28" s="33">
+        <v>64</v>
+      </c>
+      <c r="D28" s="35">
+        <v>11</v>
+      </c>
+      <c r="E28" s="39">
+        <v>85.625</v>
+      </c>
+      <c r="F28" s="39">
+        <v>85</v>
+      </c>
+      <c r="G28" s="30">
+        <v>72</v>
+      </c>
+      <c r="H28" s="33">
         <f t="shared" si="0"/>
-        <v>72.2</v>
-      </c>
-      <c r="H28" s="22"/>
-    </row>
-    <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>82.362499999999997</v>
+      </c>
+      <c r="I28" s="22"/>
+    </row>
+    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="D29" s="36">
-        <v>100</v>
-      </c>
-      <c r="E29" s="30">
-        <v>69</v>
-      </c>
-      <c r="F29" s="30">
-        <v>74</v>
-      </c>
-      <c r="G29" s="33">
+        <v>66</v>
+      </c>
+      <c r="D29" s="35">
+        <v>8</v>
+      </c>
+      <c r="E29" s="39">
+        <v>85.625</v>
+      </c>
+      <c r="F29" s="39">
+        <v>90</v>
+      </c>
+      <c r="G29" s="34">
+        <v>48</v>
+      </c>
+      <c r="H29" s="33">
         <f t="shared" si="0"/>
-        <v>74.099999999999994</v>
-      </c>
-      <c r="H29" s="22"/>
-    </row>
-    <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>71.762500000000003</v>
+      </c>
+      <c r="I29" s="22"/>
+    </row>
+    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C30" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" s="35">
+        <v>10</v>
+      </c>
+      <c r="E30" s="39">
+        <v>69.375</v>
+      </c>
+      <c r="F30" s="39">
         <v>70</v>
       </c>
-      <c r="D30" s="36">
-        <v>100</v>
-      </c>
-      <c r="E30" s="30">
-        <v>91</v>
-      </c>
-      <c r="F30" s="30">
-        <v>92</v>
-      </c>
-      <c r="G30" s="33">
+      <c r="G30" s="30">
+        <v>74</v>
+      </c>
+      <c r="H30" s="33">
         <f t="shared" si="0"/>
-        <v>92.300000000000011</v>
-      </c>
-      <c r="H30" s="22"/>
-    </row>
-    <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>74.537499999999994</v>
+      </c>
+      <c r="I30" s="22"/>
+    </row>
+    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="D31" s="36">
-        <v>100</v>
-      </c>
-      <c r="E31" s="30">
-        <v>87</v>
-      </c>
-      <c r="F31" s="30">
-        <v>77</v>
-      </c>
-      <c r="G31" s="33">
+        <v>70</v>
+      </c>
+      <c r="D31" s="35">
+        <v>11</v>
+      </c>
+      <c r="E31" s="39">
+        <v>90.625</v>
+      </c>
+      <c r="F31" s="39">
+        <v>85</v>
+      </c>
+      <c r="G31" s="30">
+        <v>92</v>
+      </c>
+      <c r="H31" s="33">
         <f t="shared" si="0"/>
-        <v>84.3</v>
-      </c>
-      <c r="H31" s="22"/>
-    </row>
-    <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>90.862500000000011</v>
+      </c>
+      <c r="I31" s="22"/>
+    </row>
+    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="D32" s="36">
-        <v>100</v>
-      </c>
-      <c r="E32" s="30">
-        <v>82</v>
-      </c>
-      <c r="F32" s="35">
-        <v>55</v>
-      </c>
-      <c r="G32" s="33">
+        <v>72</v>
+      </c>
+      <c r="D32" s="35">
+        <v>11</v>
+      </c>
+      <c r="E32" s="39">
+        <v>86.875</v>
+      </c>
+      <c r="F32" s="39">
+        <v>85</v>
+      </c>
+      <c r="G32" s="30">
+        <v>77</v>
+      </c>
+      <c r="H32" s="33">
         <f t="shared" si="0"/>
-        <v>73</v>
-      </c>
-      <c r="H32" s="22"/>
-    </row>
-    <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>84.487499999999997</v>
+      </c>
+      <c r="I32" s="22"/>
+    </row>
+    <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="D33" s="36">
-        <v>100</v>
-      </c>
-      <c r="E33" s="30">
-        <v>44</v>
-      </c>
-      <c r="F33" s="30">
-        <v>76</v>
-      </c>
-      <c r="G33" s="33">
+        <v>74</v>
+      </c>
+      <c r="D33" s="35">
+        <v>8</v>
+      </c>
+      <c r="E33" s="39">
+        <v>81.875</v>
+      </c>
+      <c r="F33" s="39">
+        <v>80</v>
+      </c>
+      <c r="G33" s="34">
+        <v>55</v>
+      </c>
+      <c r="H33" s="33">
         <f t="shared" si="0"/>
-        <v>62.400000000000006</v>
-      </c>
-      <c r="H33" s="22"/>
-    </row>
-    <row r="34" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>70.1875</v>
+      </c>
+      <c r="I33" s="22"/>
+    </row>
+    <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" s="21" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="D34" s="36">
-        <v>100</v>
-      </c>
-      <c r="E34" s="30">
-        <v>84</v>
-      </c>
-      <c r="F34" s="30">
-        <v>69</v>
-      </c>
-      <c r="G34" s="33">
+        <v>76</v>
+      </c>
+      <c r="D34" s="35">
+        <v>8</v>
+      </c>
+      <c r="E34" s="39">
+        <v>43.75</v>
+      </c>
+      <c r="F34" s="39">
+        <v>70</v>
+      </c>
+      <c r="G34" s="30">
+        <v>76</v>
+      </c>
+      <c r="H34" s="33">
         <f t="shared" si="0"/>
-        <v>79.599999999999994</v>
-      </c>
-      <c r="H34" s="22"/>
-    </row>
-    <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>70.775000000000006</v>
+      </c>
+      <c r="I34" s="22"/>
+    </row>
+    <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C35" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="D35" s="35">
+        <v>8</v>
+      </c>
+      <c r="E35" s="39">
+        <v>84.375</v>
+      </c>
+      <c r="F35" s="39">
         <v>80</v>
       </c>
-      <c r="D35" s="36">
-        <v>100</v>
-      </c>
-      <c r="E35" s="30">
-        <v>74</v>
-      </c>
-      <c r="F35" s="35">
-        <v>57</v>
-      </c>
-      <c r="G35" s="33">
+      <c r="G35" s="30">
+        <v>69</v>
+      </c>
+      <c r="H35" s="33">
         <f t="shared" si="0"/>
-        <v>69.8</v>
-      </c>
-      <c r="H35" s="22"/>
-    </row>
-    <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>76.037499999999994</v>
+      </c>
+      <c r="I35" s="22"/>
+    </row>
+    <row r="36" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" s="21" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="D36" s="36">
-        <v>100</v>
-      </c>
-      <c r="E36" s="30">
-        <v>78</v>
-      </c>
-      <c r="F36" s="30">
-        <v>61</v>
-      </c>
-      <c r="G36" s="33">
+        <v>80</v>
+      </c>
+      <c r="D36" s="35">
+        <v>10</v>
+      </c>
+      <c r="E36" s="39">
+        <v>73.75</v>
+      </c>
+      <c r="F36" s="39">
+        <v>75</v>
+      </c>
+      <c r="G36" s="34">
+        <v>57</v>
+      </c>
+      <c r="H36" s="33">
         <f t="shared" si="0"/>
-        <v>73.400000000000006</v>
-      </c>
-      <c r="H36" s="22"/>
-    </row>
-    <row r="37" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>70.174999999999997</v>
+      </c>
+      <c r="I36" s="22"/>
+    </row>
+    <row r="37" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" s="21" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="D37" s="36">
-        <v>100</v>
-      </c>
-      <c r="E37" s="30">
-        <v>78</v>
-      </c>
-      <c r="F37" s="30">
-        <v>64</v>
-      </c>
-      <c r="G37" s="33">
+        <v>82</v>
+      </c>
+      <c r="D37" s="35">
+        <v>10</v>
+      </c>
+      <c r="E37" s="39">
+        <v>78.125</v>
+      </c>
+      <c r="F37" s="39">
+        <v>75</v>
+      </c>
+      <c r="G37" s="30">
+        <v>61</v>
+      </c>
+      <c r="H37" s="33">
         <f t="shared" si="0"/>
-        <v>74.599999999999994</v>
-      </c>
-      <c r="H37" s="22"/>
-    </row>
-    <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>72.212500000000006</v>
+      </c>
+      <c r="I37" s="22"/>
+    </row>
+    <row r="38" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" s="21" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C38" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="D38" s="36">
-        <v>100</v>
-      </c>
-      <c r="E38" s="30">
         <v>84</v>
       </c>
-      <c r="F38" s="35">
-        <v>59</v>
-      </c>
-      <c r="G38" s="33">
+      <c r="D38" s="35">
+        <v>8</v>
+      </c>
+      <c r="E38" s="39">
+        <v>78.125</v>
+      </c>
+      <c r="F38" s="39">
+        <v>80</v>
+      </c>
+      <c r="G38" s="30">
+        <v>64</v>
+      </c>
+      <c r="H38" s="33">
         <f t="shared" si="0"/>
-        <v>75.599999999999994</v>
-      </c>
-      <c r="H38" s="22"/>
-    </row>
-    <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>73.412499999999994</v>
+      </c>
+      <c r="I38" s="22"/>
+    </row>
+    <row r="39" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" s="21" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C39" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="D39" s="36">
-        <v>80</v>
-      </c>
-      <c r="E39" s="30">
-        <v>72</v>
-      </c>
-      <c r="F39" s="30">
-        <v>73</v>
-      </c>
-      <c r="G39" s="33">
+        <v>86</v>
+      </c>
+      <c r="D39" s="35">
+        <v>10</v>
+      </c>
+      <c r="E39" s="39">
+        <v>84.375</v>
+      </c>
+      <c r="F39" s="39">
+        <v>85</v>
+      </c>
+      <c r="G39" s="34">
+        <v>59</v>
+      </c>
+      <c r="H39" s="33">
         <f t="shared" si="0"/>
-        <v>73.2</v>
-      </c>
-      <c r="H39" s="22"/>
-    </row>
-    <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>76.037499999999994</v>
+      </c>
+      <c r="I39" s="22"/>
+    </row>
+    <row r="40" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" s="21" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C40" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="D40" s="36">
-        <v>100</v>
-      </c>
-      <c r="E40" s="30">
-        <v>83</v>
-      </c>
-      <c r="F40" s="30">
+        <v>88</v>
+      </c>
+      <c r="D40" s="35">
+        <v>8</v>
+      </c>
+      <c r="E40" s="39">
+        <v>71.875</v>
+      </c>
+      <c r="F40" s="39">
+        <v>70</v>
+      </c>
+      <c r="G40" s="30">
         <v>73</v>
       </c>
-      <c r="G40" s="33">
+      <c r="H40" s="33">
         <f t="shared" si="0"/>
-        <v>80.7</v>
-      </c>
-      <c r="H40" s="22"/>
-    </row>
-    <row r="41" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>72.387500000000003</v>
+      </c>
+      <c r="I40" s="22"/>
+    </row>
+    <row r="41" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" s="21" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C41" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="D41" s="36">
-        <v>80</v>
-      </c>
-      <c r="E41" s="30">
-        <v>50</v>
-      </c>
-      <c r="F41" s="30">
-        <v>64</v>
-      </c>
-      <c r="G41" s="34">
+        <v>90</v>
+      </c>
+      <c r="D41" s="35">
+        <v>11</v>
+      </c>
+      <c r="E41" s="39">
+        <v>82.5</v>
+      </c>
+      <c r="F41" s="39">
+        <v>85</v>
+      </c>
+      <c r="G41" s="30">
+        <v>73</v>
+      </c>
+      <c r="H41" s="33">
         <f t="shared" si="0"/>
-        <v>58.6</v>
-      </c>
-      <c r="H41" s="22"/>
-    </row>
-    <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>82.45</v>
+      </c>
+      <c r="I41" s="22"/>
+    </row>
+    <row r="42" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" s="21" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C42" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="D42" s="36">
-        <v>100</v>
-      </c>
-      <c r="E42" s="30">
-        <v>83</v>
-      </c>
-      <c r="F42" s="35">
-        <v>51</v>
-      </c>
-      <c r="G42" s="33">
+        <v>92</v>
+      </c>
+      <c r="D42" s="35">
+        <v>7</v>
+      </c>
+      <c r="E42" s="39">
+        <v>72.5</v>
+      </c>
+      <c r="F42" s="39">
+        <v>70</v>
+      </c>
+      <c r="G42" s="30">
+        <v>64</v>
+      </c>
+      <c r="H42" s="33">
         <f t="shared" si="0"/>
-        <v>71.900000000000006</v>
-      </c>
-      <c r="H42" s="22"/>
-    </row>
-    <row r="43" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>67.849999999999994</v>
+      </c>
+      <c r="I42" s="22"/>
+    </row>
+    <row r="43" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C43" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="D43" s="36">
-        <v>100</v>
-      </c>
-      <c r="E43" s="30">
-        <v>87</v>
-      </c>
-      <c r="F43" s="30">
-        <v>71</v>
-      </c>
-      <c r="G43" s="33">
+        <v>94</v>
+      </c>
+      <c r="D43" s="35">
+        <v>10</v>
+      </c>
+      <c r="E43" s="39">
+        <v>83.125</v>
+      </c>
+      <c r="F43" s="39">
+        <v>75</v>
+      </c>
+      <c r="G43" s="34">
+        <v>51</v>
+      </c>
+      <c r="H43" s="33">
         <f t="shared" si="0"/>
-        <v>81.900000000000006</v>
-      </c>
-      <c r="H43" s="22"/>
-    </row>
-    <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>68.712500000000006</v>
+      </c>
+      <c r="I43" s="22"/>
+    </row>
+    <row r="44" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" s="21" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C44" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="D44" s="36">
-        <v>100</v>
-      </c>
-      <c r="E44" s="30">
-        <v>84</v>
-      </c>
-      <c r="F44" s="30">
-        <v>63</v>
-      </c>
-      <c r="G44" s="33">
+        <v>96</v>
+      </c>
+      <c r="D44" s="35">
+        <v>11</v>
+      </c>
+      <c r="E44" s="39">
+        <v>86.875</v>
+      </c>
+      <c r="F44" s="39">
+        <v>85</v>
+      </c>
+      <c r="G44" s="30">
+        <v>71</v>
+      </c>
+      <c r="H44" s="33">
         <f t="shared" si="0"/>
-        <v>77.2</v>
-      </c>
-      <c r="H44" s="22"/>
-    </row>
-    <row r="45" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>82.087500000000006</v>
+      </c>
+      <c r="I44" s="22"/>
+    </row>
+    <row r="45" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" s="21" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C45" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="D45" s="36">
-        <v>100</v>
-      </c>
-      <c r="E45" s="30">
-        <v>80</v>
-      </c>
-      <c r="F45" s="30">
-        <v>61</v>
-      </c>
-      <c r="G45" s="33">
+        <v>98</v>
+      </c>
+      <c r="D45" s="35">
+        <v>10</v>
+      </c>
+      <c r="E45" s="39">
+        <v>84.375</v>
+      </c>
+      <c r="F45" s="39">
+        <v>85</v>
+      </c>
+      <c r="G45" s="30">
+        <v>63</v>
+      </c>
+      <c r="H45" s="33">
         <f t="shared" si="0"/>
-        <v>74.400000000000006</v>
-      </c>
-      <c r="H45" s="22"/>
-    </row>
-    <row r="46" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>77.637500000000003</v>
+      </c>
+      <c r="I45" s="22"/>
+    </row>
+    <row r="46" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" s="21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C46" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="D46" s="36">
         <v>100</v>
       </c>
-      <c r="E46" s="30">
-        <v>84</v>
-      </c>
-      <c r="F46" s="30">
-        <v>78</v>
-      </c>
-      <c r="G46" s="33">
+      <c r="D46" s="35">
+        <v>10</v>
+      </c>
+      <c r="E46" s="39">
+        <v>80</v>
+      </c>
+      <c r="F46" s="39">
+        <v>90</v>
+      </c>
+      <c r="G46" s="30">
+        <v>61</v>
+      </c>
+      <c r="H46" s="33">
         <f t="shared" si="0"/>
-        <v>83.2</v>
-      </c>
-      <c r="H46" s="22"/>
-    </row>
-    <row r="47" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>78.400000000000006</v>
+      </c>
+      <c r="I46" s="22"/>
+    </row>
+    <row r="47" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" s="21" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C47" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="D47" s="36">
-        <v>100</v>
-      </c>
-      <c r="E47" s="30">
-        <v>80</v>
-      </c>
-      <c r="F47" s="30">
-        <v>70</v>
-      </c>
-      <c r="G47" s="33">
+        <v>102</v>
+      </c>
+      <c r="D47" s="35">
+        <v>10</v>
+      </c>
+      <c r="E47" s="39">
+        <v>83.75</v>
+      </c>
+      <c r="F47" s="39">
+        <v>75</v>
+      </c>
+      <c r="G47" s="30">
+        <v>78</v>
+      </c>
+      <c r="H47" s="33">
         <f t="shared" si="0"/>
-        <v>78</v>
-      </c>
-      <c r="H47" s="22"/>
-    </row>
-    <row r="48" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>79.575000000000003</v>
+      </c>
+      <c r="I47" s="22"/>
+    </row>
+    <row r="48" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" s="21" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C48" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="D48" s="36">
-        <v>100</v>
-      </c>
-      <c r="E48" s="30">
-        <v>79</v>
-      </c>
-      <c r="F48" s="35">
-        <v>46</v>
-      </c>
-      <c r="G48" s="33">
+        <v>104</v>
+      </c>
+      <c r="D48" s="35">
+        <v>8</v>
+      </c>
+      <c r="E48" s="39">
+        <v>80</v>
+      </c>
+      <c r="F48" s="39">
+        <v>80</v>
+      </c>
+      <c r="G48" s="30">
+        <v>70</v>
+      </c>
+      <c r="H48" s="33">
         <f t="shared" si="0"/>
-        <v>67.900000000000006</v>
-      </c>
-      <c r="H48" s="22"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
+        <v>76</v>
+      </c>
+      <c r="I48" s="22"/>
+    </row>
+    <row r="49" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="B49" s="21">
-        <v>3040193302</v>
-      </c>
-      <c r="C49" s="24" t="s">
-        <v>160</v>
-      </c>
-      <c r="D49" s="36">
-        <v>100</v>
-      </c>
-      <c r="E49" s="30">
-        <v>89</v>
-      </c>
-      <c r="F49" s="30">
-        <v>64</v>
-      </c>
-      <c r="G49" s="33">
+      <c r="B49" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="C49" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="D49" s="35">
+        <v>10</v>
+      </c>
+      <c r="E49" s="39">
+        <v>78.75</v>
+      </c>
+      <c r="F49" s="39">
+        <v>85</v>
+      </c>
+      <c r="G49" s="34">
+        <v>46</v>
+      </c>
+      <c r="H49" s="33">
         <f t="shared" si="0"/>
-        <v>80.099999999999994</v>
-      </c>
-      <c r="H49" s="22"/>
+        <v>70.275000000000006</v>
+      </c>
+      <c r="I49" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A1:I1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10712,15 +11091,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010033F188CDD829674AAD05B93C069E2813" ma:contentTypeVersion="25" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="12f87a5caa000e69b2f4c8c0b3e42f66">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="773ac416-4a36-402f-a3b6-d25dea329997" xmlns:ns4="63d2042b-7b91-46d4-baa3-a67d3669a720" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f06fb7f16fd173aa8b0bb68049ad5879" ns3:_="" ns4:_="">
     <xsd:import namespace="773ac416-4a36-402f-a3b6-d25dea329997"/>
@@ -11079,6 +11449,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -11131,14 +11510,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1AFF0ECA-8F3D-4871-93DE-8F766A9E7256}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6741670B-461B-4661-A53C-BD46BBECF45E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11153,6 +11524,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1AFF0ECA-8F3D-4871-93DE-8F766A9E7256}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/2022-2023-2 嵌入式原理及应用B  Course Arrangement 成绩评定表 物联网32131.xlsx
+++ b/2022-2023-2 嵌入式原理及应用B  Course Arrangement 成绩评定表 物联网32131.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo-InterOffice\Documents\GitHub\Qt-Embedded-System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DAC0FAB-1E93-4407-939A-84AC6C12B47E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0250B16F-2FA6-49F6-AD90-29C81A196BFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="4" xr2:uid="{56D46586-203F-4DA5-8833-0738A3BCF6C0}"/>
   </bookViews>
@@ -1070,6 +1070,7 @@
     <font>
       <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1354,25 +1355,25 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1705,13 +1706,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="40.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="39" t="s">
         <v>155</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
     </row>
     <row r="2" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
@@ -2452,43 +2453,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="28.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="40" t="s">
         <v>175</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="39"/>
-      <c r="S1" s="39"/>
-      <c r="T1" s="39"/>
-      <c r="U1" s="39"/>
-      <c r="V1" s="39"/>
-      <c r="W1" s="39"/>
-      <c r="X1" s="39"/>
-      <c r="Y1" s="39"/>
-      <c r="Z1" s="39"/>
-      <c r="AA1" s="39"/>
-      <c r="AB1" s="39"/>
-      <c r="AC1" s="39"/>
-      <c r="AD1" s="39"/>
-      <c r="AE1" s="39"/>
-      <c r="AF1" s="39"/>
-      <c r="AG1" s="39"/>
-      <c r="AH1" s="39"/>
-      <c r="AI1" s="39"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="40"/>
+      <c r="U1" s="40"/>
+      <c r="V1" s="40"/>
+      <c r="W1" s="40"/>
+      <c r="X1" s="40"/>
+      <c r="Y1" s="40"/>
+      <c r="Z1" s="40"/>
+      <c r="AA1" s="40"/>
+      <c r="AB1" s="40"/>
+      <c r="AC1" s="40"/>
+      <c r="AD1" s="40"/>
+      <c r="AE1" s="40"/>
+      <c r="AF1" s="40"/>
+      <c r="AG1" s="40"/>
+      <c r="AH1" s="40"/>
+      <c r="AI1" s="40"/>
     </row>
     <row r="2" spans="1:35" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
@@ -7656,12 +7657,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="41" t="s">
         <v>177</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
     </row>
     <row r="2" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -7819,20 +7820,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="42" t="s">
         <v>186</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
     </row>
     <row r="2" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -9766,8 +9767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA79610A-E7A5-424E-B8A8-4419EA79CF39}">
   <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9801,7 +9802,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="44">
+      <c r="A3" s="38">
         <v>1</v>
       </c>
       <c r="B3" s="21" t="s">
@@ -9815,7 +9816,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="44">
+      <c r="A4" s="38">
         <v>2</v>
       </c>
       <c r="B4" s="21" t="s">
@@ -9829,7 +9830,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="44">
+      <c r="A5" s="38">
         <v>3</v>
       </c>
       <c r="B5" s="21" t="s">
@@ -9843,7 +9844,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="44">
+      <c r="A6" s="38">
         <v>4</v>
       </c>
       <c r="B6" s="21">
@@ -9857,7 +9858,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="44">
+      <c r="A7" s="38">
         <v>5</v>
       </c>
       <c r="B7" s="21" t="s">
@@ -9871,7 +9872,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="44">
+      <c r="A8" s="38">
         <v>6</v>
       </c>
       <c r="B8" s="21" t="s">
@@ -9885,7 +9886,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="44">
+      <c r="A9" s="38">
         <v>7</v>
       </c>
       <c r="B9" s="21" t="s">
@@ -9899,7 +9900,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="44">
+      <c r="A10" s="38">
         <v>8</v>
       </c>
       <c r="B10" s="21" t="s">
@@ -9913,7 +9914,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="44">
+      <c r="A11" s="38">
         <v>9</v>
       </c>
       <c r="B11" s="21" t="s">
@@ -9927,7 +9928,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="44">
+      <c r="A12" s="38">
         <v>10</v>
       </c>
       <c r="B12" s="21" t="s">
@@ -9941,7 +9942,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="44">
+      <c r="A13" s="38">
         <v>11</v>
       </c>
       <c r="B13" s="21" t="s">
@@ -9955,7 +9956,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="44">
+      <c r="A14" s="38">
         <v>12</v>
       </c>
       <c r="B14" s="21" t="s">
@@ -9969,7 +9970,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="44">
+      <c r="A15" s="38">
         <v>13</v>
       </c>
       <c r="B15" s="21" t="s">
@@ -9983,7 +9984,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="44">
+      <c r="A16" s="38">
         <v>14</v>
       </c>
       <c r="B16" s="21" t="s">
@@ -9997,7 +9998,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="44">
+      <c r="A17" s="38">
         <v>15</v>
       </c>
       <c r="B17" s="21" t="s">
@@ -10011,7 +10012,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="44">
+      <c r="A18" s="38">
         <v>16</v>
       </c>
       <c r="B18" s="21" t="s">
@@ -10025,7 +10026,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="44">
+      <c r="A19" s="38">
         <v>17</v>
       </c>
       <c r="B19" s="21" t="s">
@@ -10039,7 +10040,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="44">
+      <c r="A20" s="38">
         <v>18</v>
       </c>
       <c r="B20" s="21" t="s">
@@ -10053,7 +10054,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="44">
+      <c r="A21" s="38">
         <v>19</v>
       </c>
       <c r="B21" s="21" t="s">
@@ -10067,7 +10068,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="44">
+      <c r="A22" s="38">
         <v>20</v>
       </c>
       <c r="B22" s="21" t="s">
@@ -10081,7 +10082,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="44">
+      <c r="A23" s="38">
         <v>21</v>
       </c>
       <c r="B23" s="21" t="s">
@@ -10095,7 +10096,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="44">
+      <c r="A24" s="38">
         <v>22</v>
       </c>
       <c r="B24" s="21" t="s">
@@ -10109,7 +10110,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="44">
+      <c r="A25" s="38">
         <v>23</v>
       </c>
       <c r="B25" s="21" t="s">
@@ -10123,7 +10124,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="44">
+      <c r="A26" s="38">
         <v>24</v>
       </c>
       <c r="B26" s="21" t="s">
@@ -10137,7 +10138,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="44">
+      <c r="A27" s="38">
         <v>25</v>
       </c>
       <c r="B27" s="21" t="s">
@@ -10151,7 +10152,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="44">
+      <c r="A28" s="38">
         <v>26</v>
       </c>
       <c r="B28" s="21" t="s">
@@ -10165,7 +10166,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="44">
+      <c r="A29" s="38">
         <v>27</v>
       </c>
       <c r="B29" s="21" t="s">
@@ -10179,7 +10180,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="44">
+      <c r="A30" s="38">
         <v>28</v>
       </c>
       <c r="B30" s="21" t="s">
@@ -10193,7 +10194,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="44">
+      <c r="A31" s="38">
         <v>29</v>
       </c>
       <c r="B31" s="21" t="s">
@@ -10207,7 +10208,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="44">
+      <c r="A32" s="38">
         <v>30</v>
       </c>
       <c r="B32" s="21" t="s">
@@ -10221,7 +10222,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="44">
+      <c r="A33" s="38">
         <v>31</v>
       </c>
       <c r="B33" s="21" t="s">
@@ -10235,7 +10236,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="44">
+      <c r="A34" s="38">
         <v>32</v>
       </c>
       <c r="B34" s="21" t="s">
@@ -10249,7 +10250,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="44">
+      <c r="A35" s="38">
         <v>33</v>
       </c>
       <c r="B35" s="21" t="s">
@@ -10263,7 +10264,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="44">
+      <c r="A36" s="38">
         <v>34</v>
       </c>
       <c r="B36" s="21" t="s">
@@ -10277,7 +10278,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="44">
+      <c r="A37" s="38">
         <v>35</v>
       </c>
       <c r="B37" s="21" t="s">
@@ -10291,7 +10292,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="44">
+      <c r="A38" s="38">
         <v>36</v>
       </c>
       <c r="B38" s="21" t="s">
@@ -10305,7 +10306,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="44">
+      <c r="A39" s="38">
         <v>37</v>
       </c>
       <c r="B39" s="21" t="s">
@@ -10319,7 +10320,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="44">
+      <c r="A40" s="38">
         <v>38</v>
       </c>
       <c r="B40" s="21" t="s">
@@ -10333,7 +10334,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="44">
+      <c r="A41" s="38">
         <v>39</v>
       </c>
       <c r="B41" s="21" t="s">
@@ -10347,7 +10348,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="44">
+      <c r="A42" s="38">
         <v>40</v>
       </c>
       <c r="B42" s="21" t="s">
@@ -10361,7 +10362,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="44">
+      <c r="A43" s="38">
         <v>41</v>
       </c>
       <c r="B43" s="21" t="s">
@@ -10375,7 +10376,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="44">
+      <c r="A44" s="38">
         <v>42</v>
       </c>
       <c r="B44" s="21" t="s">
@@ -10389,7 +10390,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="44">
+      <c r="A45" s="38">
         <v>43</v>
       </c>
       <c r="B45" s="21" t="s">
@@ -10403,7 +10404,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="44">
+      <c r="A46" s="38">
         <v>44</v>
       </c>
       <c r="B46" s="21" t="s">
@@ -10417,7 +10418,7 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="44">
+      <c r="A47" s="38">
         <v>45</v>
       </c>
       <c r="B47" s="21" t="s">
@@ -10431,7 +10432,7 @@
       </c>
     </row>
     <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="44">
+      <c r="A48" s="38">
         <v>46</v>
       </c>
       <c r="B48" s="21" t="s">
@@ -10445,7 +10446,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="44">
+      <c r="A49" s="38">
         <v>47</v>
       </c>
       <c r="B49" s="21" t="s">
@@ -10487,17 +10488,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="40.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="41" t="s">
         <v>192</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
     </row>
     <row r="2" spans="1:9" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -11882,6 +11883,57 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Invited_Students xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
+    <IsNotebookLocked xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
+    <Self_Registration_Enabled xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
+    <FolderType xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
+    <CultureName xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
+    <Student_Groups xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Student_Groups>
+    <DefaultSectionNames xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
+    <Templates xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
+    <NotebookType xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
+    <Teachers xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Teachers>
+    <TeamsChannelId xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
+    <Invited_Teachers xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
+    <Math_Settings xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
+    <Has_Teacher_Only_SectionGroup xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
+    <Owner xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Owner>
+    <Students xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Students>
+    <Distribution_Groups xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
+    <AppVersion xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
+    <LMS_Mappings xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
+    <Is_Collaboration_Space_Locked xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010033F188CDD829674AAD05B93C069E2813" ma:contentTypeVersion="25" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="12f87a5caa000e69b2f4c8c0b3e42f66">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="773ac416-4a36-402f-a3b6-d25dea329997" xmlns:ns4="63d2042b-7b91-46d4-baa3-a67d3669a720" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f06fb7f16fd173aa8b0bb68049ad5879" ns3:_="" ns4:_="">
     <xsd:import namespace="773ac416-4a36-402f-a3b6-d25dea329997"/>
@@ -12240,57 +12292,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Invited_Students xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
-    <IsNotebookLocked xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
-    <Self_Registration_Enabled xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
-    <FolderType xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
-    <CultureName xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
-    <Student_Groups xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Student_Groups>
-    <DefaultSectionNames xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
-    <Templates xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
-    <NotebookType xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
-    <Teachers xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Teachers>
-    <TeamsChannelId xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
-    <Invited_Teachers xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
-    <Math_Settings xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
-    <Has_Teacher_Only_SectionGroup xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
-    <Owner xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Owner>
-    <Students xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Students>
-    <Distribution_Groups xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
-    <AppVersion xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
-    <LMS_Mappings xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
-    <Is_Collaboration_Space_Locked xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1AFF0ECA-8F3D-4871-93DE-8F766A9E7256}">
   <ds:schemaRefs>
@@ -12300,6 +12301,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8B63EFD-93A5-43DC-AEF0-DFD60352CEE8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="63d2042b-7b91-46d4-baa3-a67d3669a720"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="773ac416-4a36-402f-a3b6-d25dea329997"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6741670B-461B-4661-A53C-BD46BBECF45E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12316,21 +12334,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8B63EFD-93A5-43DC-AEF0-DFD60352CEE8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="63d2042b-7b91-46d4-baa3-a67d3669a720"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="773ac416-4a36-402f-a3b6-d25dea329997"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/2022-2023-2 嵌入式原理及应用B  Course Arrangement 成绩评定表 物联网32131.xlsx
+++ b/2022-2023-2 嵌入式原理及应用B  Course Arrangement 成绩评定表 物联网32131.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo-InterOffice\Documents\GitHub\Qt-Embedded-System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0250B16F-2FA6-49F6-AD90-29C81A196BFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E21F8D6B-4E3C-49D9-8A89-CDDC73FE2703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="4" xr2:uid="{56D46586-203F-4DA5-8833-0738A3BCF6C0}"/>
+    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13667" firstSheet="1" activeTab="5" xr2:uid="{56D46586-203F-4DA5-8833-0738A3BCF6C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Basic Information 物联网92061" sheetId="1" r:id="rId1"/>
@@ -911,10 +911,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Embedded SystemEmbedded System（嵌入式原理及应用）Prcoess and Evaluation （过程与评价）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Student ID学号</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -924,6 +920,10 @@
   </si>
   <si>
     <t>Final Exam期末考试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Embedded System（嵌入式原理及应用）Prcoess and Evaluation （过程与评价）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1696,16 +1696,16 @@
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.375" customWidth="1"/>
-    <col min="2" max="2" width="17.625" customWidth="1"/>
-    <col min="3" max="3" width="29.625" customWidth="1"/>
-    <col min="4" max="4" width="33.125" customWidth="1"/>
-    <col min="5" max="5" width="18.125" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="3" max="3" width="29.6640625" customWidth="1"/>
+    <col min="4" max="4" width="33.109375" customWidth="1"/>
+    <col min="5" max="5" width="18.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="40.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="39" t="s">
         <v>155</v>
       </c>
@@ -1714,7 +1714,7 @@
       <c r="D1" s="39"/>
       <c r="E1" s="39"/>
     </row>
-    <row r="2" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="20.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
@@ -1731,7 +1731,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" ht="15.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1746,7 +1746,7 @@
       </c>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" ht="15.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1761,7 +1761,7 @@
       </c>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" ht="15.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1776,7 +1776,7 @@
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" ht="15.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" ht="15.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1806,7 +1806,7 @@
       </c>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" ht="15.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1821,7 +1821,7 @@
       </c>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" ht="15.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1836,7 +1836,7 @@
       </c>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" ht="15.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1851,7 +1851,7 @@
       </c>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" ht="15.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1866,7 +1866,7 @@
       </c>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" ht="15.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" ht="15.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1896,7 +1896,7 @@
       </c>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" ht="15.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1911,7 +1911,7 @@
       </c>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" ht="15.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1926,7 +1926,7 @@
       </c>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" ht="15.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1941,7 +1941,7 @@
       </c>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5" ht="15.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1956,7 +1956,7 @@
       </c>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5" ht="15.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1971,7 +1971,7 @@
       </c>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5" ht="15.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1986,7 +1986,7 @@
       </c>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5" ht="15.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5" ht="15.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2016,7 +2016,7 @@
       </c>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5" ht="15.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2031,7 +2031,7 @@
       </c>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5" ht="15.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2046,7 +2046,7 @@
       </c>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5" ht="15.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2061,7 +2061,7 @@
       </c>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5" ht="15.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2076,7 +2076,7 @@
       </c>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5" ht="15.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2091,7 +2091,7 @@
       </c>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5" ht="15.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2106,7 +2106,7 @@
       </c>
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5" ht="15.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2121,7 +2121,7 @@
       </c>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5" ht="15.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2136,7 +2136,7 @@
       </c>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:5" ht="15.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2151,7 +2151,7 @@
       </c>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:5" ht="15.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2166,7 +2166,7 @@
       </c>
       <c r="E31" s="2"/>
     </row>
-    <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:5" ht="15.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -2181,7 +2181,7 @@
       </c>
       <c r="E32" s="2"/>
     </row>
-    <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" ht="15.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -2196,7 +2196,7 @@
       </c>
       <c r="E33" s="2"/>
     </row>
-    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" ht="15.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -2211,7 +2211,7 @@
       </c>
       <c r="E34" s="2"/>
     </row>
-    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" ht="15.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -2226,7 +2226,7 @@
       </c>
       <c r="E35" s="2"/>
     </row>
-    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" ht="15.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -2241,7 +2241,7 @@
       </c>
       <c r="E36" s="2"/>
     </row>
-    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" ht="15.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -2256,7 +2256,7 @@
       </c>
       <c r="E37" s="2"/>
     </row>
-    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" ht="15.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -2271,7 +2271,7 @@
       </c>
       <c r="E38" s="2"/>
     </row>
-    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" ht="15.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -2286,7 +2286,7 @@
       </c>
       <c r="E39" s="2"/>
     </row>
-    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" ht="15.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -2301,7 +2301,7 @@
       </c>
       <c r="E40" s="2"/>
     </row>
-    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" ht="15.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -2316,7 +2316,7 @@
       </c>
       <c r="E41" s="2"/>
     </row>
-    <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" ht="15.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="E42" s="2"/>
     </row>
-    <row r="43" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5" ht="15.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -2346,7 +2346,7 @@
       </c>
       <c r="E43" s="2"/>
     </row>
-    <row r="44" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5" ht="15.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -2361,7 +2361,7 @@
       </c>
       <c r="E44" s="2"/>
     </row>
-    <row r="45" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5" ht="15.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -2376,7 +2376,7 @@
       </c>
       <c r="E45" s="2"/>
     </row>
-    <row r="46" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5" ht="15.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -2391,7 +2391,7 @@
       </c>
       <c r="E46" s="2"/>
     </row>
-    <row r="47" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5" ht="15.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -2406,7 +2406,7 @@
       </c>
       <c r="E47" s="2"/>
     </row>
-    <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5" ht="15.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -2442,17 +2442,17 @@
       <selection activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.375" customWidth="1"/>
-    <col min="2" max="2" width="15.625" customWidth="1"/>
-    <col min="3" max="3" width="21.25" customWidth="1"/>
-    <col min="4" max="8" width="3.5" customWidth="1"/>
-    <col min="9" max="9" width="3.5" style="19" customWidth="1"/>
-    <col min="10" max="35" width="3.5" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="21.21875" customWidth="1"/>
+    <col min="4" max="8" width="3.44140625" customWidth="1"/>
+    <col min="9" max="9" width="3.44140625" style="19" customWidth="1"/>
+    <col min="10" max="35" width="3.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="28.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>175</v>
       </c>
@@ -2491,7 +2491,7 @@
       <c r="AH1" s="40"/>
       <c r="AI1" s="40"/>
     </row>
-    <row r="2" spans="1:35" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" ht="29.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>174</v>
       </c>
@@ -7648,15 +7648,15 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
-    <col min="2" max="2" width="50.125" customWidth="1"/>
-    <col min="3" max="3" width="11.625" customWidth="1"/>
-    <col min="4" max="4" width="38.625" customWidth="1"/>
+    <col min="2" max="2" width="50.109375" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+    <col min="4" max="4" width="38.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="41" t="s">
         <v>177</v>
       </c>
@@ -7664,7 +7664,7 @@
       <c r="C1" s="41"/>
       <c r="D1" s="41"/>
     </row>
-    <row r="2" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="38.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -7678,7 +7678,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -7692,7 +7692,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -7706,7 +7706,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -7720,7 +7720,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -7734,7 +7734,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -7748,7 +7748,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>6</v>
       </c>
@@ -7762,7 +7762,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>7</v>
       </c>
@@ -7776,7 +7776,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>8</v>
       </c>
@@ -7808,18 +7808,18 @@
   <dimension ref="A1:N49"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection sqref="A1:L49"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.375" customWidth="1"/>
-    <col min="3" max="3" width="17.5" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" customWidth="1"/>
     <col min="4" max="11" width="9" style="25"/>
-    <col min="12" max="12" width="16.125" customWidth="1"/>
+    <col min="12" max="12" width="16.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="30.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="42" t="s">
         <v>186</v>
       </c>
@@ -7835,7 +7835,7 @@
       <c r="K1" s="42"/>
       <c r="L1" s="42"/>
     </row>
-    <row r="2" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>178</v>
       </c>
@@ -9767,41 +9767,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA79610A-E7A5-424E-B8A8-4419EA79CF39}">
   <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A33" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D3" sqref="D3:D49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.75" customWidth="1"/>
-    <col min="2" max="2" width="13.125" customWidth="1"/>
-    <col min="3" max="3" width="22.125" customWidth="1"/>
-    <col min="4" max="4" width="17.5" style="9" customWidth="1"/>
+    <col min="1" max="1" width="7.77734375" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" customWidth="1"/>
+    <col min="3" max="3" width="22.109375" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="40.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="43" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B1" s="43"/>
       <c r="C1" s="43"/>
       <c r="D1" s="43"/>
     </row>
-    <row r="2" spans="1:4" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="66.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>178</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>180</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="38">
         <v>1</v>
       </c>
@@ -9815,7 +9815,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="38">
         <v>2</v>
       </c>
@@ -9829,7 +9829,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="38">
         <v>3</v>
       </c>
@@ -9843,7 +9843,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="38">
         <v>4</v>
       </c>
@@ -9857,7 +9857,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="38">
         <v>5</v>
       </c>
@@ -9871,7 +9871,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="38">
         <v>6</v>
       </c>
@@ -9885,7 +9885,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="38">
         <v>7</v>
       </c>
@@ -9899,7 +9899,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="38">
         <v>8</v>
       </c>
@@ -9913,7 +9913,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="38">
         <v>9</v>
       </c>
@@ -9927,7 +9927,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="38">
         <v>10</v>
       </c>
@@ -9941,7 +9941,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="38">
         <v>11</v>
       </c>
@@ -9955,7 +9955,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="38">
         <v>12</v>
       </c>
@@ -9969,7 +9969,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="38">
         <v>13</v>
       </c>
@@ -9983,7 +9983,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="38">
         <v>14</v>
       </c>
@@ -9997,7 +9997,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="38">
         <v>15</v>
       </c>
@@ -10011,7 +10011,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="38">
         <v>16</v>
       </c>
@@ -10025,7 +10025,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="38">
         <v>17</v>
       </c>
@@ -10039,7 +10039,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="38">
         <v>18</v>
       </c>
@@ -10053,7 +10053,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="38">
         <v>19</v>
       </c>
@@ -10067,7 +10067,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="38">
         <v>20</v>
       </c>
@@ -10081,7 +10081,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="38">
         <v>21</v>
       </c>
@@ -10095,7 +10095,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="38">
         <v>22</v>
       </c>
@@ -10109,7 +10109,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="38">
         <v>23</v>
       </c>
@@ -10123,7 +10123,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="38">
         <v>24</v>
       </c>
@@ -10137,7 +10137,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="38">
         <v>25</v>
       </c>
@@ -10151,7 +10151,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="38">
         <v>26</v>
       </c>
@@ -10165,7 +10165,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="38">
         <v>27</v>
       </c>
@@ -10179,7 +10179,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="38">
         <v>28</v>
       </c>
@@ -10193,7 +10193,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="38">
         <v>29</v>
       </c>
@@ -10207,7 +10207,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="38">
         <v>30</v>
       </c>
@@ -10221,7 +10221,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="38">
         <v>31</v>
       </c>
@@ -10235,7 +10235,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="38">
         <v>32</v>
       </c>
@@ -10249,7 +10249,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="38">
         <v>33</v>
       </c>
@@ -10263,7 +10263,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="38">
         <v>34</v>
       </c>
@@ -10277,7 +10277,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="38">
         <v>35</v>
       </c>
@@ -10291,7 +10291,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="38">
         <v>36</v>
       </c>
@@ -10305,7 +10305,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="38">
         <v>37</v>
       </c>
@@ -10319,7 +10319,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="38">
         <v>38</v>
       </c>
@@ -10333,7 +10333,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="38">
         <v>39</v>
       </c>
@@ -10347,7 +10347,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="38">
         <v>40</v>
       </c>
@@ -10361,7 +10361,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="38">
         <v>41</v>
       </c>
@@ -10375,7 +10375,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="38">
         <v>42</v>
       </c>
@@ -10389,7 +10389,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="38">
         <v>43</v>
       </c>
@@ -10403,7 +10403,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="38">
         <v>44</v>
       </c>
@@ -10417,7 +10417,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="38">
         <v>45</v>
       </c>
@@ -10431,7 +10431,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="38">
         <v>46</v>
       </c>
@@ -10445,7 +10445,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="38">
         <v>47</v>
       </c>
@@ -10473,23 +10473,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06EBC456-0353-452F-B62B-0A1B41F55AD0}">
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.375" customWidth="1"/>
-    <col min="2" max="2" width="13.125" customWidth="1"/>
-    <col min="3" max="3" width="22.125" customWidth="1"/>
-    <col min="4" max="6" width="10.125" style="10" customWidth="1"/>
-    <col min="7" max="8" width="10.625" style="9" customWidth="1"/>
-    <col min="9" max="9" width="25.5" style="11" customWidth="1"/>
+    <col min="1" max="1" width="4.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" customWidth="1"/>
+    <col min="3" max="3" width="22.109375" customWidth="1"/>
+    <col min="4" max="6" width="10.109375" style="10" customWidth="1"/>
+    <col min="7" max="8" width="10.6640625" style="9" customWidth="1"/>
+    <col min="9" max="9" width="25.44140625" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="40.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="41" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B1" s="44"/>
       <c r="C1" s="44"/>
@@ -10500,7 +10500,7 @@
       <c r="H1" s="44"/>
       <c r="I1" s="44"/>
     </row>
-    <row r="2" spans="1:9" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="66.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -10529,7 +10529,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" ht="15.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -10557,7 +10557,7 @@
       </c>
       <c r="I3" s="14"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" ht="15.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -10585,7 +10585,7 @@
       </c>
       <c r="I4" s="14"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" ht="15.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -10613,7 +10613,7 @@
       </c>
       <c r="I5" s="14"/>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" ht="15.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -10643,7 +10643,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" ht="15.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -10671,7 +10671,7 @@
       </c>
       <c r="I7" s="14"/>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" ht="15.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -10701,7 +10701,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" ht="15.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -10729,7 +10729,7 @@
       </c>
       <c r="I9" s="14"/>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" ht="15.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -10759,7 +10759,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" ht="15.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -10787,7 +10787,7 @@
       </c>
       <c r="I11" s="14"/>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" ht="15.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -10817,7 +10817,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" ht="15.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -10845,7 +10845,7 @@
       </c>
       <c r="I13" s="14"/>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" ht="15.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -10873,7 +10873,7 @@
       </c>
       <c r="I14" s="14"/>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" ht="15.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -10901,7 +10901,7 @@
       </c>
       <c r="I15" s="14"/>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" ht="15.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -10929,7 +10929,7 @@
       </c>
       <c r="I16" s="22"/>
     </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9" ht="15.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -10959,7 +10959,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9" ht="15.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -10987,7 +10987,7 @@
       </c>
       <c r="I18" s="22"/>
     </row>
-    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9" ht="15.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -11015,7 +11015,7 @@
       </c>
       <c r="I19" s="22"/>
     </row>
-    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9" ht="15.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -11043,7 +11043,7 @@
       </c>
       <c r="I20" s="22"/>
     </row>
-    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9" ht="15.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -11071,7 +11071,7 @@
       </c>
       <c r="I21" s="22"/>
     </row>
-    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9" ht="15.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -11099,7 +11099,7 @@
       </c>
       <c r="I22" s="22"/>
     </row>
-    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9" ht="15.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -11127,7 +11127,7 @@
       </c>
       <c r="I23" s="22"/>
     </row>
-    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9" ht="15.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -11155,7 +11155,7 @@
       </c>
       <c r="I24" s="22"/>
     </row>
-    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9" ht="15.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -11183,7 +11183,7 @@
       </c>
       <c r="I25" s="22"/>
     </row>
-    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9" ht="15.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -11211,7 +11211,7 @@
       </c>
       <c r="I26" s="22"/>
     </row>
-    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9" ht="15.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -11241,7 +11241,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9" ht="15.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -11269,7 +11269,7 @@
       </c>
       <c r="I28" s="22"/>
     </row>
-    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:9" ht="15.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -11297,7 +11297,7 @@
       </c>
       <c r="I29" s="22"/>
     </row>
-    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:9" ht="15.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -11325,7 +11325,7 @@
       </c>
       <c r="I30" s="22"/>
     </row>
-    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:9" ht="15.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -11355,7 +11355,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:9" ht="15.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -11383,7 +11383,7 @@
       </c>
       <c r="I32" s="22"/>
     </row>
-    <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:9" ht="15.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -11411,7 +11411,7 @@
       </c>
       <c r="I33" s="22"/>
     </row>
-    <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:9" ht="15.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -11439,7 +11439,7 @@
       </c>
       <c r="I34" s="22"/>
     </row>
-    <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:9" ht="15.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -11467,7 +11467,7 @@
       </c>
       <c r="I35" s="22"/>
     </row>
-    <row r="36" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:9" ht="15.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -11495,7 +11495,7 @@
       </c>
       <c r="I36" s="22"/>
     </row>
-    <row r="37" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:9" ht="15.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -11523,7 +11523,7 @@
       </c>
       <c r="I37" s="22"/>
     </row>
-    <row r="38" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:9" ht="15.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -11551,7 +11551,7 @@
       </c>
       <c r="I38" s="22"/>
     </row>
-    <row r="39" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:9" ht="15.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -11579,7 +11579,7 @@
       </c>
       <c r="I39" s="22"/>
     </row>
-    <row r="40" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:9" ht="15.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -11607,7 +11607,7 @@
       </c>
       <c r="I40" s="22"/>
     </row>
-    <row r="41" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:9" ht="15.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -11635,7 +11635,7 @@
       </c>
       <c r="I41" s="22"/>
     </row>
-    <row r="42" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:9" ht="15.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -11665,7 +11665,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:9" ht="15.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -11693,7 +11693,7 @@
       </c>
       <c r="I43" s="22"/>
     </row>
-    <row r="44" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:9" ht="15.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -11723,7 +11723,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:9" ht="15.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -11751,7 +11751,7 @@
       </c>
       <c r="I45" s="22"/>
     </row>
-    <row r="46" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:9" ht="15.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -11779,7 +11779,7 @@
       </c>
       <c r="I46" s="22"/>
     </row>
-    <row r="47" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:9" ht="15.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -11807,7 +11807,7 @@
       </c>
       <c r="I47" s="22"/>
     </row>
-    <row r="48" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:9" ht="15.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -11835,7 +11835,7 @@
       </c>
       <c r="I48" s="22"/>
     </row>
-    <row r="49" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:9" ht="15.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -11883,57 +11883,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Invited_Students xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
-    <IsNotebookLocked xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
-    <Self_Registration_Enabled xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
-    <FolderType xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
-    <CultureName xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
-    <Student_Groups xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Student_Groups>
-    <DefaultSectionNames xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
-    <Templates xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
-    <NotebookType xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
-    <Teachers xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Teachers>
-    <TeamsChannelId xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
-    <Invited_Teachers xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
-    <Math_Settings xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
-    <Has_Teacher_Only_SectionGroup xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
-    <Owner xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Owner>
-    <Students xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Students>
-    <Distribution_Groups xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
-    <AppVersion xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
-    <LMS_Mappings xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
-    <Is_Collaboration_Space_Locked xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010033F188CDD829674AAD05B93C069E2813" ma:contentTypeVersion="25" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="12f87a5caa000e69b2f4c8c0b3e42f66">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="773ac416-4a36-402f-a3b6-d25dea329997" xmlns:ns4="63d2042b-7b91-46d4-baa3-a67d3669a720" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f06fb7f16fd173aa8b0bb68049ad5879" ns3:_="" ns4:_="">
     <xsd:import namespace="773ac416-4a36-402f-a3b6-d25dea329997"/>
@@ -12292,6 +12241,57 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Invited_Students xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
+    <IsNotebookLocked xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
+    <Self_Registration_Enabled xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
+    <FolderType xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
+    <CultureName xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
+    <Student_Groups xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Student_Groups>
+    <DefaultSectionNames xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
+    <Templates xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
+    <NotebookType xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
+    <Teachers xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Teachers>
+    <TeamsChannelId xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
+    <Invited_Teachers xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
+    <Math_Settings xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
+    <Has_Teacher_Only_SectionGroup xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
+    <Owner xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Owner>
+    <Students xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Students>
+    <Distribution_Groups xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
+    <AppVersion xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
+    <LMS_Mappings xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
+    <Is_Collaboration_Space_Locked xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1AFF0ECA-8F3D-4871-93DE-8F766A9E7256}">
   <ds:schemaRefs>
@@ -12301,23 +12301,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8B63EFD-93A5-43DC-AEF0-DFD60352CEE8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="63d2042b-7b91-46d4-baa3-a67d3669a720"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="773ac416-4a36-402f-a3b6-d25dea329997"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6741670B-461B-4661-A53C-BD46BBECF45E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12334,4 +12317,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8B63EFD-93A5-43DC-AEF0-DFD60352CEE8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="63d2042b-7b91-46d4-baa3-a67d3669a720"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="773ac416-4a36-402f-a3b6-d25dea329997"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>